--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -451,17 +451,13 @@
         <v>511.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>507</v>
-      </c>
-      <c r="K2" t="n">
-        <v>507</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,968 +486,814 @@
         <v>508</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>501</v>
-      </c>
-      <c r="K3" t="n">
-        <v>507</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>512</v>
+      </c>
+      <c r="C4" t="n">
+        <v>524</v>
+      </c>
+      <c r="D4" t="n">
+        <v>524</v>
+      </c>
+      <c r="E4" t="n">
+        <v>512</v>
+      </c>
+      <c r="F4" t="n">
+        <v>80</v>
+      </c>
+      <c r="G4" t="n">
+        <v>510</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>509</v>
+      </c>
+      <c r="C5" t="n">
+        <v>527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>527</v>
+      </c>
+      <c r="E5" t="n">
+        <v>509</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4396.7198</v>
+      </c>
+      <c r="G5" t="n">
+        <v>513.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>520</v>
+      </c>
+      <c r="C6" t="n">
+        <v>520</v>
+      </c>
+      <c r="D6" t="n">
+        <v>520</v>
+      </c>
+      <c r="E6" t="n">
+        <v>520</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>515.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>512</v>
+      </c>
+      <c r="C7" t="n">
+        <v>520</v>
+      </c>
+      <c r="D7" t="n">
+        <v>520</v>
+      </c>
+      <c r="E7" t="n">
+        <v>511</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1374.5587</v>
+      </c>
+      <c r="G7" t="n">
+        <v>518.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>510</v>
+      </c>
+      <c r="C8" t="n">
+        <v>510</v>
+      </c>
+      <c r="D8" t="n">
+        <v>510</v>
+      </c>
+      <c r="E8" t="n">
+        <v>510</v>
+      </c>
+      <c r="F8" t="n">
+        <v>846.056</v>
+      </c>
+      <c r="G8" t="n">
+        <v>520.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>518</v>
+      </c>
+      <c r="C9" t="n">
+        <v>518</v>
+      </c>
+      <c r="D9" t="n">
+        <v>518</v>
+      </c>
+      <c r="E9" t="n">
+        <v>518</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>519</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>510</v>
+      </c>
+      <c r="C10" t="n">
+        <v>510</v>
+      </c>
+      <c r="D10" t="n">
+        <v>510</v>
+      </c>
+      <c r="E10" t="n">
+        <v>510</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2053.9274</v>
+      </c>
+      <c r="G10" t="n">
+        <v>515.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>509</v>
+      </c>
+      <c r="C11" t="n">
+        <v>509</v>
+      </c>
+      <c r="D11" t="n">
+        <v>509</v>
+      </c>
+      <c r="E11" t="n">
+        <v>509</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2035.9668</v>
+      </c>
+      <c r="G11" t="n">
+        <v>513.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>517</v>
+      </c>
+      <c r="C12" t="n">
+        <v>517</v>
+      </c>
+      <c r="D12" t="n">
+        <v>517</v>
+      </c>
+      <c r="E12" t="n">
+        <v>517</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>512.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>505</v>
+      </c>
+      <c r="C13" t="n">
+        <v>505</v>
+      </c>
+      <c r="D13" t="n">
+        <v>505</v>
+      </c>
+      <c r="E13" t="n">
+        <v>505</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="G13" t="n">
+        <v>511.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>514</v>
+      </c>
+      <c r="C14" t="n">
+        <v>514</v>
+      </c>
+      <c r="D14" t="n">
+        <v>514</v>
+      </c>
+      <c r="E14" t="n">
+        <v>514</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>511</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>514</v>
+      </c>
+      <c r="C15" t="n">
+        <v>514</v>
+      </c>
+      <c r="D15" t="n">
+        <v>514</v>
+      </c>
+      <c r="E15" t="n">
+        <v>514</v>
+      </c>
+      <c r="F15" t="n">
+        <v>564.2023</v>
+      </c>
+      <c r="G15" t="n">
+        <v>511.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>509</v>
+      </c>
+      <c r="C16" t="n">
+        <v>509</v>
+      </c>
+      <c r="D16" t="n">
+        <v>509</v>
+      </c>
+      <c r="E16" t="n">
+        <v>508</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1398.746</v>
+      </c>
+      <c r="G16" t="n">
+        <v>511.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>508</v>
+      </c>
+      <c r="C17" t="n">
+        <v>509</v>
+      </c>
+      <c r="D17" t="n">
+        <v>509</v>
+      </c>
+      <c r="E17" t="n">
+        <v>508</v>
+      </c>
+      <c r="F17" t="n">
+        <v>595.2623</v>
+      </c>
+      <c r="G17" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>513</v>
+      </c>
+      <c r="C18" t="n">
+        <v>513</v>
+      </c>
+      <c r="D18" t="n">
+        <v>513</v>
+      </c>
+      <c r="E18" t="n">
+        <v>513</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>511.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>513</v>
+      </c>
+      <c r="C19" t="n">
+        <v>513</v>
+      </c>
+      <c r="D19" t="n">
+        <v>513</v>
+      </c>
+      <c r="E19" t="n">
+        <v>513</v>
+      </c>
+      <c r="F19" t="n">
+        <v>593</v>
+      </c>
+      <c r="G19" t="n">
+        <v>511.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>513</v>
+      </c>
+      <c r="C20" t="n">
+        <v>513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>513</v>
+      </c>
+      <c r="E20" t="n">
+        <v>513</v>
+      </c>
+      <c r="F20" t="n">
+        <v>302.0079</v>
+      </c>
+      <c r="G20" t="n">
+        <v>511.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>517</v>
+      </c>
+      <c r="C21" t="n">
+        <v>517</v>
+      </c>
+      <c r="D21" t="n">
+        <v>517</v>
+      </c>
+      <c r="E21" t="n">
+        <v>517</v>
+      </c>
+      <c r="F21" t="n">
+        <v>206.2807</v>
+      </c>
+      <c r="G21" t="n">
+        <v>513</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>513</v>
+      </c>
+      <c r="K21" t="n">
+        <v>513</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>517</v>
+      </c>
+      <c r="C22" t="n">
+        <v>522</v>
+      </c>
+      <c r="D22" t="n">
+        <v>522</v>
+      </c>
+      <c r="E22" t="n">
+        <v>517</v>
+      </c>
+      <c r="F22" t="n">
+        <v>65</v>
+      </c>
+      <c r="G22" t="n">
+        <v>515.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>517</v>
+      </c>
+      <c r="K22" t="n">
+        <v>513</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>512</v>
-      </c>
-      <c r="C4" t="n">
-        <v>524</v>
-      </c>
-      <c r="D4" t="n">
-        <v>524</v>
-      </c>
-      <c r="E4" t="n">
-        <v>512</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>522</v>
+      </c>
+      <c r="C23" t="n">
+        <v>529</v>
+      </c>
+      <c r="D23" t="n">
+        <v>530</v>
+      </c>
+      <c r="E23" t="n">
+        <v>522</v>
+      </c>
+      <c r="F23" t="n">
         <v>80</v>
       </c>
-      <c r="G4" t="n">
-        <v>510</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>512</v>
-      </c>
-      <c r="K4" t="n">
-        <v>507</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G23" t="n">
+        <v>518.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>522</v>
+      </c>
+      <c r="K23" t="n">
+        <v>513</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>509</v>
-      </c>
-      <c r="C5" t="n">
-        <v>527</v>
-      </c>
-      <c r="D5" t="n">
-        <v>527</v>
-      </c>
-      <c r="E5" t="n">
-        <v>509</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4396.7198</v>
-      </c>
-      <c r="G5" t="n">
-        <v>513.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>509</v>
-      </c>
-      <c r="K5" t="n">
-        <v>507</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>529</v>
+      </c>
+      <c r="C24" t="n">
+        <v>529</v>
+      </c>
+      <c r="D24" t="n">
+        <v>529</v>
+      </c>
+      <c r="E24" t="n">
+        <v>529</v>
+      </c>
+      <c r="F24" t="n">
+        <v>439.0173</v>
+      </c>
+      <c r="G24" t="n">
+        <v>522</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>529</v>
+      </c>
+      <c r="K24" t="n">
+        <v>529</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>528</v>
+      </c>
+      <c r="C25" t="n">
+        <v>531</v>
+      </c>
+      <c r="D25" t="n">
+        <v>531</v>
+      </c>
+      <c r="E25" t="n">
+        <v>528</v>
+      </c>
+      <c r="F25" t="n">
+        <v>350.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>525.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>529</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>520</v>
-      </c>
-      <c r="C6" t="n">
-        <v>520</v>
-      </c>
-      <c r="D6" t="n">
-        <v>520</v>
-      </c>
-      <c r="E6" t="n">
-        <v>520</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>515.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>520</v>
-      </c>
-      <c r="K6" t="n">
-        <v>507</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>512</v>
-      </c>
-      <c r="C7" t="n">
-        <v>520</v>
-      </c>
-      <c r="D7" t="n">
-        <v>520</v>
-      </c>
-      <c r="E7" t="n">
-        <v>511</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1374.5587</v>
-      </c>
-      <c r="G7" t="n">
-        <v>518.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>512</v>
-      </c>
-      <c r="K7" t="n">
-        <v>507</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>510</v>
-      </c>
-      <c r="C8" t="n">
-        <v>510</v>
-      </c>
-      <c r="D8" t="n">
-        <v>510</v>
-      </c>
-      <c r="E8" t="n">
-        <v>510</v>
-      </c>
-      <c r="F8" t="n">
-        <v>846.056</v>
-      </c>
-      <c r="G8" t="n">
-        <v>520.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>510</v>
-      </c>
-      <c r="K8" t="n">
-        <v>507</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>518</v>
-      </c>
-      <c r="C9" t="n">
-        <v>518</v>
-      </c>
-      <c r="D9" t="n">
-        <v>518</v>
-      </c>
-      <c r="E9" t="n">
-        <v>518</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>519</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>518</v>
-      </c>
-      <c r="K9" t="n">
-        <v>507</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>510</v>
-      </c>
-      <c r="C10" t="n">
-        <v>510</v>
-      </c>
-      <c r="D10" t="n">
-        <v>510</v>
-      </c>
-      <c r="E10" t="n">
-        <v>510</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2053.9274</v>
-      </c>
-      <c r="G10" t="n">
-        <v>515.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>510</v>
-      </c>
-      <c r="K10" t="n">
-        <v>507</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>509</v>
-      </c>
-      <c r="C11" t="n">
-        <v>509</v>
-      </c>
-      <c r="D11" t="n">
-        <v>509</v>
-      </c>
-      <c r="E11" t="n">
-        <v>509</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2035.9668</v>
-      </c>
-      <c r="G11" t="n">
-        <v>513.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>509</v>
-      </c>
-      <c r="K11" t="n">
-        <v>507</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>517</v>
-      </c>
-      <c r="C12" t="n">
-        <v>517</v>
-      </c>
-      <c r="D12" t="n">
-        <v>517</v>
-      </c>
-      <c r="E12" t="n">
-        <v>517</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>512.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>517</v>
-      </c>
-      <c r="K12" t="n">
-        <v>507</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>505</v>
-      </c>
-      <c r="C13" t="n">
-        <v>505</v>
-      </c>
-      <c r="D13" t="n">
-        <v>505</v>
-      </c>
-      <c r="E13" t="n">
-        <v>505</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.995</v>
-      </c>
-      <c r="G13" t="n">
-        <v>511.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>505</v>
-      </c>
-      <c r="K13" t="n">
-        <v>507</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>514</v>
-      </c>
-      <c r="C14" t="n">
-        <v>514</v>
-      </c>
-      <c r="D14" t="n">
-        <v>514</v>
-      </c>
-      <c r="E14" t="n">
-        <v>514</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>511</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>514</v>
-      </c>
-      <c r="K14" t="n">
-        <v>507</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>514</v>
-      </c>
-      <c r="C15" t="n">
-        <v>514</v>
-      </c>
-      <c r="D15" t="n">
-        <v>514</v>
-      </c>
-      <c r="E15" t="n">
-        <v>514</v>
-      </c>
-      <c r="F15" t="n">
-        <v>564.2023</v>
-      </c>
-      <c r="G15" t="n">
-        <v>511.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>514</v>
-      </c>
-      <c r="K15" t="n">
-        <v>507</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>509</v>
-      </c>
-      <c r="C16" t="n">
-        <v>509</v>
-      </c>
-      <c r="D16" t="n">
-        <v>509</v>
-      </c>
-      <c r="E16" t="n">
-        <v>508</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1398.746</v>
-      </c>
-      <c r="G16" t="n">
-        <v>511.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>509</v>
-      </c>
-      <c r="K16" t="n">
-        <v>507</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>508</v>
-      </c>
-      <c r="C17" t="n">
-        <v>509</v>
-      </c>
-      <c r="D17" t="n">
-        <v>509</v>
-      </c>
-      <c r="E17" t="n">
-        <v>508</v>
-      </c>
-      <c r="F17" t="n">
-        <v>595.2623</v>
-      </c>
-      <c r="G17" t="n">
-        <v>510.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>508</v>
-      </c>
-      <c r="K17" t="n">
-        <v>507</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>513</v>
-      </c>
-      <c r="C18" t="n">
-        <v>513</v>
-      </c>
-      <c r="D18" t="n">
-        <v>513</v>
-      </c>
-      <c r="E18" t="n">
-        <v>513</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>511.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>513</v>
-      </c>
-      <c r="K18" t="n">
-        <v>507</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>513</v>
-      </c>
-      <c r="C19" t="n">
-        <v>513</v>
-      </c>
-      <c r="D19" t="n">
-        <v>513</v>
-      </c>
-      <c r="E19" t="n">
-        <v>513</v>
-      </c>
-      <c r="F19" t="n">
-        <v>593</v>
-      </c>
-      <c r="G19" t="n">
-        <v>511.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>513</v>
-      </c>
-      <c r="K19" t="n">
-        <v>507</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>513</v>
-      </c>
-      <c r="C20" t="n">
-        <v>513</v>
-      </c>
-      <c r="D20" t="n">
-        <v>513</v>
-      </c>
-      <c r="E20" t="n">
-        <v>513</v>
-      </c>
-      <c r="F20" t="n">
-        <v>302.0079</v>
-      </c>
-      <c r="G20" t="n">
-        <v>511.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>513</v>
-      </c>
-      <c r="K20" t="n">
-        <v>507</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>517</v>
-      </c>
-      <c r="C21" t="n">
-        <v>517</v>
-      </c>
-      <c r="D21" t="n">
-        <v>517</v>
-      </c>
-      <c r="E21" t="n">
-        <v>517</v>
-      </c>
-      <c r="F21" t="n">
-        <v>206.2807</v>
-      </c>
-      <c r="G21" t="n">
-        <v>513</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>517</v>
-      </c>
-      <c r="K21" t="n">
-        <v>507</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>517</v>
-      </c>
-      <c r="C22" t="n">
-        <v>522</v>
-      </c>
-      <c r="D22" t="n">
-        <v>522</v>
-      </c>
-      <c r="E22" t="n">
-        <v>517</v>
-      </c>
-      <c r="F22" t="n">
-        <v>65</v>
-      </c>
-      <c r="G22" t="n">
-        <v>515.6</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>517</v>
-      </c>
-      <c r="K22" t="n">
-        <v>507</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>522</v>
-      </c>
-      <c r="C23" t="n">
-        <v>529</v>
-      </c>
-      <c r="D23" t="n">
-        <v>530</v>
-      </c>
-      <c r="E23" t="n">
-        <v>522</v>
-      </c>
-      <c r="F23" t="n">
-        <v>80</v>
-      </c>
-      <c r="G23" t="n">
-        <v>518.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>522</v>
-      </c>
-      <c r="K23" t="n">
-        <v>507</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>529</v>
-      </c>
-      <c r="C24" t="n">
-        <v>529</v>
-      </c>
-      <c r="D24" t="n">
-        <v>529</v>
-      </c>
-      <c r="E24" t="n">
-        <v>529</v>
-      </c>
-      <c r="F24" t="n">
-        <v>439.0173</v>
-      </c>
-      <c r="G24" t="n">
-        <v>522</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>529</v>
-      </c>
-      <c r="K24" t="n">
-        <v>507</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>528</v>
-      </c>
-      <c r="C25" t="n">
-        <v>531</v>
-      </c>
-      <c r="D25" t="n">
-        <v>531</v>
-      </c>
-      <c r="E25" t="n">
-        <v>528</v>
-      </c>
-      <c r="F25" t="n">
-        <v>350.2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>525.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>528</v>
-      </c>
-      <c r="K25" t="n">
-        <v>507</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1486,7 +1328,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1527,7 +1369,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1568,7 +1410,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1609,7 +1451,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1650,7 +1492,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1691,7 +1533,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1728,11 +1570,11 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1773,7 +1615,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1814,155 +1656,179 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>539</v>
+      </c>
+      <c r="C35" t="n">
+        <v>539</v>
+      </c>
+      <c r="D35" t="n">
+        <v>539</v>
+      </c>
+      <c r="E35" t="n">
+        <v>539</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19</v>
+      </c>
+      <c r="G35" t="n">
+        <v>537.4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>529</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>534</v>
+      </c>
+      <c r="C36" t="n">
+        <v>535</v>
+      </c>
+      <c r="D36" t="n">
+        <v>535</v>
+      </c>
+      <c r="E36" t="n">
+        <v>534</v>
+      </c>
+      <c r="F36" t="n">
+        <v>156.3084</v>
+      </c>
+      <c r="G36" t="n">
+        <v>536.6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>529</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>528</v>
+      </c>
+      <c r="C37" t="n">
+        <v>529</v>
+      </c>
+      <c r="D37" t="n">
+        <v>529</v>
+      </c>
+      <c r="E37" t="n">
+        <v>519</v>
+      </c>
+      <c r="F37" t="n">
+        <v>81</v>
+      </c>
+      <c r="G37" t="n">
+        <v>533.8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>529</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>519</v>
+      </c>
+      <c r="C38" t="n">
+        <v>529</v>
+      </c>
+      <c r="D38" t="n">
+        <v>529</v>
+      </c>
+      <c r="E38" t="n">
+        <v>518</v>
+      </c>
+      <c r="F38" t="n">
+        <v>237.5536</v>
+      </c>
+      <c r="G38" t="n">
+        <v>531</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>529</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1.026558185404339</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>539</v>
-      </c>
-      <c r="C35" t="n">
-        <v>539</v>
-      </c>
-      <c r="D35" t="n">
-        <v>539</v>
-      </c>
-      <c r="E35" t="n">
-        <v>539</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19</v>
-      </c>
-      <c r="G35" t="n">
-        <v>537.4</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>534</v>
-      </c>
-      <c r="C36" t="n">
-        <v>535</v>
-      </c>
-      <c r="D36" t="n">
-        <v>535</v>
-      </c>
-      <c r="E36" t="n">
-        <v>534</v>
-      </c>
-      <c r="F36" t="n">
-        <v>156.3084</v>
-      </c>
-      <c r="G36" t="n">
-        <v>536.6</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>528</v>
-      </c>
-      <c r="C37" t="n">
-        <v>529</v>
-      </c>
-      <c r="D37" t="n">
-        <v>529</v>
-      </c>
-      <c r="E37" t="n">
-        <v>519</v>
-      </c>
-      <c r="F37" t="n">
-        <v>81</v>
-      </c>
-      <c r="G37" t="n">
-        <v>533.8</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>519</v>
-      </c>
-      <c r="C38" t="n">
-        <v>529</v>
-      </c>
-      <c r="D38" t="n">
-        <v>529</v>
-      </c>
-      <c r="E38" t="n">
-        <v>518</v>
-      </c>
-      <c r="F38" t="n">
-        <v>237.5536</v>
-      </c>
-      <c r="G38" t="n">
-        <v>531</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="39">

--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C2" t="n">
         <v>507</v>
       </c>
       <c r="D2" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E2" t="n">
         <v>507</v>
       </c>
       <c r="F2" t="n">
-        <v>15.3449</v>
+        <v>260</v>
       </c>
       <c r="G2" t="n">
-        <v>511.2</v>
+        <v>517.0666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C3" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D3" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E3" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F3" t="n">
-        <v>634.0195</v>
+        <v>15.3449</v>
       </c>
       <c r="G3" t="n">
-        <v>508</v>
+        <v>517.1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C4" t="n">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="D4" t="n">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="E4" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>634.0195</v>
       </c>
       <c r="G4" t="n">
-        <v>510</v>
+        <v>517.0333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C5" t="n">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D5" t="n">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E5" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F5" t="n">
-        <v>4396.7198</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>513.2</v>
+        <v>517.35</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C6" t="n">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D6" t="n">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E6" t="n">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4396.7198</v>
       </c>
       <c r="G6" t="n">
-        <v>515.8</v>
+        <v>517.7166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C7" t="n">
         <v>520</v>
@@ -617,13 +617,13 @@
         <v>520</v>
       </c>
       <c r="E7" t="n">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="F7" t="n">
-        <v>1374.5587</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>518.4</v>
+        <v>517.9666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C8" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D8" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E8" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F8" t="n">
-        <v>846.056</v>
+        <v>1374.5587</v>
       </c>
       <c r="G8" t="n">
-        <v>520.2</v>
+        <v>518.2166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C9" t="n">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D9" t="n">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E9" t="n">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>846.056</v>
       </c>
       <c r="G9" t="n">
-        <v>519</v>
+        <v>518.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C10" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D10" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E10" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F10" t="n">
-        <v>2053.9274</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>515.6</v>
+        <v>518.5666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C11" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D11" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E11" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F11" t="n">
-        <v>2035.9668</v>
+        <v>2053.9274</v>
       </c>
       <c r="G11" t="n">
-        <v>513.4</v>
+        <v>518.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C12" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D12" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E12" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2035.9668</v>
       </c>
       <c r="G12" t="n">
-        <v>512.8</v>
+        <v>518.8166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C13" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D13" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="E13" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F13" t="n">
-        <v>1.995</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>511.8</v>
+        <v>519.0833333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C14" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D14" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E14" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>1.995</v>
       </c>
       <c r="G14" t="n">
-        <v>511</v>
+        <v>519.1333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>514</v>
       </c>
       <c r="F15" t="n">
-        <v>564.2023</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>511.8</v>
+        <v>519.2833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C16" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D16" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E16" t="n">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F16" t="n">
-        <v>1398.746</v>
+        <v>564.2023</v>
       </c>
       <c r="G16" t="n">
-        <v>511.8</v>
+        <v>519.35</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C17" t="n">
         <v>509</v>
@@ -970,10 +970,10 @@
         <v>508</v>
       </c>
       <c r="F17" t="n">
-        <v>595.2623</v>
+        <v>1398.746</v>
       </c>
       <c r="G17" t="n">
-        <v>510.2</v>
+        <v>519.4833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C18" t="n">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D18" t="n">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E18" t="n">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>595.2623</v>
       </c>
       <c r="G18" t="n">
-        <v>511.8</v>
+        <v>519.5166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>513</v>
       </c>
       <c r="F19" t="n">
-        <v>593</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>511.6</v>
+        <v>519.6166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>513</v>
       </c>
       <c r="F20" t="n">
-        <v>302.0079</v>
+        <v>593</v>
       </c>
       <c r="G20" t="n">
-        <v>511.4</v>
+        <v>519.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,35 +1098,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C21" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D21" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E21" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F21" t="n">
-        <v>206.2807</v>
+        <v>302.0079</v>
       </c>
       <c r="G21" t="n">
-        <v>513</v>
+        <v>519.7666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>513</v>
-      </c>
-      <c r="K21" t="n">
-        <v>513</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1140,37 +1136,29 @@
         <v>517</v>
       </c>
       <c r="C22" t="n">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D22" t="n">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E22" t="n">
         <v>517</v>
       </c>
       <c r="F22" t="n">
-        <v>65</v>
+        <v>206.2807</v>
       </c>
       <c r="G22" t="n">
-        <v>515.6</v>
+        <v>519.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>517</v>
-      </c>
-      <c r="K22" t="n">
-        <v>513</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1180,40 +1168,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>517</v>
+      </c>
+      <c r="C23" t="n">
         <v>522</v>
       </c>
-      <c r="C23" t="n">
-        <v>529</v>
-      </c>
       <c r="D23" t="n">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E23" t="n">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G23" t="n">
-        <v>518.8</v>
+        <v>520.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>522</v>
-      </c>
-      <c r="K23" t="n">
-        <v>513</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1223,35 +1203,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C24" t="n">
         <v>529</v>
       </c>
       <c r="D24" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E24" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F24" t="n">
-        <v>439.0173</v>
+        <v>80</v>
       </c>
       <c r="G24" t="n">
-        <v>522</v>
+        <v>520.3666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>529</v>
-      </c>
-      <c r="K24" t="n">
-        <v>529</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1262,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C25" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D25" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F25" t="n">
-        <v>350.2</v>
+        <v>439.0173</v>
       </c>
       <c r="G25" t="n">
-        <v>525.6</v>
+        <v>520.6166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1286,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>529</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>528</v>
+      </c>
+      <c r="C26" t="n">
         <v>531</v>
       </c>
-      <c r="C26" t="n">
-        <v>534</v>
-      </c>
       <c r="D26" t="n">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E26" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F26" t="n">
-        <v>152.6043</v>
+        <v>350.2</v>
       </c>
       <c r="G26" t="n">
-        <v>529</v>
+        <v>520.8333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>529</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1344,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C27" t="n">
         <v>534</v>
@@ -1353,13 +1317,13 @@
         <v>534</v>
       </c>
       <c r="E27" t="n">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>152.6043</v>
       </c>
       <c r="G27" t="n">
-        <v>531.4</v>
+        <v>521.1166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1368,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>529</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1385,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C28" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D28" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E28" t="n">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F28" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>533.6</v>
+        <v>521.3666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1409,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>529</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1426,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C29" t="n">
         <v>540</v>
@@ -1435,13 +1387,13 @@
         <v>540</v>
       </c>
       <c r="E29" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F29" t="n">
-        <v>1457.5269</v>
+        <v>51</v>
       </c>
       <c r="G29" t="n">
-        <v>535.8</v>
+        <v>521.7333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1450,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>529</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1467,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C30" t="n">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D30" t="n">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E30" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F30" t="n">
-        <v>451.1581</v>
+        <v>1457.5269</v>
       </c>
       <c r="G30" t="n">
-        <v>538.6</v>
+        <v>522.2666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1491,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>529</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1508,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C31" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D31" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E31" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F31" t="n">
-        <v>490</v>
+        <v>451.1581</v>
       </c>
       <c r="G31" t="n">
-        <v>539.6</v>
+        <v>522.7833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1532,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>529</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1549,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C32" t="n">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D32" t="n">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E32" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F32" t="n">
-        <v>2775.0162</v>
+        <v>490</v>
       </c>
       <c r="G32" t="n">
-        <v>541.4</v>
+        <v>523.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1573,14 +1507,8 @@
         <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>529</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1590,38 +1518,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C33" t="n">
         <v>543</v>
       </c>
       <c r="D33" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E33" t="n">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F33" t="n">
-        <v>260.9724</v>
+        <v>2775.0162</v>
       </c>
       <c r="G33" t="n">
-        <v>542</v>
+        <v>523.6666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>529</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1631,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C34" t="n">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D34" t="n">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="E34" t="n">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="F34" t="n">
-        <v>789.6651000000001</v>
+        <v>260.9724</v>
       </c>
       <c r="G34" t="n">
-        <v>538.6</v>
+        <v>523.9333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1655,14 +1577,8 @@
         <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>529</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1672,38 +1588,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C35" t="n">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D35" t="n">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E35" t="n">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="F35" t="n">
-        <v>19</v>
+        <v>789.6651000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>537.4</v>
+        <v>523.8833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>529</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1713,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C36" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D36" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E36" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F36" t="n">
-        <v>156.3084</v>
+        <v>19</v>
       </c>
       <c r="G36" t="n">
-        <v>536.6</v>
+        <v>524.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1737,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>529</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1754,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C37" t="n">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D37" t="n">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E37" t="n">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="F37" t="n">
-        <v>81</v>
+        <v>156.3084</v>
       </c>
       <c r="G37" t="n">
-        <v>533.8</v>
+        <v>524.2333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1778,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>529</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1795,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C38" t="n">
         <v>529</v>
@@ -1804,31 +1702,25 @@
         <v>529</v>
       </c>
       <c r="E38" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F38" t="n">
-        <v>237.5536</v>
+        <v>81</v>
       </c>
       <c r="G38" t="n">
-        <v>531</v>
+        <v>524.2666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>529</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1836,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C39" t="n">
         <v>529</v>
@@ -1845,13 +1737,13 @@
         <v>529</v>
       </c>
       <c r="E39" t="n">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>237.5536</v>
       </c>
       <c r="G39" t="n">
-        <v>532.2</v>
+        <v>524.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1874,19 +1766,19 @@
         <v>529</v>
       </c>
       <c r="C40" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D40" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E40" t="n">
         <v>529</v>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>531</v>
+        <v>524.3333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1906,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C41" t="n">
         <v>533</v>
@@ -1915,13 +1807,13 @@
         <v>533</v>
       </c>
       <c r="E41" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F41" t="n">
-        <v>151.9816</v>
+        <v>32</v>
       </c>
       <c r="G41" t="n">
-        <v>530.6</v>
+        <v>524.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1941,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C42" t="n">
         <v>533</v>
@@ -1950,13 +1842,13 @@
         <v>533</v>
       </c>
       <c r="E42" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F42" t="n">
-        <v>572.0997</v>
+        <v>151.9816</v>
       </c>
       <c r="G42" t="n">
-        <v>531.4</v>
+        <v>524.4666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1976,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C43" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D43" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E43" t="n">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F43" t="n">
-        <v>136.5879</v>
+        <v>572.0997</v>
       </c>
       <c r="G43" t="n">
-        <v>532.4</v>
+        <v>524.5166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2023,10 +1915,10 @@
         <v>534</v>
       </c>
       <c r="F44" t="n">
-        <v>1162.9999</v>
+        <v>136.5879</v>
       </c>
       <c r="G44" t="n">
-        <v>533.4</v>
+        <v>524.4666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2058,10 +1950,10 @@
         <v>534</v>
       </c>
       <c r="F45" t="n">
-        <v>307.5902</v>
+        <v>1162.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>533.6</v>
+        <v>524.4166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2081,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C46" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D46" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E46" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F46" t="n">
-        <v>1282.9009</v>
+        <v>307.5902</v>
       </c>
       <c r="G46" t="n">
-        <v>532.6</v>
+        <v>524.3666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2116,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C47" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D47" t="n">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E47" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>1282.9009</v>
       </c>
       <c r="G47" t="n">
-        <v>532.4</v>
+        <v>524.2166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2163,10 +2055,10 @@
         <v>532</v>
       </c>
       <c r="F48" t="n">
-        <v>346.7235</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>532</v>
+        <v>524.1333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2186,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C49" t="n">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D49" t="n">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E49" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F49" t="n">
-        <v>1383.5947</v>
+        <v>346.7235</v>
       </c>
       <c r="G49" t="n">
-        <v>532</v>
+        <v>524.0666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2221,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>533</v>
+      </c>
+      <c r="C50" t="n">
         <v>534</v>
       </c>
-      <c r="C50" t="n">
-        <v>536</v>
-      </c>
       <c r="D50" t="n">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E50" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F50" t="n">
-        <v>3754.6053</v>
+        <v>1383.5947</v>
       </c>
       <c r="G50" t="n">
-        <v>532.4</v>
+        <v>524.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2256,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C51" t="n">
         <v>536</v>
@@ -2265,13 +2157,13 @@
         <v>536</v>
       </c>
       <c r="E51" t="n">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F51" t="n">
-        <v>1807.0386</v>
+        <v>3754.6053</v>
       </c>
       <c r="G51" t="n">
-        <v>534</v>
+        <v>524.4166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2291,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C52" t="n">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D52" t="n">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E52" t="n">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F52" t="n">
-        <v>7472.3631</v>
+        <v>1807.0386</v>
       </c>
       <c r="G52" t="n">
-        <v>535.4</v>
+        <v>524.5833333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2326,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C53" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D53" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E53" t="n">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>7472.3631</v>
       </c>
       <c r="G53" t="n">
-        <v>538</v>
+        <v>525.05</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2373,10 +2265,10 @@
         <v>545</v>
       </c>
       <c r="F54" t="n">
-        <v>22.2917</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>540.2</v>
+        <v>525.4333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2396,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C55" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D55" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E55" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F55" t="n">
-        <v>5842.3992</v>
+        <v>22.2917</v>
       </c>
       <c r="G55" t="n">
-        <v>542.2</v>
+        <v>525.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2431,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C56" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D56" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E56" t="n">
         <v>542</v>
       </c>
       <c r="F56" t="n">
-        <v>7465.9991</v>
+        <v>5842.3992</v>
       </c>
       <c r="G56" t="n">
-        <v>543.8</v>
+        <v>526.0333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2466,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>545</v>
+      </c>
+      <c r="C57" t="n">
         <v>544</v>
       </c>
-      <c r="C57" t="n">
-        <v>543</v>
-      </c>
       <c r="D57" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E57" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F57" t="n">
-        <v>693</v>
+        <v>7465.9991</v>
       </c>
       <c r="G57" t="n">
-        <v>544.6</v>
+        <v>526.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2501,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C58" t="n">
         <v>543</v>
       </c>
       <c r="D58" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E58" t="n">
         <v>543</v>
       </c>
       <c r="F58" t="n">
-        <v>554.4041999999999</v>
+        <v>693</v>
       </c>
       <c r="G58" t="n">
-        <v>544.2</v>
+        <v>526.55</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2536,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C59" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D59" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E59" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F59" t="n">
-        <v>1977.0967</v>
+        <v>554.4041999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>543.2</v>
+        <v>526.9833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2571,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C60" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D60" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E60" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>1977.0967</v>
       </c>
       <c r="G60" t="n">
-        <v>543.2</v>
+        <v>527.4166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2609,19 +2501,19 @@
         <v>546</v>
       </c>
       <c r="C61" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D61" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E61" t="n">
         <v>546</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>543.8</v>
+        <v>528</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2644,19 +2536,19 @@
         <v>546</v>
       </c>
       <c r="C62" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D62" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E62" t="n">
         <v>546</v>
       </c>
       <c r="F62" t="n">
-        <v>1088.0467</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>544.4</v>
+        <v>528.6666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2679,19 +2571,19 @@
         <v>546</v>
       </c>
       <c r="C63" t="n">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D63" t="n">
+        <v>548</v>
+      </c>
+      <c r="E63" t="n">
         <v>546</v>
       </c>
-      <c r="E63" t="n">
-        <v>536</v>
-      </c>
       <c r="F63" t="n">
-        <v>440.9972</v>
+        <v>1088.0467</v>
       </c>
       <c r="G63" t="n">
-        <v>543</v>
+        <v>529.3166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2714,19 +2606,19 @@
         <v>546</v>
       </c>
       <c r="C64" t="n">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D64" t="n">
         <v>546</v>
       </c>
       <c r="E64" t="n">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>440.9972</v>
       </c>
       <c r="G64" t="n">
-        <v>544.2</v>
+        <v>529.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2746,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C65" t="n">
         <v>546</v>
@@ -2755,13 +2647,13 @@
         <v>546</v>
       </c>
       <c r="E65" t="n">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F65" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>544.2</v>
+        <v>530.2666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2784,7 +2676,7 @@
         <v>540</v>
       </c>
       <c r="C66" t="n">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D66" t="n">
         <v>546</v>
@@ -2793,10 +2685,10 @@
         <v>540</v>
       </c>
       <c r="F66" t="n">
-        <v>2819.6579</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n">
-        <v>543</v>
+        <v>530.5833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2816,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C67" t="n">
         <v>541</v>
       </c>
       <c r="D67" t="n">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="E67" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F67" t="n">
-        <v>67.98090000000001</v>
+        <v>2819.6579</v>
       </c>
       <c r="G67" t="n">
-        <v>542</v>
+        <v>530.9333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2851,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C68" t="n">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D68" t="n">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E68" t="n">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>67.98090000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>543.8</v>
+        <v>531.2833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2886,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C69" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D69" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E69" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F69" t="n">
-        <v>1708.5031</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>543.8</v>
+        <v>531.8666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2921,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>542</v>
+      </c>
+      <c r="C70" t="n">
         <v>546</v>
       </c>
-      <c r="C70" t="n">
-        <v>547</v>
-      </c>
       <c r="D70" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E70" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F70" t="n">
-        <v>364.48</v>
+        <v>1708.5031</v>
       </c>
       <c r="G70" t="n">
-        <v>544</v>
+        <v>532.3333333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2956,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>546</v>
+      </c>
+      <c r="C71" t="n">
         <v>547</v>
       </c>
-      <c r="C71" t="n">
-        <v>548</v>
-      </c>
       <c r="D71" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E71" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F71" t="n">
-        <v>161</v>
+        <v>364.48</v>
       </c>
       <c r="G71" t="n">
-        <v>545.4</v>
+        <v>532.95</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2994,19 +2886,19 @@
         <v>547</v>
       </c>
       <c r="C72" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D72" t="n">
         <v>548</v>
       </c>
       <c r="E72" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F72" t="n">
-        <v>968.8167999999999</v>
+        <v>161</v>
       </c>
       <c r="G72" t="n">
-        <v>546.4</v>
+        <v>533.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3026,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C73" t="n">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D73" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E73" t="n">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F73" t="n">
-        <v>454.9064</v>
+        <v>968.8167999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>544.6</v>
+        <v>534.0833333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3061,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C74" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D74" t="n">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="E74" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F74" t="n">
-        <v>323.2982</v>
+        <v>454.9064</v>
       </c>
       <c r="G74" t="n">
-        <v>542</v>
+        <v>534.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3096,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>537</v>
+      </c>
+      <c r="C75" t="n">
         <v>533</v>
       </c>
-      <c r="C75" t="n">
-        <v>547</v>
-      </c>
       <c r="D75" t="n">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="E75" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F75" t="n">
-        <v>41</v>
+        <v>323.2982</v>
       </c>
       <c r="G75" t="n">
-        <v>542</v>
+        <v>534.9166666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3131,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C76" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D76" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E76" t="n">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="F76" t="n">
-        <v>3.27205882</v>
+        <v>41</v>
       </c>
       <c r="G76" t="n">
-        <v>541.2</v>
+        <v>535.4666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3178,10 +3070,10 @@
         <v>544</v>
       </c>
       <c r="F77" t="n">
-        <v>2331.8788</v>
+        <v>3.27205882</v>
       </c>
       <c r="G77" t="n">
-        <v>540.8</v>
+        <v>536.05</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3213,10 +3105,10 @@
         <v>544</v>
       </c>
       <c r="F78" t="n">
-        <v>1474.3499</v>
+        <v>2331.8788</v>
       </c>
       <c r="G78" t="n">
-        <v>542.4</v>
+        <v>536.6333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3248,10 +3140,10 @@
         <v>544</v>
       </c>
       <c r="F79" t="n">
-        <v>3089.9999</v>
+        <v>1474.3499</v>
       </c>
       <c r="G79" t="n">
-        <v>544.6</v>
+        <v>537.15</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3283,10 +3175,10 @@
         <v>544</v>
       </c>
       <c r="F80" t="n">
-        <v>40</v>
+        <v>3089.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>544</v>
+        <v>537.6666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3318,10 +3210,10 @@
         <v>544</v>
       </c>
       <c r="F81" t="n">
-        <v>465.8522</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>544</v>
+        <v>538.1833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3341,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C82" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D82" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E82" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F82" t="n">
-        <v>2101.6472</v>
+        <v>465.8522</v>
       </c>
       <c r="G82" t="n">
-        <v>544.2</v>
+        <v>538.6333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3376,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C83" t="n">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="D83" t="n">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E83" t="n">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="F83" t="n">
-        <v>4479.7174</v>
+        <v>2101.6472</v>
       </c>
       <c r="G83" t="n">
-        <v>540.8</v>
+        <v>539.0166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3411,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>536</v>
+      </c>
+      <c r="C84" t="n">
         <v>527</v>
       </c>
-      <c r="C84" t="n">
-        <v>521</v>
-      </c>
       <c r="D84" t="n">
+        <v>536</v>
+      </c>
+      <c r="E84" t="n">
         <v>527</v>
       </c>
-      <c r="E84" t="n">
-        <v>521</v>
-      </c>
       <c r="F84" t="n">
-        <v>80</v>
+        <v>4479.7174</v>
       </c>
       <c r="G84" t="n">
-        <v>536.2</v>
+        <v>538.9833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3446,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C85" t="n">
         <v>521</v>
       </c>
       <c r="D85" t="n">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E85" t="n">
         <v>521</v>
       </c>
       <c r="F85" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G85" t="n">
-        <v>531.6</v>
+        <v>538.85</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3484,19 +3376,19 @@
         <v>521</v>
       </c>
       <c r="C86" t="n">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D86" t="n">
         <v>521</v>
       </c>
       <c r="E86" t="n">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="F86" t="n">
-        <v>3359.7881</v>
+        <v>72</v>
       </c>
       <c r="G86" t="n">
-        <v>523.4</v>
+        <v>538.6833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3516,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="C87" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D87" t="n">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="E87" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F87" t="n">
-        <v>373.9692</v>
+        <v>3359.7881</v>
       </c>
       <c r="G87" t="n">
-        <v>515.2</v>
+        <v>538.1666666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3551,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="C88" t="n">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="D88" t="n">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="E88" t="n">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>373.9692</v>
       </c>
       <c r="G88" t="n">
-        <v>516.2</v>
+        <v>537.6666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3586,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C89" t="n">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="D89" t="n">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="E89" t="n">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="F89" t="n">
-        <v>2519.841</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>514</v>
+        <v>537.5333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3621,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D90" t="n">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E90" t="n">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="F90" t="n">
-        <v>4486.3901</v>
+        <v>2519.841</v>
       </c>
       <c r="G90" t="n">
-        <v>514.2</v>
+        <v>537.0333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3656,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C91" t="n">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D91" t="n">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E91" t="n">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>4486.3901</v>
       </c>
       <c r="G91" t="n">
-        <v>520.4</v>
+        <v>536.65</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3691,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C92" t="n">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="D92" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="F92" t="n">
-        <v>1970.533</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>522.4</v>
+        <v>536.5666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3726,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C93" t="n">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D93" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E93" t="n">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>1970.533</v>
       </c>
       <c r="G93" t="n">
-        <v>522</v>
+        <v>536.0833333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3761,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="C94" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D94" t="n">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="F94" t="n">
-        <v>3779.7616</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>522</v>
+        <v>535.8666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3796,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C95" t="n">
         <v>510</v>
       </c>
       <c r="D95" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E95" t="n">
         <v>510</v>
       </c>
       <c r="F95" t="n">
-        <v>213.6623</v>
+        <v>3779.7616</v>
       </c>
       <c r="G95" t="n">
-        <v>519.6</v>
+        <v>535.65</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3834,19 +3726,19 @@
         <v>510</v>
       </c>
       <c r="C96" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D96" t="n">
         <v>510</v>
       </c>
       <c r="E96" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F96" t="n">
-        <v>3779.7617</v>
+        <v>213.6623</v>
       </c>
       <c r="G96" t="n">
-        <v>513.8</v>
+        <v>535.1666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3866,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C97" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D97" t="n">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E97" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F97" t="n">
-        <v>385.0637</v>
+        <v>3779.7617</v>
       </c>
       <c r="G97" t="n">
-        <v>513.6</v>
+        <v>534.6666666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3901,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C98" t="n">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D98" t="n">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E98" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F98" t="n">
-        <v>1019.73</v>
+        <v>385.0637</v>
       </c>
       <c r="G98" t="n">
-        <v>511.2</v>
+        <v>534.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3936,7 +3828,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C99" t="n">
         <v>518</v>
@@ -3945,13 +3837,13 @@
         <v>518</v>
       </c>
       <c r="E99" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F99" t="n">
-        <v>298.6601</v>
+        <v>1019.73</v>
       </c>
       <c r="G99" t="n">
-        <v>512.8</v>
+        <v>534.2166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3971,31 +3863,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C100" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D100" t="n">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E100" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F100" t="n">
-        <v>6898.3039</v>
+        <v>298.6601</v>
       </c>
       <c r="G100" t="n">
-        <v>513.6</v>
+        <v>534.0333333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>518</v>
+      </c>
+      <c r="K100" t="n">
+        <v>518</v>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
@@ -4006,22 +3902,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C101" t="n">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D101" t="n">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E101" t="n">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F101" t="n">
-        <v>509.2245</v>
+        <v>6898.3039</v>
       </c>
       <c r="G101" t="n">
-        <v>516</v>
+        <v>533.7166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4030,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>518</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4041,22 +3943,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C102" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D102" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E102" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F102" t="n">
-        <v>414.7466</v>
+        <v>509.2245</v>
       </c>
       <c r="G102" t="n">
-        <v>517.4</v>
+        <v>533.45</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4065,8 +3967,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>518</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C103" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D103" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E103" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F103" t="n">
-        <v>1051.9738</v>
+        <v>414.7466</v>
       </c>
       <c r="G103" t="n">
-        <v>519.8</v>
+        <v>533.2333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4100,8 +4008,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>518</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4111,7 +4025,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C104" t="n">
         <v>530</v>
@@ -4120,13 +4034,13 @@
         <v>530</v>
       </c>
       <c r="E104" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F104" t="n">
-        <v>230</v>
+        <v>1051.9738</v>
       </c>
       <c r="G104" t="n">
-        <v>522.2</v>
+        <v>533.1666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4135,8 +4049,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>518</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4149,19 +4069,19 @@
         <v>530</v>
       </c>
       <c r="C105" t="n">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D105" t="n">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E105" t="n">
         <v>530</v>
       </c>
       <c r="F105" t="n">
-        <v>267.501</v>
+        <v>230</v>
       </c>
       <c r="G105" t="n">
-        <v>526.4</v>
+        <v>533.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4170,8 +4090,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>518</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4181,22 +4107,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>530</v>
+      </c>
+      <c r="C106" t="n">
         <v>535</v>
       </c>
-      <c r="C106" t="n">
-        <v>540</v>
-      </c>
       <c r="D106" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E106" t="n">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F106" t="n">
-        <v>492.1965</v>
+        <v>267.501</v>
       </c>
       <c r="G106" t="n">
-        <v>531</v>
+        <v>533.1166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4205,8 +4131,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>518</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4216,7 +4148,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C107" t="n">
         <v>540</v>
@@ -4225,13 +4157,13 @@
         <v>540</v>
       </c>
       <c r="E107" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F107" t="n">
-        <v>1222.6863</v>
+        <v>492.1965</v>
       </c>
       <c r="G107" t="n">
-        <v>535</v>
+        <v>533.3166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4240,8 +4172,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>518</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4254,19 +4192,19 @@
         <v>540</v>
       </c>
       <c r="C108" t="n">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D108" t="n">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E108" t="n">
         <v>540</v>
       </c>
       <c r="F108" t="n">
-        <v>568</v>
+        <v>1222.6863</v>
       </c>
       <c r="G108" t="n">
-        <v>538.4</v>
+        <v>533.45</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4275,8 +4213,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>518</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4286,7 +4230,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C109" t="n">
         <v>547</v>
@@ -4295,13 +4239,13 @@
         <v>547</v>
       </c>
       <c r="E109" t="n">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F109" t="n">
-        <v>36.563</v>
+        <v>568</v>
       </c>
       <c r="G109" t="n">
-        <v>541.8</v>
+        <v>533.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4310,8 +4254,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>518</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4321,22 +4271,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C110" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D110" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E110" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F110" t="n">
-        <v>1084.5018</v>
+        <v>36.563</v>
       </c>
       <c r="G110" t="n">
-        <v>544</v>
+        <v>533.9166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4345,8 +4295,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>518</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4356,22 +4312,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="C111" t="n">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="D111" t="n">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E111" t="n">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="F111" t="n">
-        <v>2381.802</v>
+        <v>1084.5018</v>
       </c>
       <c r="G111" t="n">
-        <v>542.2</v>
+        <v>534.0833333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4380,8 +4336,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>518</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4391,22 +4353,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C112" t="n">
         <v>531</v>
       </c>
       <c r="D112" t="n">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E112" t="n">
         <v>531</v>
       </c>
       <c r="F112" t="n">
-        <v>4346.0085</v>
+        <v>2381.802</v>
       </c>
       <c r="G112" t="n">
-        <v>540.4</v>
+        <v>534</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4415,8 +4377,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>518</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4426,22 +4394,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C113" t="n">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D113" t="n">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E113" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F113" t="n">
-        <v>34.5476</v>
+        <v>4346.0085</v>
       </c>
       <c r="G113" t="n">
-        <v>538.6</v>
+        <v>533.8666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4450,8 +4418,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>518</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4461,22 +4435,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C114" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D114" t="n">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E114" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F114" t="n">
-        <v>3723.6038</v>
+        <v>34.5476</v>
       </c>
       <c r="G114" t="n">
-        <v>535.2</v>
+        <v>533.75</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4485,8 +4459,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>518</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4496,22 +4476,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C115" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D115" t="n">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E115" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F115" t="n">
-        <v>1815.5456</v>
+        <v>3723.6038</v>
       </c>
       <c r="G115" t="n">
-        <v>532.2</v>
+        <v>533.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4520,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>518</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4531,22 +4517,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C116" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D116" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E116" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F116" t="n">
-        <v>139.83</v>
+        <v>1815.5456</v>
       </c>
       <c r="G116" t="n">
-        <v>534</v>
+        <v>533.25</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4555,8 +4541,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>518</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4566,22 +4558,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C117" t="n">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D117" t="n">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E117" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F117" t="n">
-        <v>99.99339999999999</v>
+        <v>139.83</v>
       </c>
       <c r="G117" t="n">
-        <v>536.8</v>
+        <v>533.1833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4590,8 +4582,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>518</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4601,22 +4599,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C118" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D118" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E118" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F118" t="n">
-        <v>300</v>
+        <v>99.99339999999999</v>
       </c>
       <c r="G118" t="n">
-        <v>537</v>
+        <v>533.2166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4625,8 +4623,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>518</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4636,22 +4640,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C119" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D119" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E119" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G119" t="n">
-        <v>540</v>
+        <v>533.15</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4660,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>518</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4671,22 +4681,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C120" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D120" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E120" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F120" t="n">
-        <v>5107.9897</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>543.4</v>
+        <v>533.2333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4695,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>518</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4706,7 +4722,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C121" t="n">
         <v>548</v>
@@ -4715,13 +4731,13 @@
         <v>548</v>
       </c>
       <c r="E121" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>5107.9897</v>
       </c>
       <c r="G121" t="n">
-        <v>545</v>
+        <v>533.2666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4730,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>518</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4741,22 +4763,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C122" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D122" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E122" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F122" t="n">
-        <v>122.3465</v>
+        <v>300</v>
       </c>
       <c r="G122" t="n">
-        <v>546</v>
+        <v>533.2833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4765,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>518</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4779,19 +4807,19 @@
         <v>550</v>
       </c>
       <c r="C123" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D123" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E123" t="n">
         <v>550</v>
       </c>
       <c r="F123" t="n">
-        <v>641.6778</v>
+        <v>122.3465</v>
       </c>
       <c r="G123" t="n">
-        <v>548.6</v>
+        <v>533.35</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4800,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>518</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4811,22 +4845,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C124" t="n">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D124" t="n">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E124" t="n">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F124" t="n">
-        <v>150.08702611</v>
+        <v>641.6778</v>
       </c>
       <c r="G124" t="n">
-        <v>551</v>
+        <v>533.6166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4835,8 +4869,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>518</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4846,22 +4886,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>553</v>
+      </c>
+      <c r="C125" t="n">
         <v>557</v>
       </c>
-      <c r="C125" t="n">
-        <v>560</v>
-      </c>
       <c r="D125" t="n">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E125" t="n">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F125" t="n">
-        <v>8073.591</v>
+        <v>150.08702611</v>
       </c>
       <c r="G125" t="n">
-        <v>553.4</v>
+        <v>533.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4870,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>518</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4881,22 +4927,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>557</v>
+      </c>
+      <c r="C126" t="n">
         <v>560</v>
       </c>
-      <c r="C126" t="n">
-        <v>548</v>
-      </c>
       <c r="D126" t="n">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E126" t="n">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="F126" t="n">
-        <v>6390.68337389</v>
+        <v>8073.591</v>
       </c>
       <c r="G126" t="n">
-        <v>553.4</v>
+        <v>534.0333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4905,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>518</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +4968,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C127" t="n">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="D127" t="n">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E127" t="n">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>6390.68337389</v>
       </c>
       <c r="G127" t="n">
-        <v>555.6</v>
+        <v>534.15</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4940,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>518</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4951,22 +5009,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C128" t="n">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D128" t="n">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="E128" t="n">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="F128" t="n">
-        <v>1412.1416</v>
+        <v>200</v>
       </c>
       <c r="G128" t="n">
-        <v>554.8</v>
+        <v>534.4833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4975,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>518</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4989,19 +5053,19 @@
         <v>556</v>
       </c>
       <c r="C129" t="n">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D129" t="n">
         <v>556</v>
       </c>
       <c r="E129" t="n">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F129" t="n">
-        <v>260.8318</v>
+        <v>1412.1416</v>
       </c>
       <c r="G129" t="n">
-        <v>554.6</v>
+        <v>534.5333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5010,8 +5074,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>518</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5021,22 +5091,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C130" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D130" t="n">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E130" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F130" t="n">
-        <v>1382.8963</v>
+        <v>260.8318</v>
       </c>
       <c r="G130" t="n">
-        <v>554.2</v>
+        <v>534.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5045,8 +5115,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>518</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5056,22 +5132,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C131" t="n">
+        <v>558</v>
+      </c>
+      <c r="D131" t="n">
         <v>569</v>
       </c>
-      <c r="D131" t="n">
-        <v>570</v>
-      </c>
       <c r="E131" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F131" t="n">
-        <v>249.946</v>
+        <v>1382.8963</v>
       </c>
       <c r="G131" t="n">
-        <v>558.4</v>
+        <v>534.8833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5080,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>518</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5091,22 +5173,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C132" t="n">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D132" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E132" t="n">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F132" t="n">
-        <v>2126.01641086</v>
+        <v>249.946</v>
       </c>
       <c r="G132" t="n">
-        <v>562.2</v>
+        <v>535.2333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5115,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>518</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5126,22 +5214,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>565</v>
+      </c>
+      <c r="C133" t="n">
         <v>580</v>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
+        <v>580</v>
+      </c>
+      <c r="E133" t="n">
         <v>565</v>
       </c>
-      <c r="D133" t="n">
-        <v>584</v>
-      </c>
-      <c r="E133" t="n">
-        <v>561</v>
-      </c>
       <c r="F133" t="n">
-        <v>1789.8546</v>
+        <v>2126.01641086</v>
       </c>
       <c r="G133" t="n">
-        <v>565.6</v>
+        <v>535.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5150,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>518</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5161,22 +5255,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>580</v>
+      </c>
+      <c r="C134" t="n">
         <v>565</v>
       </c>
-      <c r="C134" t="n">
-        <v>576</v>
-      </c>
       <c r="D134" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E134" t="n">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F134" t="n">
-        <v>6373.0013</v>
+        <v>1789.8546</v>
       </c>
       <c r="G134" t="n">
-        <v>569.6</v>
+        <v>536.2833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5185,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>518</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5196,22 +5296,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>565</v>
+      </c>
+      <c r="C135" t="n">
         <v>576</v>
       </c>
-      <c r="C135" t="n">
-        <v>560</v>
-      </c>
       <c r="D135" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E135" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F135" t="n">
-        <v>2655</v>
+        <v>6373.0013</v>
       </c>
       <c r="G135" t="n">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5220,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>518</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5231,22 +5337,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="C136" t="n">
         <v>560</v>
       </c>
       <c r="D136" t="n">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="E136" t="n">
         <v>560</v>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>2655</v>
       </c>
       <c r="G136" t="n">
-        <v>568.2</v>
+        <v>537.2166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5255,8 +5361,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>518</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5266,22 +5378,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C137" t="n">
         <v>560</v>
       </c>
       <c r="D137" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E137" t="n">
         <v>560</v>
       </c>
       <c r="F137" t="n">
-        <v>436</v>
+        <v>200</v>
       </c>
       <c r="G137" t="n">
-        <v>564.2</v>
+        <v>537.4833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5290,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>518</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5313,10 +5431,10 @@
         <v>560</v>
       </c>
       <c r="F138" t="n">
-        <v>431.775</v>
+        <v>436</v>
       </c>
       <c r="G138" t="n">
-        <v>563.2</v>
+        <v>537.75</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5325,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>518</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5336,22 +5460,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C139" t="n">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D139" t="n">
         <v>560</v>
       </c>
       <c r="E139" t="n">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F139" t="n">
-        <v>1623.0281</v>
+        <v>431.775</v>
       </c>
       <c r="G139" t="n">
-        <v>558.6</v>
+        <v>538.0166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5360,8 +5484,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>518</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5371,22 +5501,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C140" t="n">
         <v>553</v>
       </c>
       <c r="D140" t="n">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E140" t="n">
         <v>553</v>
       </c>
       <c r="F140" t="n">
-        <v>346.57</v>
+        <v>1623.0281</v>
       </c>
       <c r="G140" t="n">
-        <v>557.2</v>
+        <v>538.1666666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5395,8 +5525,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>518</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5406,22 +5542,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C141" t="n">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D141" t="n">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E141" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F141" t="n">
-        <v>73.46299999999999</v>
+        <v>346.57</v>
       </c>
       <c r="G141" t="n">
-        <v>557</v>
+        <v>538.3166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5430,8 +5566,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>518</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5441,22 +5583,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C142" t="n">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D142" t="n">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E142" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F142" t="n">
-        <v>732.647</v>
+        <v>73.46299999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>554.8</v>
+        <v>538.5666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5465,8 +5607,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>518</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5479,19 +5627,19 @@
         <v>549</v>
       </c>
       <c r="C143" t="n">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="D143" t="n">
         <v>549</v>
       </c>
       <c r="E143" t="n">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="F143" t="n">
-        <v>511.3181</v>
+        <v>732.647</v>
       </c>
       <c r="G143" t="n">
-        <v>549.4</v>
+        <v>538.6333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5500,8 +5648,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>518</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5511,22 +5665,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C144" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D144" t="n">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E144" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F144" t="n">
-        <v>2086.3055</v>
+        <v>511.3181</v>
       </c>
       <c r="G144" t="n">
-        <v>545.8</v>
+        <v>538.7333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5535,8 +5689,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>518</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5546,22 +5706,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C145" t="n">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D145" t="n">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E145" t="n">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>2086.3055</v>
       </c>
       <c r="G145" t="n">
-        <v>546</v>
+        <v>538.9666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5570,8 +5730,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>518</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5581,22 +5747,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C146" t="n">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="D146" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E146" t="n">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F146" t="n">
-        <v>1107.9873</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>541.4</v>
+        <v>539.5166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5605,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>518</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5616,22 +5788,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C147" t="n">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D147" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E147" t="n">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>1107.9873</v>
       </c>
       <c r="G147" t="n">
-        <v>542.2</v>
+        <v>540.0666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5640,8 +5812,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>518</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5651,22 +5829,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="C148" t="n">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D148" t="n">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="E148" t="n">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="F148" t="n">
-        <v>5459.5861</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>542.8</v>
+        <v>540.8833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5675,8 +5853,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>518</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5689,19 +5873,19 @@
         <v>537</v>
       </c>
       <c r="C149" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D149" t="n">
         <v>537</v>
       </c>
       <c r="E149" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F149" t="n">
-        <v>1338.0397</v>
+        <v>5459.5861</v>
       </c>
       <c r="G149" t="n">
-        <v>542.8</v>
+        <v>540.95</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5710,8 +5894,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>518</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5721,22 +5911,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C150" t="n">
         <v>535</v>
       </c>
       <c r="D150" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E150" t="n">
         <v>535</v>
       </c>
       <c r="F150" t="n">
-        <v>1715.5414</v>
+        <v>1338.0397</v>
       </c>
       <c r="G150" t="n">
-        <v>539</v>
+        <v>541.3666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5745,8 +5935,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>518</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5768,10 +5964,10 @@
         <v>535</v>
       </c>
       <c r="F151" t="n">
-        <v>930.5707</v>
+        <v>1715.5414</v>
       </c>
       <c r="G151" t="n">
-        <v>538.8</v>
+        <v>541.5833333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5780,8 +5976,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>518</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5803,10 +6005,10 @@
         <v>535</v>
       </c>
       <c r="F152" t="n">
-        <v>2086.783</v>
+        <v>930.5707</v>
       </c>
       <c r="G152" t="n">
-        <v>535.2</v>
+        <v>541.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5815,8 +6017,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>518</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5829,29 +6037,37 @@
         <v>535</v>
       </c>
       <c r="C153" t="n">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D153" t="n">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="E153" t="n">
         <v>535</v>
       </c>
       <c r="F153" t="n">
-        <v>22</v>
+        <v>2086.783</v>
       </c>
       <c r="G153" t="n">
-        <v>538.4</v>
+        <v>541.95</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>535</v>
+      </c>
+      <c r="K153" t="n">
+        <v>518</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5861,22 +6077,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C154" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D154" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E154" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F154" t="n">
-        <v>2968.7782</v>
+        <v>22</v>
       </c>
       <c r="G154" t="n">
-        <v>541</v>
+        <v>542.3166666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5885,8 +6101,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>518</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5896,22 +6118,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C155" t="n">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D155" t="n">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="E155" t="n">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F155" t="n">
-        <v>638.5133</v>
+        <v>2968.7782</v>
       </c>
       <c r="G155" t="n">
-        <v>541.8</v>
+        <v>542.95</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5920,8 +6142,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>518</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5931,22 +6159,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C156" t="n">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D156" t="n">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E156" t="n">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F156" t="n">
-        <v>2.2815</v>
+        <v>638.5133</v>
       </c>
       <c r="G156" t="n">
-        <v>544.2</v>
+        <v>543.4333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5955,8 +6183,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>518</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5966,22 +6200,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="C157" t="n">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="D157" t="n">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E157" t="n">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="F157" t="n">
-        <v>139.6699</v>
+        <v>2.2815</v>
       </c>
       <c r="G157" t="n">
-        <v>544.8</v>
+        <v>544.1333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5990,8 +6224,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>518</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6013,10 +6253,10 @@
         <v>538</v>
       </c>
       <c r="F158" t="n">
-        <v>87.1729</v>
+        <v>139.6699</v>
       </c>
       <c r="G158" t="n">
-        <v>542</v>
+        <v>544.55</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6025,8 +6265,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>518</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6039,19 +6285,19 @@
         <v>538</v>
       </c>
       <c r="C159" t="n">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D159" t="n">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E159" t="n">
         <v>538</v>
       </c>
       <c r="F159" t="n">
-        <v>160</v>
+        <v>87.1729</v>
       </c>
       <c r="G159" t="n">
-        <v>541.2</v>
+        <v>544.8833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6060,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>518</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6071,22 +6323,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C160" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D160" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E160" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F160" t="n">
-        <v>45.6148</v>
+        <v>160</v>
       </c>
       <c r="G160" t="n">
-        <v>541.4</v>
+        <v>545.3166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6095,8 +6347,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>518</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6109,29 +6367,37 @@
         <v>540</v>
       </c>
       <c r="C161" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D161" t="n">
         <v>540</v>
       </c>
       <c r="E161" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F161" t="n">
-        <v>1438.5959</v>
+        <v>45.6148</v>
       </c>
       <c r="G161" t="n">
-        <v>539.8</v>
+        <v>545.75</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>544</v>
+      </c>
+      <c r="K161" t="n">
+        <v>518</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6141,22 +6407,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C162" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D162" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E162" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F162" t="n">
-        <v>89.12430000000001</v>
+        <v>1438.5959</v>
       </c>
       <c r="G162" t="n">
-        <v>540.6</v>
+        <v>546.1166666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6165,8 +6431,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>518</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6176,32 +6448,40 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C163" t="n">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D163" t="n">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E163" t="n">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>89.12430000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>542.6</v>
+        <v>546.4833333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>539</v>
+      </c>
+      <c r="K163" t="n">
+        <v>518</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6211,7 +6491,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C164" t="n">
         <v>548</v>
@@ -6220,13 +6500,13 @@
         <v>548</v>
       </c>
       <c r="E164" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G164" t="n">
-        <v>543.4</v>
+        <v>546.7833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6235,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>518</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6246,22 +6532,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C165" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D165" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E165" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F165" t="n">
-        <v>1105</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>544.4</v>
+        <v>547.0833333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6270,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>518</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6293,10 +6585,10 @@
         <v>545</v>
       </c>
       <c r="F166" t="n">
-        <v>364.7688</v>
+        <v>1105</v>
       </c>
       <c r="G166" t="n">
-        <v>545.6</v>
+        <v>547.25</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6305,8 +6597,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>518</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6316,22 +6614,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C167" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D167" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E167" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>364.7688</v>
       </c>
       <c r="G167" t="n">
-        <v>546.8</v>
+        <v>547.3333333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6340,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>518</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6363,10 +6667,10 @@
         <v>548</v>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>546.8</v>
+        <v>547.4666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6375,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>518</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6386,22 +6696,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C169" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D169" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E169" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F169" t="n">
-        <v>159.6186</v>
+        <v>3</v>
       </c>
       <c r="G169" t="n">
-        <v>546.2</v>
+        <v>547.4833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6410,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>518</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6421,22 +6737,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C170" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D170" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E170" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>159.6186</v>
       </c>
       <c r="G170" t="n">
-        <v>546.6</v>
+        <v>547.45</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6445,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>518</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6456,33 +6778,80 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>547</v>
+      </c>
+      <c r="C171" t="n">
+        <v>547</v>
+      </c>
+      <c r="D171" t="n">
+        <v>547</v>
+      </c>
+      <c r="E171" t="n">
+        <v>547</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>547.4666666666667</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>518</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>540</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C172" t="n">
         <v>540</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D172" t="n">
         <v>540</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E172" t="n">
         <v>540</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F172" t="n">
         <v>288.445</v>
       </c>
-      <c r="G171" t="n">
-        <v>545.6</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="G172" t="n">
+        <v>547.6166666666667</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>518</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>260</v>
       </c>
       <c r="G2" t="n">
+        <v>522.7333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>517.0666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>15.3449</v>
       </c>
       <c r="G3" t="n">
+        <v>520.7333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>517.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>507</v>
+      </c>
+      <c r="L3" t="n">
+        <v>507</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>634.0195</v>
       </c>
       <c r="G4" t="n">
+        <v>518.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>517.0333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>507</v>
+      </c>
+      <c r="L4" t="n">
+        <v>507</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>80</v>
       </c>
       <c r="G5" t="n">
+        <v>518.4666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>517.35</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>501</v>
+      </c>
+      <c r="L5" t="n">
+        <v>507</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>4396.7198</v>
       </c>
       <c r="G6" t="n">
+        <v>518.5333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>517.7166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>524</v>
+      </c>
+      <c r="L6" t="n">
+        <v>507</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,27 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>518.1333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>517.9666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>507</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +715,27 @@
         <v>1374.5587</v>
       </c>
       <c r="G8" t="n">
+        <v>518.7333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>518.2166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>507</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,27 @@
         <v>846.056</v>
       </c>
       <c r="G9" t="n">
+        <v>517.9333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>518.3</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>507</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +803,27 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>517.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>518.5666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>507</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +847,27 @@
         <v>2053.9274</v>
       </c>
       <c r="G11" t="n">
+        <v>516.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>518.7</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>507</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +891,27 @@
         <v>2035.9668</v>
       </c>
       <c r="G12" t="n">
+        <v>514.8666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>518.8166666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>507</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +935,27 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>514.1333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>519.0833333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>507</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +979,27 @@
         <v>1.995</v>
       </c>
       <c r="G14" t="n">
+        <v>513.3333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>519.1333333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>507</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1023,27 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>513.3333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>519.2833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>507</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1067,27 @@
         <v>564.2023</v>
       </c>
       <c r="G16" t="n">
+        <v>513.5333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>519.35</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>507</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1111,27 @@
         <v>1398.746</v>
       </c>
       <c r="G17" t="n">
+        <v>513.6666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>519.4833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>507</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1155,27 @@
         <v>595.2623</v>
       </c>
       <c r="G18" t="n">
+        <v>513.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>519.5166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>507</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1199,27 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>514.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>519.6166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>507</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1243,27 @@
         <v>593</v>
       </c>
       <c r="G20" t="n">
+        <v>513.8666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>519.7</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>507</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1287,27 @@
         <v>302.0079</v>
       </c>
       <c r="G21" t="n">
+        <v>512.9333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>519.7666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>507</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1331,27 @@
         <v>206.2807</v>
       </c>
       <c r="G22" t="n">
+        <v>512.7333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>519.9</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>507</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1375,27 @@
         <v>65</v>
       </c>
       <c r="G23" t="n">
+        <v>512.8666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>520.1</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>507</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1419,27 @@
         <v>80</v>
       </c>
       <c r="G24" t="n">
+        <v>514.1333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>520.3666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>507</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1463,27 @@
         <v>439.0173</v>
       </c>
       <c r="G25" t="n">
+        <v>514.8666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>520.6166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>507</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1507,27 @@
         <v>350.2</v>
       </c>
       <c r="G26" t="n">
+        <v>516.2666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>520.8333333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>507</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1551,27 @@
         <v>152.6043</v>
       </c>
       <c r="G27" t="n">
+        <v>517.9333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>521.1166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>507</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1595,27 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
+        <v>519.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>521.3666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>507</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1639,27 @@
         <v>51</v>
       </c>
       <c r="G29" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="H29" t="n">
         <v>521.7333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>507</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1683,27 @@
         <v>1457.5269</v>
       </c>
       <c r="G30" t="n">
+        <v>523.1333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>522.2666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>507</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1727,27 @@
         <v>451.1581</v>
       </c>
       <c r="G31" t="n">
+        <v>525.2</v>
+      </c>
+      <c r="H31" t="n">
         <v>522.7833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>507</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1771,27 @@
         <v>490</v>
       </c>
       <c r="G32" t="n">
+        <v>527.2</v>
+      </c>
+      <c r="H32" t="n">
         <v>523.2</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>507</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1815,27 @@
         <v>2775.0162</v>
       </c>
       <c r="G33" t="n">
+        <v>529.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>523.6666666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>507</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1859,27 @@
         <v>260.9724</v>
       </c>
       <c r="G34" t="n">
+        <v>531.4666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>523.9333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>507</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1903,27 @@
         <v>789.6651000000001</v>
       </c>
       <c r="G35" t="n">
+        <v>532.1333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>523.8833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>507</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1947,27 @@
         <v>19</v>
       </c>
       <c r="G36" t="n">
+        <v>533.8666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>524.1</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>507</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1991,27 @@
         <v>156.3084</v>
       </c>
       <c r="G37" t="n">
+        <v>535.0666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>524.2333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>507</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2035,27 @@
         <v>81</v>
       </c>
       <c r="G38" t="n">
+        <v>535.5333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>524.2666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>507</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2079,27 @@
         <v>237.5536</v>
       </c>
       <c r="G39" t="n">
+        <v>535.5333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>524.3</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>507</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2123,27 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
+        <v>535.5333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>524.3333333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>507</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2167,27 @@
         <v>32</v>
       </c>
       <c r="G41" t="n">
+        <v>535.6666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>524.4</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>507</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2211,27 @@
         <v>151.9816</v>
       </c>
       <c r="G42" t="n">
+        <v>535.6</v>
+      </c>
+      <c r="H42" t="n">
         <v>524.4666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>507</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2255,27 @@
         <v>572.0997</v>
       </c>
       <c r="G43" t="n">
+        <v>535.5333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>524.5166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>507</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2299,27 @@
         <v>136.5879</v>
       </c>
       <c r="G44" t="n">
+        <v>535.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>524.4666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>507</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2343,27 @@
         <v>1162.9999</v>
       </c>
       <c r="G45" t="n">
+        <v>534.7333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>524.4166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>507</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2387,27 @@
         <v>307.5902</v>
       </c>
       <c r="G46" t="n">
+        <v>534</v>
+      </c>
+      <c r="H46" t="n">
         <v>524.3666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>507</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2431,27 @@
         <v>1282.9009</v>
       </c>
       <c r="G47" t="n">
+        <v>533.2666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>524.2166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>507</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2475,27 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
+        <v>532.5333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>524.1333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>507</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2519,27 @@
         <v>346.7235</v>
       </c>
       <c r="G49" t="n">
+        <v>531.8</v>
+      </c>
+      <c r="H49" t="n">
         <v>524.0666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>507</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2563,27 @@
         <v>1383.5947</v>
       </c>
       <c r="G50" t="n">
+        <v>532.5333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>524.25</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>507</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2607,27 @@
         <v>3754.6053</v>
       </c>
       <c r="G51" t="n">
+        <v>532.3333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>524.4166666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>507</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2651,27 @@
         <v>1807.0386</v>
       </c>
       <c r="G52" t="n">
+        <v>532.4</v>
+      </c>
+      <c r="H52" t="n">
         <v>524.5833333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>507</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2695,27 @@
         <v>7472.3631</v>
       </c>
       <c r="G53" t="n">
+        <v>533.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>525.05</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>507</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2739,27 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>534.1333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>525.4333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>507</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2783,27 @@
         <v>22.2917</v>
       </c>
       <c r="G55" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="H55" t="n">
         <v>525.8</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>507</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2827,27 @@
         <v>5842.3992</v>
       </c>
       <c r="G56" t="n">
+        <v>536.0666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>526.0333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>507</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2871,27 @@
         <v>7465.9991</v>
       </c>
       <c r="G57" t="n">
+        <v>536.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>526.3</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>507</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2915,27 @@
         <v>693</v>
       </c>
       <c r="G58" t="n">
+        <v>537.4666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>526.55</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>507</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2959,27 @@
         <v>554.4041999999999</v>
       </c>
       <c r="G59" t="n">
+        <v>538.0666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>526.9833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>507</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3003,27 @@
         <v>1977.0967</v>
       </c>
       <c r="G60" t="n">
+        <v>538.4666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>527.4166666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>507</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3047,27 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
+        <v>539.2666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>528</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>507</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3091,27 @@
         <v>200</v>
       </c>
       <c r="G62" t="n">
+        <v>540.5333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>528.6666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>507</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3135,27 @@
         <v>1088.0467</v>
       </c>
       <c r="G63" t="n">
+        <v>541.4666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>529.3166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>507</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3179,27 @@
         <v>440.9972</v>
       </c>
       <c r="G64" t="n">
+        <v>541.7333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>529.9</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>507</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3223,27 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
+        <v>542.5333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>530.2666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>507</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3267,27 @@
         <v>118</v>
       </c>
       <c r="G66" t="n">
+        <v>543.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>530.5833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>507</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3311,27 @@
         <v>2819.6579</v>
       </c>
       <c r="G67" t="n">
+        <v>543.5333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>530.9333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>507</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3355,27 @@
         <v>67.98090000000001</v>
       </c>
       <c r="G68" t="n">
+        <v>543.6666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>531.2833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>507</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3399,27 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
+        <v>543.6666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>531.8666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>507</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3443,27 @@
         <v>1708.5031</v>
       </c>
       <c r="G70" t="n">
+        <v>543.7333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>532.3333333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>507</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3487,27 @@
         <v>364.48</v>
       </c>
       <c r="G71" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="H71" t="n">
         <v>532.95</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>507</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3531,27 @@
         <v>161</v>
       </c>
       <c r="G72" t="n">
+        <v>544.0666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>533.6</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>507</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3575,27 @@
         <v>968.8167999999999</v>
       </c>
       <c r="G73" t="n">
+        <v>544.2666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>534.0833333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>507</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3619,27 @@
         <v>454.9064</v>
       </c>
       <c r="G74" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>534.6</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>507</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3663,27 @@
         <v>323.2982</v>
       </c>
       <c r="G75" t="n">
+        <v>543.3333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>534.9166666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>507</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3707,27 @@
         <v>41</v>
       </c>
       <c r="G76" t="n">
+        <v>543.4</v>
+      </c>
+      <c r="H76" t="n">
         <v>535.4666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>507</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3751,27 @@
         <v>3.27205882</v>
       </c>
       <c r="G77" t="n">
+        <v>543.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>536.05</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>507</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3795,27 @@
         <v>2331.8788</v>
       </c>
       <c r="G78" t="n">
+        <v>543.0666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>536.6333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>507</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3839,27 @@
         <v>1474.3499</v>
       </c>
       <c r="G79" t="n">
+        <v>543.6</v>
+      </c>
+      <c r="H79" t="n">
         <v>537.15</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>507</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3883,27 @@
         <v>3089.9999</v>
       </c>
       <c r="G80" t="n">
+        <v>543.4666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>537.6666666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>507</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3927,27 @@
         <v>40</v>
       </c>
       <c r="G81" t="n">
+        <v>543.3333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>538.1833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>507</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3971,27 @@
         <v>465.8522</v>
       </c>
       <c r="G82" t="n">
+        <v>543.5333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>538.6333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>507</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +4015,27 @@
         <v>2101.6472</v>
       </c>
       <c r="G83" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>539.0166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>507</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4059,27 @@
         <v>4479.7174</v>
       </c>
       <c r="G84" t="n">
+        <v>542.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>538.9833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>507</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4103,27 @@
         <v>80</v>
       </c>
       <c r="G85" t="n">
+        <v>540.9333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>538.85</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>507</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4147,27 @@
         <v>72</v>
       </c>
       <c r="G86" t="n">
+        <v>539.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>538.6833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>507</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4191,27 @@
         <v>3359.7881</v>
       </c>
       <c r="G87" t="n">
+        <v>536.2</v>
+      </c>
+      <c r="H87" t="n">
         <v>538.1666666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>507</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4235,27 @@
         <v>373.9692</v>
       </c>
       <c r="G88" t="n">
+        <v>533.4</v>
+      </c>
+      <c r="H88" t="n">
         <v>537.6666666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>507</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4279,27 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
+        <v>533.1333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>537.5333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>507</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4323,27 @@
         <v>2519.841</v>
       </c>
       <c r="G90" t="n">
+        <v>531.6</v>
+      </c>
+      <c r="H90" t="n">
         <v>537.0333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>507</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4367,27 @@
         <v>4486.3901</v>
       </c>
       <c r="G91" t="n">
+        <v>529.9333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>536.65</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>507</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4411,27 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
+        <v>529.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>536.5666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>507</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4455,27 @@
         <v>1970.533</v>
       </c>
       <c r="G93" t="n">
+        <v>527.2666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>536.0833333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>507</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4499,27 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
+        <v>526.3333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>535.8666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>507</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4543,27 @@
         <v>3779.7616</v>
       </c>
       <c r="G95" t="n">
+        <v>524.0666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>535.65</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>507</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4587,27 @@
         <v>213.6623</v>
       </c>
       <c r="G96" t="n">
+        <v>521.8</v>
+      </c>
+      <c r="H96" t="n">
         <v>535.1666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>507</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4631,27 @@
         <v>3779.7617</v>
       </c>
       <c r="G97" t="n">
+        <v>519.2</v>
+      </c>
+      <c r="H97" t="n">
         <v>534.6666666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>507</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4675,27 @@
         <v>385.0637</v>
       </c>
       <c r="G98" t="n">
+        <v>517.0666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>534.4</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>507</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4719,27 @@
         <v>1019.73</v>
       </c>
       <c r="G99" t="n">
+        <v>516.4666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>534.2166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>507</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,22 +4763,27 @@
         <v>298.6601</v>
       </c>
       <c r="G100" t="n">
+        <v>516.2666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>534.0333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>518</v>
-      </c>
-      <c r="K100" t="n">
-        <v>518</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>507</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3917,24 +4807,27 @@
         <v>6898.3039</v>
       </c>
       <c r="G101" t="n">
+        <v>515.8</v>
+      </c>
+      <c r="H101" t="n">
         <v>533.7166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>518</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>507</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,24 +4851,27 @@
         <v>509.2245</v>
       </c>
       <c r="G102" t="n">
+        <v>516.7333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>533.45</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>518</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>507</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,24 +4895,27 @@
         <v>414.7466</v>
       </c>
       <c r="G103" t="n">
+        <v>517.8</v>
+      </c>
+      <c r="H103" t="n">
         <v>533.2333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>518</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>507</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,24 +4939,27 @@
         <v>1051.9738</v>
       </c>
       <c r="G104" t="n">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>533.1666666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>518</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>507</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,24 +4983,27 @@
         <v>230</v>
       </c>
       <c r="G105" t="n">
+        <v>519</v>
+      </c>
+      <c r="H105" t="n">
         <v>533.1</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>518</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>507</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,24 +5027,27 @@
         <v>267.501</v>
       </c>
       <c r="G106" t="n">
+        <v>519.8666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>533.1166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>518</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>507</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4163,24 +5071,27 @@
         <v>492.1965</v>
       </c>
       <c r="G107" t="n">
+        <v>520.2666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>533.3166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>518</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>507</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,24 +5115,27 @@
         <v>1222.6863</v>
       </c>
       <c r="G108" t="n">
+        <v>522</v>
+      </c>
+      <c r="H108" t="n">
         <v>533.45</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>518</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>507</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,24 +5159,27 @@
         <v>568</v>
       </c>
       <c r="G109" t="n">
+        <v>523.1333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>533.7</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>518</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>507</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,24 +5203,27 @@
         <v>36.563</v>
       </c>
       <c r="G110" t="n">
+        <v>525.6</v>
+      </c>
+      <c r="H110" t="n">
         <v>533.9166666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>518</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>507</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4327,24 +5247,27 @@
         <v>1084.5018</v>
       </c>
       <c r="G111" t="n">
+        <v>528</v>
+      </c>
+      <c r="H111" t="n">
         <v>534.0833333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>518</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>507</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,24 +5291,27 @@
         <v>2381.802</v>
       </c>
       <c r="G112" t="n">
+        <v>529.7333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>534</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>518</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>507</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4409,24 +5335,27 @@
         <v>4346.0085</v>
       </c>
       <c r="G113" t="n">
+        <v>530.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>533.8666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>518</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>507</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,24 +5379,27 @@
         <v>34.5476</v>
       </c>
       <c r="G114" t="n">
+        <v>532.2666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>533.75</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>518</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>507</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,24 +5423,27 @@
         <v>3723.6038</v>
       </c>
       <c r="G115" t="n">
+        <v>533.0666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>533.5</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>518</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>507</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,24 +5467,27 @@
         <v>1815.5456</v>
       </c>
       <c r="G116" t="n">
+        <v>534.2</v>
+      </c>
+      <c r="H116" t="n">
         <v>533.25</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>518</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>507</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,24 +5511,27 @@
         <v>139.83</v>
       </c>
       <c r="G117" t="n">
+        <v>535.7333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>533.1833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>518</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>507</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,24 +5555,27 @@
         <v>99.99339999999999</v>
       </c>
       <c r="G118" t="n">
+        <v>537.4</v>
+      </c>
+      <c r="H118" t="n">
         <v>533.2166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>518</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>507</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,24 +5599,27 @@
         <v>300</v>
       </c>
       <c r="G119" t="n">
+        <v>538</v>
+      </c>
+      <c r="H119" t="n">
         <v>533.15</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>518</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>507</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,24 +5643,27 @@
         <v>200</v>
       </c>
       <c r="G120" t="n">
+        <v>539</v>
+      </c>
+      <c r="H120" t="n">
         <v>533.2333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>518</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>507</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,24 +5687,27 @@
         <v>5107.9897</v>
       </c>
       <c r="G121" t="n">
+        <v>539.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>533.2666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>518</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>507</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,24 +5731,27 @@
         <v>300</v>
       </c>
       <c r="G122" t="n">
+        <v>540.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>533.2833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>518</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>507</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,24 +5775,27 @@
         <v>122.3465</v>
       </c>
       <c r="G123" t="n">
+        <v>541.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>533.35</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>518</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>507</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,24 +5819,27 @@
         <v>641.6778</v>
       </c>
       <c r="G124" t="n">
+        <v>541.4</v>
+      </c>
+      <c r="H124" t="n">
         <v>533.6166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>518</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>507</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,24 +5863,27 @@
         <v>150.08702611</v>
       </c>
       <c r="G125" t="n">
+        <v>542.0666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>533.8</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>518</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>507</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,24 +5907,27 @@
         <v>8073.591</v>
       </c>
       <c r="G126" t="n">
+        <v>543</v>
+      </c>
+      <c r="H126" t="n">
         <v>534.0333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>518</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>507</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,24 +5951,27 @@
         <v>6390.68337389</v>
       </c>
       <c r="G127" t="n">
+        <v>544.1333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>534.15</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>518</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>507</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,24 +5995,27 @@
         <v>200</v>
       </c>
       <c r="G128" t="n">
+        <v>546.1333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>534.4833333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>518</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>507</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5065,24 +6039,27 @@
         <v>1412.1416</v>
       </c>
       <c r="G129" t="n">
+        <v>546.8</v>
+      </c>
+      <c r="H129" t="n">
         <v>534.5333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>518</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>507</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,24 +6083,27 @@
         <v>260.8318</v>
       </c>
       <c r="G130" t="n">
+        <v>548.5333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>534.7</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>518</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>507</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5147,24 +6127,27 @@
         <v>1382.8963</v>
       </c>
       <c r="G131" t="n">
+        <v>550.3333333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>534.8833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>518</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>507</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,24 +6171,27 @@
         <v>249.946</v>
       </c>
       <c r="G132" t="n">
+        <v>552.2666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>535.2333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>518</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>507</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5229,24 +6215,27 @@
         <v>2126.01641086</v>
       </c>
       <c r="G133" t="n">
+        <v>554.6</v>
+      </c>
+      <c r="H133" t="n">
         <v>535.8</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>518</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>507</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,24 +6259,27 @@
         <v>1789.8546</v>
       </c>
       <c r="G134" t="n">
+        <v>556.3333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>536.2833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>518</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>507</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5311,24 +6303,27 @@
         <v>6373.0013</v>
       </c>
       <c r="G135" t="n">
+        <v>558.4</v>
+      </c>
+      <c r="H135" t="n">
         <v>537</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>518</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>507</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,25 +6347,28 @@
         <v>2655</v>
       </c>
       <c r="G136" t="n">
+        <v>559.2</v>
+      </c>
+      <c r="H136" t="n">
         <v>537.2166666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>518</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>507</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1.099536489151874</v>
       </c>
     </row>
     <row r="137">
@@ -5393,24 +6391,21 @@
         <v>200</v>
       </c>
       <c r="G137" t="n">
+        <v>560</v>
+      </c>
+      <c r="H137" t="n">
         <v>537.4833333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>518</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,24 +6429,21 @@
         <v>436</v>
       </c>
       <c r="G138" t="n">
+        <v>560.6666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>537.75</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>518</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5475,24 +6467,21 @@
         <v>431.775</v>
       </c>
       <c r="G139" t="n">
+        <v>561.2</v>
+      </c>
+      <c r="H139" t="n">
         <v>538.0166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>518</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,24 +6505,21 @@
         <v>1623.0281</v>
       </c>
       <c r="G140" t="n">
+        <v>560.9333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>538.1666666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>518</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,24 +6543,21 @@
         <v>346.57</v>
       </c>
       <c r="G141" t="n">
+        <v>560.4666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>538.3166666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>518</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,24 +6581,21 @@
         <v>73.46299999999999</v>
       </c>
       <c r="G142" t="n">
+        <v>561.2</v>
+      </c>
+      <c r="H142" t="n">
         <v>538.5666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>518</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,24 +6619,21 @@
         <v>732.647</v>
       </c>
       <c r="G143" t="n">
+        <v>560.4</v>
+      </c>
+      <c r="H143" t="n">
         <v>538.6333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>518</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,24 +6657,21 @@
         <v>511.3181</v>
       </c>
       <c r="G144" t="n">
+        <v>559.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>538.7333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>518</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,24 +6695,21 @@
         <v>2086.3055</v>
       </c>
       <c r="G145" t="n">
+        <v>558</v>
+      </c>
+      <c r="H145" t="n">
         <v>538.9666666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>518</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,24 +6733,21 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
+        <v>557.7333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>539.5166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>518</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,24 +6771,21 @@
         <v>1107.9873</v>
       </c>
       <c r="G147" t="n">
+        <v>555.5333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>540.0666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>518</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,24 +6809,21 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
+        <v>553.7333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>540.8833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>518</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5885,24 +6847,21 @@
         <v>5459.5861</v>
       </c>
       <c r="G149" t="n">
+        <v>551.8</v>
+      </c>
+      <c r="H149" t="n">
         <v>540.95</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>518</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,24 +6885,21 @@
         <v>1338.0397</v>
       </c>
       <c r="G150" t="n">
+        <v>549.0666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>541.3666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>518</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5967,24 +6923,21 @@
         <v>1715.5414</v>
       </c>
       <c r="G151" t="n">
+        <v>547.4</v>
+      </c>
+      <c r="H151" t="n">
         <v>541.5833333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>518</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6008,24 +6961,21 @@
         <v>930.5707</v>
       </c>
       <c r="G152" t="n">
+        <v>545.7333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>541.6</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>518</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,26 +6999,21 @@
         <v>2086.783</v>
       </c>
       <c r="G153" t="n">
+        <v>544.0666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>541.95</v>
       </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>535</v>
-      </c>
-      <c r="K153" t="n">
-        <v>518</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,24 +7037,21 @@
         <v>22</v>
       </c>
       <c r="G154" t="n">
+        <v>543.5333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>542.3166666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>518</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6133,24 +7075,21 @@
         <v>2968.7782</v>
       </c>
       <c r="G155" t="n">
+        <v>543.2</v>
+      </c>
+      <c r="H155" t="n">
         <v>542.95</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>518</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6174,24 +7113,21 @@
         <v>638.5133</v>
       </c>
       <c r="G156" t="n">
+        <v>542.2666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>543.4333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>518</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6215,24 +7151,21 @@
         <v>2.2815</v>
       </c>
       <c r="G157" t="n">
+        <v>541.4666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>544.1333333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>518</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6256,24 +7189,21 @@
         <v>139.6699</v>
       </c>
       <c r="G158" t="n">
+        <v>540.7333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>544.55</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>518</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6297,24 +7227,21 @@
         <v>87.1729</v>
       </c>
       <c r="G159" t="n">
+        <v>541.0666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>544.8833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>518</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,24 +7265,21 @@
         <v>160</v>
       </c>
       <c r="G160" t="n">
+        <v>541.6666666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>545.3166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>518</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,26 +7303,21 @@
         <v>45.6148</v>
       </c>
       <c r="G161" t="n">
+        <v>540.7333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>545.75</v>
       </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>544</v>
-      </c>
-      <c r="K161" t="n">
-        <v>518</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,24 +7341,21 @@
         <v>1438.5959</v>
       </c>
       <c r="G162" t="n">
+        <v>540.9333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>546.1166666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>518</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,26 +7379,21 @@
         <v>89.12430000000001</v>
       </c>
       <c r="G163" t="n">
+        <v>540.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>546.4833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>539</v>
-      </c>
-      <c r="K163" t="n">
-        <v>518</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6506,24 +7417,21 @@
         <v>80</v>
       </c>
       <c r="G164" t="n">
+        <v>541</v>
+      </c>
+      <c r="H164" t="n">
         <v>546.7833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>518</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6547,24 +7455,21 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
+        <v>541.8666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>547.0833333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>518</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6588,24 +7493,21 @@
         <v>1105</v>
       </c>
       <c r="G166" t="n">
+        <v>542.5333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>547.25</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>518</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6629,24 +7531,21 @@
         <v>364.7688</v>
       </c>
       <c r="G167" t="n">
+        <v>543.2</v>
+      </c>
+      <c r="H167" t="n">
         <v>547.3333333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>518</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,24 +7569,21 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
+        <v>544.0666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>547.4666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>518</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6711,24 +7607,21 @@
         <v>3</v>
       </c>
       <c r="G169" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="H169" t="n">
         <v>547.4833333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>518</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6752,24 +7645,21 @@
         <v>159.6186</v>
       </c>
       <c r="G170" t="n">
+        <v>543.6</v>
+      </c>
+      <c r="H170" t="n">
         <v>547.45</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>518</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6793,24 +7683,21 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
+        <v>544.1333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>547.4666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>518</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,24 +7721,401 @@
         <v>288.445</v>
       </c>
       <c r="G172" t="n">
+        <v>543.6666666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>547.6166666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>518</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>544</v>
+      </c>
+      <c r="C173" t="n">
+        <v>544</v>
+      </c>
+      <c r="D173" t="n">
+        <v>544</v>
+      </c>
+      <c r="E173" t="n">
+        <v>544</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>544.0666666666667</v>
+      </c>
+      <c r="H173" t="n">
+        <v>547.8333333333334</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>539</v>
+      </c>
+      <c r="C174" t="n">
+        <v>539</v>
+      </c>
+      <c r="D174" t="n">
+        <v>539</v>
+      </c>
+      <c r="E174" t="n">
+        <v>539</v>
+      </c>
+      <c r="F174" t="n">
+        <v>240</v>
+      </c>
+      <c r="G174" t="n">
+        <v>544.1333333333333</v>
+      </c>
+      <c r="H174" t="n">
+        <v>547.85</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>539</v>
+      </c>
+      <c r="C175" t="n">
+        <v>536</v>
+      </c>
+      <c r="D175" t="n">
+        <v>539</v>
+      </c>
+      <c r="E175" t="n">
+        <v>536</v>
+      </c>
+      <c r="F175" t="n">
+        <v>80</v>
+      </c>
+      <c r="G175" t="n">
+        <v>543.6</v>
+      </c>
+      <c r="H175" t="n">
+        <v>547.95</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>536</v>
+      </c>
+      <c r="C176" t="n">
+        <v>535</v>
+      </c>
+      <c r="D176" t="n">
+        <v>536</v>
+      </c>
+      <c r="E176" t="n">
+        <v>535</v>
+      </c>
+      <c r="F176" t="n">
+        <v>631.8948</v>
+      </c>
+      <c r="G176" t="n">
+        <v>543.2666666666667</v>
+      </c>
+      <c r="H176" t="n">
+        <v>548.0166666666667</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>535</v>
+      </c>
+      <c r="C177" t="n">
+        <v>532</v>
+      </c>
+      <c r="D177" t="n">
+        <v>535</v>
+      </c>
+      <c r="E177" t="n">
+        <v>532</v>
+      </c>
+      <c r="F177" t="n">
+        <v>547.1344</v>
+      </c>
+      <c r="G177" t="n">
+        <v>542.8</v>
+      </c>
+      <c r="H177" t="n">
+        <v>547.8833333333333</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>537</v>
+      </c>
+      <c r="C178" t="n">
+        <v>537</v>
+      </c>
+      <c r="D178" t="n">
+        <v>537</v>
+      </c>
+      <c r="E178" t="n">
+        <v>537</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>542.4666666666667</v>
+      </c>
+      <c r="H178" t="n">
+        <v>547.75</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>530</v>
+      </c>
+      <c r="C179" t="n">
+        <v>540</v>
+      </c>
+      <c r="D179" t="n">
+        <v>540</v>
+      </c>
+      <c r="E179" t="n">
+        <v>530</v>
+      </c>
+      <c r="F179" t="n">
+        <v>42</v>
+      </c>
+      <c r="G179" t="n">
+        <v>541.9333333333333</v>
+      </c>
+      <c r="H179" t="n">
+        <v>547.7666666666667</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>530</v>
+      </c>
+      <c r="C180" t="n">
+        <v>530</v>
+      </c>
+      <c r="D180" t="n">
+        <v>530</v>
+      </c>
+      <c r="E180" t="n">
+        <v>530</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>540.7333333333333</v>
+      </c>
+      <c r="H180" t="n">
+        <v>547.5166666666667</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>529</v>
+      </c>
+      <c r="C181" t="n">
+        <v>529</v>
+      </c>
+      <c r="D181" t="n">
+        <v>529</v>
+      </c>
+      <c r="E181" t="n">
+        <v>529</v>
+      </c>
+      <c r="F181" t="n">
+        <v>283.24</v>
+      </c>
+      <c r="G181" t="n">
+        <v>539.6666666666666</v>
+      </c>
+      <c r="H181" t="n">
+        <v>547.2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>523</v>
+      </c>
+      <c r="C182" t="n">
+        <v>521</v>
+      </c>
+      <c r="D182" t="n">
+        <v>523</v>
+      </c>
+      <c r="E182" t="n">
+        <v>521</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1997.6459</v>
+      </c>
+      <c r="G182" t="n">
+        <v>538.0666666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>546.75</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -436,22 +441,22 @@
         <v>514</v>
       </c>
       <c r="C2" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D2" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E2" t="n">
         <v>514</v>
       </c>
       <c r="F2" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>17320.6607471</v>
+        <v>511</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,321 +467,399 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C3" t="n">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="D3" t="n">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E3" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F3" t="n">
-        <v>1060.461</v>
+        <v>564.2023</v>
       </c>
       <c r="G3" t="n">
-        <v>18381.1217471</v>
+        <v>511.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>514</v>
+      </c>
+      <c r="K3" t="n">
+        <v>514</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C4" t="n">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D4" t="n">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E4" t="n">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F4" t="n">
-        <v>852</v>
+        <v>1398.746</v>
       </c>
       <c r="G4" t="n">
-        <v>17529.1217471</v>
+        <v>511.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>514</v>
+      </c>
+      <c r="K4" t="n">
+        <v>514</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C5" t="n">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D5" t="n">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E5" t="n">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F5" t="n">
-        <v>1884.8039</v>
+        <v>595.2623</v>
       </c>
       <c r="G5" t="n">
-        <v>17529.1217471</v>
+        <v>510.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>509</v>
+      </c>
+      <c r="K5" t="n">
+        <v>514</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C6" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D6" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E6" t="n">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F6" t="n">
-        <v>1330.98</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>18860.1017471</v>
+        <v>511.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>509</v>
+      </c>
+      <c r="K6" t="n">
+        <v>514</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C7" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D7" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E7" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F7" t="n">
-        <v>440</v>
+        <v>593</v>
       </c>
       <c r="G7" t="n">
-        <v>18860.1017471</v>
+        <v>511.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>513</v>
+      </c>
+      <c r="K7" t="n">
+        <v>514</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C8" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D8" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F8" t="n">
-        <v>4.60151802</v>
+        <v>302.0079</v>
       </c>
       <c r="G8" t="n">
-        <v>18860.1017471</v>
+        <v>511.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>513</v>
+      </c>
+      <c r="K8" t="n">
+        <v>514</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C9" t="n">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D9" t="n">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E9" t="n">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F9" t="n">
-        <v>1385</v>
+        <v>206.2807</v>
       </c>
       <c r="G9" t="n">
-        <v>18860.1017471</v>
+        <v>513</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>513</v>
+      </c>
+      <c r="K9" t="n">
+        <v>514</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C10" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E10" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F10" t="n">
-        <v>110.58979206</v>
+        <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>18970.69153916</v>
+        <v>515.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>517</v>
+      </c>
+      <c r="K10" t="n">
+        <v>514</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C11" t="n">
         <v>529</v>
       </c>
       <c r="D11" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E11" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F11" t="n">
-        <v>389.4102</v>
+        <v>80</v>
       </c>
       <c r="G11" t="n">
-        <v>18970.69153916</v>
+        <v>518.8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>522</v>
+      </c>
+      <c r="K11" t="n">
+        <v>514</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -786,19 +869,19 @@
         <v>529</v>
       </c>
       <c r="C12" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D12" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E12" t="n">
         <v>529</v>
       </c>
       <c r="F12" t="n">
-        <v>156.30870794</v>
+        <v>439.0173</v>
       </c>
       <c r="G12" t="n">
-        <v>19127.0002471</v>
+        <v>522</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,33 +890,40 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>514</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C13" t="n">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D13" t="n">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E13" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F13" t="n">
-        <v>550.3693</v>
+        <v>350.2</v>
       </c>
       <c r="G13" t="n">
-        <v>19677.3695471</v>
+        <v>525.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,33 +932,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>514</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C14" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D14" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E14" t="n">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F14" t="n">
-        <v>68.00790000000001</v>
+        <v>152.6043</v>
       </c>
       <c r="G14" t="n">
-        <v>19677.3695471</v>
+        <v>529</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +974,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>514</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C15" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D15" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E15" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F15" t="n">
-        <v>152.2504</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>19677.3695471</v>
+        <v>531.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +1016,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>514</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C16" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D16" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E16" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F16" t="n">
-        <v>23.1042</v>
+        <v>51</v>
       </c>
       <c r="G16" t="n">
-        <v>19677.3695471</v>
+        <v>533.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1058,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>514</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C17" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D17" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E17" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F17" t="n">
-        <v>23.4878</v>
+        <v>1457.5269</v>
       </c>
       <c r="G17" t="n">
-        <v>19677.3695471</v>
+        <v>535.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1100,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>514</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="C18" t="n">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E18" t="n">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="F18" t="n">
-        <v>64.5438</v>
+        <v>451.1581</v>
       </c>
       <c r="G18" t="n">
-        <v>19612.8257471</v>
+        <v>538.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1142,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>514</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="C19" t="n">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="D19" t="n">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="E19" t="n">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>490</v>
       </c>
       <c r="G19" t="n">
-        <v>19572.8257471</v>
+        <v>539.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1184,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>514</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="C20" t="n">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="D20" t="n">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E20" t="n">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="F20" t="n">
-        <v>3919.6549</v>
+        <v>2775.0162</v>
       </c>
       <c r="G20" t="n">
-        <v>23492.4806471</v>
+        <v>541.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,68 +1226,82 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>514</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>543</v>
+      </c>
+      <c r="C21" t="n">
+        <v>543</v>
+      </c>
+      <c r="D21" t="n">
+        <v>543</v>
+      </c>
+      <c r="E21" t="n">
+        <v>543</v>
+      </c>
+      <c r="F21" t="n">
+        <v>260.9724</v>
+      </c>
+      <c r="G21" t="n">
+        <v>542</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
         <v>514</v>
       </c>
-      <c r="C21" t="n">
-        <v>526</v>
-      </c>
-      <c r="D21" t="n">
-        <v>526</v>
-      </c>
-      <c r="E21" t="n">
-        <v>513</v>
-      </c>
-      <c r="F21" t="n">
-        <v>60.5133</v>
-      </c>
-      <c r="G21" t="n">
-        <v>23492.4806471</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="C22" t="n">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D22" t="n">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="E22" t="n">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="F22" t="n">
-        <v>78.2769</v>
+        <v>789.6651000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>23414.2037471</v>
+        <v>538.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1310,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>514</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="C23" t="n">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="D23" t="n">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="E23" t="n">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>23415.2037471</v>
+        <v>537.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1352,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>514</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C24" t="n">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D24" t="n">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="E24" t="n">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>156.3084</v>
       </c>
       <c r="G24" t="n">
-        <v>23455.2037471</v>
+        <v>536.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1394,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>514</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C25" t="n">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D25" t="n">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G25" t="n">
-        <v>23495.2037471</v>
+        <v>533.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1436,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>514</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>519</v>
+      </c>
+      <c r="C26" t="n">
+        <v>529</v>
+      </c>
+      <c r="D26" t="n">
+        <v>529</v>
+      </c>
+      <c r="E26" t="n">
         <v>518</v>
       </c>
-      <c r="C26" t="n">
-        <v>528</v>
-      </c>
-      <c r="D26" t="n">
-        <v>528</v>
-      </c>
-      <c r="E26" t="n">
-        <v>517</v>
-      </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>237.5536</v>
       </c>
       <c r="G26" t="n">
-        <v>23454.2037471</v>
+        <v>531</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1478,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>514</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="C27" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D27" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E27" t="n">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F27" t="n">
-        <v>338.2575</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>23454.2037471</v>
+        <v>532.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1520,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>514</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="C28" t="n">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="D28" t="n">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="E28" t="n">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="F28" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="G28" t="n">
-        <v>23356.2037471</v>
+        <v>531</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,109 +1562,124 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>514</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="C29" t="n">
+        <v>533</v>
+      </c>
+      <c r="D29" t="n">
+        <v>533</v>
+      </c>
+      <c r="E29" t="n">
+        <v>533</v>
+      </c>
+      <c r="F29" t="n">
+        <v>151.9816</v>
+      </c>
+      <c r="G29" t="n">
+        <v>530.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
         <v>514</v>
       </c>
-      <c r="D29" t="n">
-        <v>516</v>
-      </c>
-      <c r="E29" t="n">
-        <v>514</v>
-      </c>
-      <c r="F29" t="n">
-        <v>80</v>
-      </c>
-      <c r="G29" t="n">
-        <v>23276.2037471</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="C30" t="n">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="D30" t="n">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="E30" t="n">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="F30" t="n">
-        <v>1050.3657</v>
+        <v>572.0997</v>
       </c>
       <c r="G30" t="n">
-        <v>22225.8380471</v>
+        <v>531.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
         <v>514</v>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="C31" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="D31" t="n">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="E31" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="F31" t="n">
-        <v>260</v>
+        <v>136.5879</v>
       </c>
       <c r="G31" t="n">
-        <v>21965.8380471</v>
+        <v>532.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1478,7 +1688,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>514</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1487,28 +1699,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C32" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="D32" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="E32" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="F32" t="n">
-        <v>15.3449</v>
+        <v>1162.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>21965.8380471</v>
+        <v>533.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1517,7 +1730,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>514</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1526,39 +1741,40 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="C33" t="n">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="D33" t="n">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="E33" t="n">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="F33" t="n">
-        <v>634.0195</v>
+        <v>307.5902</v>
       </c>
       <c r="G33" t="n">
-        <v>21331.8185471</v>
+        <v>533.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>507</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>514</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1567,39 +1783,40 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="C34" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D34" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="E34" t="n">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="F34" t="n">
-        <v>80</v>
+        <v>1282.9009</v>
       </c>
       <c r="G34" t="n">
-        <v>21411.8185471</v>
+        <v>532.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>501</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>514</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1608,39 +1825,40 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="C35" t="n">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D35" t="n">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="E35" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="F35" t="n">
-        <v>4396.7198</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>25808.5383471</v>
+        <v>532.4</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>524</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>514</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1649,39 +1867,40 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C36" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D36" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E36" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>346.7235</v>
       </c>
       <c r="G36" t="n">
-        <v>25807.5383471</v>
+        <v>532</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>527</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>514</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1690,39 +1909,40 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="C37" t="n">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="D37" t="n">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="E37" t="n">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="F37" t="n">
-        <v>1374.5587</v>
+        <v>1383.5947</v>
       </c>
       <c r="G37" t="n">
-        <v>25807.5383471</v>
+        <v>532</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>520</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>514</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1731,39 +1951,40 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="C38" t="n">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="D38" t="n">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="E38" t="n">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="F38" t="n">
-        <v>846.056</v>
+        <v>3754.6053</v>
       </c>
       <c r="G38" t="n">
-        <v>24961.4823471</v>
+        <v>532.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>520</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>514</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,28 +1993,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="C39" t="n">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D39" t="n">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="E39" t="n">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>1807.0386</v>
       </c>
       <c r="G39" t="n">
-        <v>24962.4823471</v>
+        <v>534</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1802,7 +2024,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>514</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1811,28 +2035,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="C40" t="n">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="D40" t="n">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="E40" t="n">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="F40" t="n">
-        <v>2053.9274</v>
+        <v>7472.3631</v>
       </c>
       <c r="G40" t="n">
-        <v>22908.5549471</v>
+        <v>535.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1841,7 +2066,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>514</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,28 +2077,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="C41" t="n">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D41" t="n">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="E41" t="n">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="F41" t="n">
-        <v>2035.9668</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>20872.5881471</v>
+        <v>538</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1880,7 +2108,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>514</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1889,28 +2119,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="C42" t="n">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="D42" t="n">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="E42" t="n">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>22.2917</v>
       </c>
       <c r="G42" t="n">
-        <v>20873.5881471</v>
+        <v>540.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1919,7 +2150,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>514</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,28 +2161,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="C43" t="n">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="D43" t="n">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="E43" t="n">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="F43" t="n">
-        <v>1.995</v>
+        <v>5842.3992</v>
       </c>
       <c r="G43" t="n">
-        <v>20871.5931471</v>
+        <v>542.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1958,7 +2192,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>514</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,37 +2203,40 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>545</v>
+      </c>
+      <c r="C44" t="n">
+        <v>544</v>
+      </c>
+      <c r="D44" t="n">
+        <v>547</v>
+      </c>
+      <c r="E44" t="n">
+        <v>542</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7465.9991</v>
+      </c>
+      <c r="G44" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
         <v>514</v>
       </c>
-      <c r="C44" t="n">
-        <v>514</v>
-      </c>
-      <c r="D44" t="n">
-        <v>514</v>
-      </c>
-      <c r="E44" t="n">
-        <v>514</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>20872.5931471</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,43 +2245,49 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>544</v>
+      </c>
+      <c r="C45" t="n">
+        <v>543</v>
+      </c>
+      <c r="D45" t="n">
+        <v>544</v>
+      </c>
+      <c r="E45" t="n">
+        <v>543</v>
+      </c>
+      <c r="F45" t="n">
+        <v>693</v>
+      </c>
+      <c r="G45" t="n">
+        <v>544.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
         <v>514</v>
       </c>
-      <c r="C45" t="n">
-        <v>514</v>
-      </c>
-      <c r="D45" t="n">
-        <v>514</v>
-      </c>
-      <c r="E45" t="n">
-        <v>514</v>
-      </c>
-      <c r="F45" t="n">
-        <v>564.2023</v>
-      </c>
-      <c r="G45" t="n">
-        <v>20872.5931471</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M45" t="n">
+        <v>1.051420233463035</v>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2051,22 +2296,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="C46" t="n">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="D46" t="n">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="E46" t="n">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="F46" t="n">
-        <v>1398.746</v>
+        <v>554.4041999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>19473.8471471</v>
+        <v>544.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,36 +2321,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="C47" t="n">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="D47" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="E47" t="n">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="F47" t="n">
-        <v>595.2623</v>
+        <v>1977.0967</v>
       </c>
       <c r="G47" t="n">
-        <v>19473.8471471</v>
+        <v>543.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2115,77 +2357,69 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="C48" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="D48" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="E48" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>19474.8471471</v>
+        <v>543.2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>509</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="C49" t="n">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="D49" t="n">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="E49" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="F49" t="n">
-        <v>593</v>
+        <v>200</v>
       </c>
       <c r="G49" t="n">
-        <v>19474.8471471</v>
+        <v>543.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2195,36 +2429,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="C50" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="D50" t="n">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="E50" t="n">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="F50" t="n">
-        <v>302.0079</v>
+        <v>1088.0467</v>
       </c>
       <c r="G50" t="n">
-        <v>19474.8471471</v>
+        <v>544.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2234,36 +2465,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="C51" t="n">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="D51" t="n">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="E51" t="n">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="F51" t="n">
-        <v>206.2807</v>
+        <v>440.9972</v>
       </c>
       <c r="G51" t="n">
-        <v>19681.1278471</v>
+        <v>543</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2273,36 +2501,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="C52" t="n">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D52" t="n">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="E52" t="n">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="F52" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>19746.1278471</v>
+        <v>544.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2312,36 +2537,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="C53" t="n">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="D53" t="n">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="E53" t="n">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="F53" t="n">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="G53" t="n">
-        <v>19826.1278471</v>
+        <v>544.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2351,387 +2573,357 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C54" t="n">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="D54" t="n">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="E54" t="n">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="F54" t="n">
-        <v>439.0173</v>
+        <v>2819.6579</v>
       </c>
       <c r="G54" t="n">
-        <v>19826.1278471</v>
+        <v>543</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="C55" t="n">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D55" t="n">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E55" t="n">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F55" t="n">
-        <v>350.2</v>
+        <v>67.98090000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>20176.3278471</v>
+        <v>542</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="C56" t="n">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D56" t="n">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="E56" t="n">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="F56" t="n">
-        <v>152.6043</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>20328.9321471</v>
+        <v>543.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C57" t="n">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D57" t="n">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="E57" t="n">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>1708.5031</v>
       </c>
       <c r="G57" t="n">
-        <v>20328.9321471</v>
+        <v>543.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C58" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D58" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="E58" t="n">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="F58" t="n">
-        <v>51</v>
+        <v>364.48</v>
       </c>
       <c r="G58" t="n">
-        <v>20379.9321471</v>
+        <v>544</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C59" t="n">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D59" t="n">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="E59" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F59" t="n">
-        <v>1457.5269</v>
+        <v>161</v>
       </c>
       <c r="G59" t="n">
-        <v>20379.9321471</v>
+        <v>545.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C60" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D60" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E60" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F60" t="n">
-        <v>451.1581</v>
+        <v>968.8167999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>20831.0902471</v>
+        <v>546.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C61" t="n">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D61" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E61" t="n">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F61" t="n">
-        <v>490</v>
+        <v>454.9064</v>
       </c>
       <c r="G61" t="n">
-        <v>20341.0902471</v>
+        <v>544.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C62" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D62" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E62" t="n">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F62" t="n">
-        <v>2775.0162</v>
+        <v>323.2982</v>
       </c>
       <c r="G62" t="n">
-        <v>23116.10644710001</v>
+        <v>542</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C63" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D63" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E63" t="n">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F63" t="n">
-        <v>260.9724</v>
+        <v>41</v>
       </c>
       <c r="G63" t="n">
-        <v>23116.10644710001</v>
+        <v>542</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2741,36 +2933,33 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C64" t="n">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D64" t="n">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="E64" t="n">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="F64" t="n">
-        <v>789.6651000000001</v>
+        <v>3.27205882</v>
       </c>
       <c r="G64" t="n">
-        <v>22326.44134710001</v>
+        <v>541.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2780,231 +2969,213 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C65" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D65" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="E65" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F65" t="n">
-        <v>19</v>
+        <v>2331.8788</v>
       </c>
       <c r="G65" t="n">
-        <v>22345.44134710001</v>
+        <v>540.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C66" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D66" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E66" t="n">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="F66" t="n">
-        <v>156.3084</v>
+        <v>1474.3499</v>
       </c>
       <c r="G66" t="n">
-        <v>22189.13294710001</v>
+        <v>542.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C67" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D67" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="E67" t="n">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="F67" t="n">
-        <v>81</v>
+        <v>3089.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>22108.13294710001</v>
+        <v>544.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="C68" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D68" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="E68" t="n">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="F68" t="n">
-        <v>237.5536</v>
+        <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>22108.13294710001</v>
+        <v>544</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="C69" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="E69" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>465.8522</v>
       </c>
       <c r="G69" t="n">
-        <v>22108.13294710001</v>
+        <v>544</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="C70" t="n">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="D70" t="n">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="E70" t="n">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F70" t="n">
-        <v>32</v>
+        <v>2101.6472</v>
       </c>
       <c r="G70" t="n">
-        <v>22140.13294710001</v>
+        <v>544.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3014,75 +3185,69 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C71" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D71" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E71" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F71" t="n">
-        <v>151.9816</v>
+        <v>4479.7174</v>
       </c>
       <c r="G71" t="n">
-        <v>22140.13294710001</v>
+        <v>540.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C72" t="n">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D72" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E72" t="n">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="F72" t="n">
-        <v>572.0997</v>
+        <v>80</v>
       </c>
       <c r="G72" t="n">
-        <v>22140.13294710001</v>
+        <v>536.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3092,36 +3257,33 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C73" t="n">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D73" t="n">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E73" t="n">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F73" t="n">
-        <v>136.5879</v>
+        <v>72</v>
       </c>
       <c r="G73" t="n">
-        <v>22276.7208471</v>
+        <v>531.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3131,36 +3293,33 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C74" t="n">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="D74" t="n">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E74" t="n">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="F74" t="n">
-        <v>1162.9999</v>
+        <v>3359.7881</v>
       </c>
       <c r="G74" t="n">
-        <v>22276.7208471</v>
+        <v>523.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3170,36 +3329,33 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C75" t="n">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="D75" t="n">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="E75" t="n">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="F75" t="n">
-        <v>307.5902</v>
+        <v>373.9692</v>
       </c>
       <c r="G75" t="n">
-        <v>22276.7208471</v>
+        <v>515.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3209,36 +3365,33 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C76" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D76" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E76" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F76" t="n">
-        <v>1282.9009</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>20993.8199471</v>
+        <v>516.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3248,36 +3401,33 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="C77" t="n">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="D77" t="n">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="E77" t="n">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2519.841</v>
       </c>
       <c r="G77" t="n">
-        <v>20994.8199471</v>
+        <v>514</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3287,36 +3437,33 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C78" t="n">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D78" t="n">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E78" t="n">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F78" t="n">
-        <v>346.7235</v>
+        <v>4486.3901</v>
       </c>
       <c r="G78" t="n">
-        <v>20994.8199471</v>
+        <v>514.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3326,21 +3473,18 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C79" t="n">
         <v>534</v>
@@ -3349,13 +3493,13 @@
         <v>534</v>
       </c>
       <c r="E79" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F79" t="n">
-        <v>1383.5947</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>22378.41464710001</v>
+        <v>520.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3365,36 +3509,33 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C80" t="n">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="D80" t="n">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E80" t="n">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F80" t="n">
-        <v>3754.6053</v>
+        <v>1970.533</v>
       </c>
       <c r="G80" t="n">
-        <v>26133.01994710001</v>
+        <v>522.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3404,36 +3545,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C81" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D81" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E81" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F81" t="n">
-        <v>1807.0386</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>26133.01994710001</v>
+        <v>522</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3443,36 +3581,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="C82" t="n">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="D82" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="E82" t="n">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="F82" t="n">
-        <v>7472.3631</v>
+        <v>3779.7616</v>
       </c>
       <c r="G82" t="n">
-        <v>33605.3830471</v>
+        <v>522</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3482,36 +3617,33 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="C83" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="D83" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="E83" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>213.6623</v>
       </c>
       <c r="G83" t="n">
-        <v>33606.3830471</v>
+        <v>519.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3521,36 +3653,33 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="C84" t="n">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="D84" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="E84" t="n">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="F84" t="n">
-        <v>22.2917</v>
+        <v>3779.7617</v>
       </c>
       <c r="G84" t="n">
-        <v>33606.3830471</v>
+        <v>513.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3560,36 +3689,33 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="C85" t="n">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="D85" t="n">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="E85" t="n">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="F85" t="n">
-        <v>5842.3992</v>
+        <v>385.0637</v>
       </c>
       <c r="G85" t="n">
-        <v>39448.7822471</v>
+        <v>513.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3599,36 +3725,33 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="C86" t="n">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="D86" t="n">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="E86" t="n">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="F86" t="n">
-        <v>7465.9991</v>
+        <v>1019.73</v>
       </c>
       <c r="G86" t="n">
-        <v>31982.7831471</v>
+        <v>511.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3638,73 +3761,69 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="C87" t="n">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D87" t="n">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="E87" t="n">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="F87" t="n">
-        <v>693</v>
+        <v>298.6601</v>
       </c>
       <c r="G87" t="n">
-        <v>31289.7831471</v>
+        <v>512.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C88" t="n">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="D88" t="n">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="E88" t="n">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="F88" t="n">
-        <v>554.4041999999999</v>
+        <v>6898.3039</v>
       </c>
       <c r="G88" t="n">
-        <v>31289.7831471</v>
+        <v>513.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3718,28 +3837,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="C89" t="n">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D89" t="n">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="E89" t="n">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="F89" t="n">
-        <v>1977.0967</v>
+        <v>509.2245</v>
       </c>
       <c r="G89" t="n">
-        <v>29312.6864471</v>
+        <v>516</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3753,28 +3873,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C90" t="n">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="D90" t="n">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="E90" t="n">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>414.7466</v>
       </c>
       <c r="G90" t="n">
-        <v>29313.6864471</v>
+        <v>517.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3788,28 +3909,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C91" t="n">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D91" t="n">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="E91" t="n">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>1051.9738</v>
       </c>
       <c r="G91" t="n">
-        <v>29513.6864471</v>
+        <v>519.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3823,28 +3945,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C92" t="n">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D92" t="n">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="E92" t="n">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F92" t="n">
-        <v>1088.0467</v>
+        <v>230</v>
       </c>
       <c r="G92" t="n">
-        <v>28425.6397471</v>
+        <v>522.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3858,28 +3981,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C93" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D93" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E93" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F93" t="n">
-        <v>440.9972</v>
+        <v>267.501</v>
       </c>
       <c r="G93" t="n">
-        <v>27984.6425471</v>
+        <v>526.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3893,28 +4017,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C94" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D94" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E94" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>492.1965</v>
       </c>
       <c r="G94" t="n">
-        <v>27985.6425471</v>
+        <v>531</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3928,6 +4053,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3937,25 +4063,25 @@
         <v>540</v>
       </c>
       <c r="C95" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D95" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E95" t="n">
         <v>540</v>
       </c>
       <c r="F95" t="n">
-        <v>118</v>
+        <v>1222.6863</v>
       </c>
       <c r="G95" t="n">
-        <v>27985.6425471</v>
+        <v>535</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3963,6 +4089,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3972,25 +4099,25 @@
         <v>540</v>
       </c>
       <c r="C96" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D96" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E96" t="n">
         <v>540</v>
       </c>
       <c r="F96" t="n">
-        <v>2819.6579</v>
+        <v>568</v>
       </c>
       <c r="G96" t="n">
-        <v>25165.9846471</v>
+        <v>538.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3998,34 +4125,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C97" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D97" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E97" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F97" t="n">
-        <v>67.98090000000001</v>
+        <v>36.563</v>
       </c>
       <c r="G97" t="n">
-        <v>25165.9846471</v>
+        <v>541.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4033,28 +4161,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C98" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D98" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E98" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>1084.5018</v>
       </c>
       <c r="G98" t="n">
-        <v>25166.9846471</v>
+        <v>544</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4068,34 +4197,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C99" t="n">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D99" t="n">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E99" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F99" t="n">
-        <v>1708.5031</v>
+        <v>2381.802</v>
       </c>
       <c r="G99" t="n">
-        <v>26875.4877471</v>
+        <v>542.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4103,34 +4233,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="C100" t="n">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="D100" t="n">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="E100" t="n">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="F100" t="n">
-        <v>364.48</v>
+        <v>4346.0085</v>
       </c>
       <c r="G100" t="n">
-        <v>27239.9677471</v>
+        <v>540.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4138,34 +4269,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="C101" t="n">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D101" t="n">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E101" t="n">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="F101" t="n">
-        <v>161</v>
+        <v>34.5476</v>
       </c>
       <c r="G101" t="n">
-        <v>27400.9677471</v>
+        <v>538.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4173,34 +4305,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C102" t="n">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D102" t="n">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E102" t="n">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F102" t="n">
-        <v>968.8167999999999</v>
+        <v>3723.6038</v>
       </c>
       <c r="G102" t="n">
-        <v>26432.1509471</v>
+        <v>535.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4208,34 +4341,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C103" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D103" t="n">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="E103" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F103" t="n">
-        <v>454.9064</v>
+        <v>1815.5456</v>
       </c>
       <c r="G103" t="n">
-        <v>25977.2445471</v>
+        <v>532.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4243,34 +4377,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C104" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D104" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E104" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F104" t="n">
-        <v>323.2982</v>
+        <v>139.83</v>
       </c>
       <c r="G104" t="n">
-        <v>25653.9463471</v>
+        <v>534</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4278,28 +4413,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C105" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D105" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E105" t="n">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F105" t="n">
-        <v>41</v>
+        <v>99.99339999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>25694.9463471</v>
+        <v>536.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4313,28 +4449,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C106" t="n">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D106" t="n">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E106" t="n">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F106" t="n">
-        <v>3.27205882</v>
+        <v>300</v>
       </c>
       <c r="G106" t="n">
-        <v>25691.67428828</v>
+        <v>537</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4348,28 +4485,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C107" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D107" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E107" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F107" t="n">
-        <v>2331.8788</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
-        <v>25691.67428828</v>
+        <v>540</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4383,34 +4521,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C108" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D108" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E108" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F108" t="n">
-        <v>1474.3499</v>
+        <v>5107.9897</v>
       </c>
       <c r="G108" t="n">
-        <v>25691.67428828</v>
+        <v>543.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4418,28 +4557,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C109" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D109" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E109" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F109" t="n">
-        <v>3089.9999</v>
+        <v>300</v>
       </c>
       <c r="G109" t="n">
-        <v>25691.67428828</v>
+        <v>545</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4453,28 +4593,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C110" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D110" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E110" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F110" t="n">
-        <v>40</v>
+        <v>122.3465</v>
       </c>
       <c r="G110" t="n">
-        <v>25691.67428828</v>
+        <v>546</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4488,28 +4629,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C111" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D111" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="E111" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F111" t="n">
-        <v>465.8522</v>
+        <v>641.6778</v>
       </c>
       <c r="G111" t="n">
-        <v>25691.67428828</v>
+        <v>548.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4523,28 +4665,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C112" t="n">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="D112" t="n">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E112" t="n">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F112" t="n">
-        <v>2101.6472</v>
+        <v>150.08702611</v>
       </c>
       <c r="G112" t="n">
-        <v>27793.32148828</v>
+        <v>551</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4558,28 +4701,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="C113" t="n">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="D113" t="n">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="E113" t="n">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="F113" t="n">
-        <v>4479.7174</v>
+        <v>8073.591</v>
       </c>
       <c r="G113" t="n">
-        <v>23313.60408828</v>
+        <v>553.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4593,28 +4737,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="C114" t="n">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="D114" t="n">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="E114" t="n">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="F114" t="n">
-        <v>80</v>
+        <v>6390.68337389</v>
       </c>
       <c r="G114" t="n">
-        <v>23233.60408828</v>
+        <v>553.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4628,28 +4773,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="C115" t="n">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="D115" t="n">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="E115" t="n">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="F115" t="n">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G115" t="n">
-        <v>23233.60408828</v>
+        <v>555.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4663,28 +4809,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C116" t="n">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="D116" t="n">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="E116" t="n">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="F116" t="n">
-        <v>3359.7881</v>
+        <v>1412.1416</v>
       </c>
       <c r="G116" t="n">
-        <v>19873.81598828</v>
+        <v>554.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4698,28 +4845,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="C117" t="n">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="D117" t="n">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="E117" t="n">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="F117" t="n">
-        <v>373.9692</v>
+        <v>260.8318</v>
       </c>
       <c r="G117" t="n">
-        <v>20247.78518828</v>
+        <v>554.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4733,28 +4881,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="C118" t="n">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="D118" t="n">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="E118" t="n">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>1382.8963</v>
       </c>
       <c r="G118" t="n">
-        <v>20248.78518828</v>
+        <v>554.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4768,28 +4917,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="C119" t="n">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="D119" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="E119" t="n">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="F119" t="n">
-        <v>2519.841</v>
+        <v>249.946</v>
       </c>
       <c r="G119" t="n">
-        <v>17728.94418827999</v>
+        <v>558.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4803,28 +4953,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="C120" t="n">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="D120" t="n">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="E120" t="n">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="F120" t="n">
-        <v>4486.3901</v>
+        <v>2126.01641086</v>
       </c>
       <c r="G120" t="n">
-        <v>22215.33428828</v>
+        <v>562.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4838,34 +4989,35 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="C121" t="n">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="D121" t="n">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="E121" t="n">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>1789.8546</v>
       </c>
       <c r="G121" t="n">
-        <v>22216.33428828</v>
+        <v>565.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4873,307 +5025,281 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="C122" t="n">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="D122" t="n">
-        <v>529</v>
+        <v>578</v>
       </c>
       <c r="E122" t="n">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="F122" t="n">
-        <v>1970.533</v>
+        <v>6373.0013</v>
       </c>
       <c r="G122" t="n">
-        <v>20245.80128828</v>
+        <v>569.6</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>534</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="C123" t="n">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="D123" t="n">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E123" t="n">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>2655</v>
       </c>
       <c r="G123" t="n">
-        <v>20246.80128828</v>
+        <v>570</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="C124" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="D124" t="n">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="E124" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="F124" t="n">
-        <v>3779.7616</v>
+        <v>200</v>
       </c>
       <c r="G124" t="n">
-        <v>16467.03968828</v>
+        <v>568.2</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>530</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="C125" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="D125" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="E125" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="F125" t="n">
-        <v>213.6623</v>
+        <v>436</v>
       </c>
       <c r="G125" t="n">
-        <v>16467.03968828</v>
+        <v>564.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="C126" t="n">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="D126" t="n">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="E126" t="n">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="F126" t="n">
-        <v>3779.7617</v>
+        <v>431.775</v>
       </c>
       <c r="G126" t="n">
-        <v>12687.27798828</v>
+        <v>563.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="C127" t="n">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="D127" t="n">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="E127" t="n">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="F127" t="n">
-        <v>385.0637</v>
+        <v>1623.0281</v>
       </c>
       <c r="G127" t="n">
-        <v>13072.34168828</v>
+        <v>558.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="C128" t="n">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="D128" t="n">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="E128" t="n">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="F128" t="n">
-        <v>1019.73</v>
+        <v>346.57</v>
       </c>
       <c r="G128" t="n">
-        <v>14092.07168828</v>
+        <v>557.2</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>513</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="C129" t="n">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="D129" t="n">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="E129" t="n">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="F129" t="n">
-        <v>298.6601</v>
+        <v>73.46299999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>14092.07168828</v>
+        <v>557</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5183,36 +5309,33 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="C130" t="n">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="D130" t="n">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="E130" t="n">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="F130" t="n">
-        <v>6898.3039</v>
+        <v>732.647</v>
       </c>
       <c r="G130" t="n">
-        <v>7193.767788279999</v>
+        <v>554.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5222,36 +5345,33 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="C131" t="n">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="D131" t="n">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="E131" t="n">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="F131" t="n">
-        <v>509.2245</v>
+        <v>511.3181</v>
       </c>
       <c r="G131" t="n">
-        <v>7702.992288279999</v>
+        <v>549.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5261,75 +5381,69 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="C132" t="n">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D132" t="n">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="E132" t="n">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="F132" t="n">
-        <v>414.7466</v>
+        <v>2086.3055</v>
       </c>
       <c r="G132" t="n">
-        <v>8117.73888828</v>
+        <v>545.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="C133" t="n">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="D133" t="n">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="E133" t="n">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="F133" t="n">
-        <v>1051.9738</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>9169.71268828</v>
+        <v>546</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5339,75 +5453,69 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="C134" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D134" t="n">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="E134" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F134" t="n">
-        <v>230</v>
+        <v>1107.9873</v>
       </c>
       <c r="G134" t="n">
-        <v>9169.71268828</v>
+        <v>541.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="C135" t="n">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="D135" t="n">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="E135" t="n">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="F135" t="n">
-        <v>267.501</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>9437.21368828</v>
+        <v>542.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5417,36 +5525,33 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C136" t="n">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D136" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E136" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F136" t="n">
-        <v>492.1965</v>
+        <v>5459.5861</v>
       </c>
       <c r="G136" t="n">
-        <v>9929.410188280001</v>
+        <v>542.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5456,36 +5561,33 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C137" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D137" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E137" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F137" t="n">
-        <v>1222.6863</v>
+        <v>1338.0397</v>
       </c>
       <c r="G137" t="n">
-        <v>9929.410188280001</v>
+        <v>542.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5495,36 +5597,33 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C138" t="n">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D138" t="n">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E138" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F138" t="n">
-        <v>568</v>
+        <v>1715.5414</v>
       </c>
       <c r="G138" t="n">
-        <v>10497.41018828</v>
+        <v>539</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5534,36 +5633,33 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C139" t="n">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D139" t="n">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E139" t="n">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F139" t="n">
-        <v>36.563</v>
+        <v>930.5707</v>
       </c>
       <c r="G139" t="n">
-        <v>10497.41018828</v>
+        <v>538.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5573,36 +5669,33 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C140" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D140" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E140" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="F140" t="n">
-        <v>1084.5018</v>
+        <v>2086.783</v>
       </c>
       <c r="G140" t="n">
-        <v>9412.908388280001</v>
+        <v>535.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5612,36 +5705,33 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C141" t="n">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="D141" t="n">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="E141" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F141" t="n">
-        <v>2381.802</v>
+        <v>22</v>
       </c>
       <c r="G141" t="n">
-        <v>7031.106388280001</v>
+        <v>538.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5651,36 +5741,33 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C142" t="n">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="D142" t="n">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="E142" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F142" t="n">
-        <v>4346.0085</v>
+        <v>2968.7782</v>
       </c>
       <c r="G142" t="n">
-        <v>7031.106388280001</v>
+        <v>541</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5690,36 +5777,33 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C143" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D143" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E143" t="n">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F143" t="n">
-        <v>34.5476</v>
+        <v>638.5133</v>
       </c>
       <c r="G143" t="n">
-        <v>7065.653988280001</v>
+        <v>541.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5729,36 +5813,33 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="C144" t="n">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="D144" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E144" t="n">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="F144" t="n">
-        <v>3723.6038</v>
+        <v>2.2815</v>
       </c>
       <c r="G144" t="n">
-        <v>3342.050188280001</v>
+        <v>544.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5768,36 +5849,33 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C145" t="n">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D145" t="n">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="E145" t="n">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F145" t="n">
-        <v>1815.5456</v>
+        <v>139.6699</v>
       </c>
       <c r="G145" t="n">
-        <v>5157.595788280001</v>
+        <v>544.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5807,36 +5885,33 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C146" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D146" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E146" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F146" t="n">
-        <v>139.83</v>
+        <v>87.1729</v>
       </c>
       <c r="G146" t="n">
-        <v>5297.425788280001</v>
+        <v>542</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5846,36 +5921,33 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C147" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D147" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E147" t="n">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F147" t="n">
-        <v>99.99339999999999</v>
+        <v>160</v>
       </c>
       <c r="G147" t="n">
-        <v>5397.419188280001</v>
+        <v>541.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5885,36 +5957,33 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C148" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D148" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E148" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>45.6148</v>
       </c>
       <c r="G148" t="n">
-        <v>5097.419188280001</v>
+        <v>541.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5924,36 +5993,33 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C149" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D149" t="n">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E149" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>1438.5959</v>
       </c>
       <c r="G149" t="n">
-        <v>5297.419188280001</v>
+        <v>539.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5963,36 +6029,33 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C150" t="n">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D150" t="n">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E150" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F150" t="n">
-        <v>5107.9897</v>
+        <v>89.12430000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>10405.40888828</v>
+        <v>540.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6002,21 +6065,18 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C151" t="n">
         <v>548</v>
@@ -6025,13 +6085,13 @@
         <v>548</v>
       </c>
       <c r="E151" t="n">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G151" t="n">
-        <v>10405.40888828</v>
+        <v>542.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6041,36 +6101,33 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C152" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D152" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E152" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F152" t="n">
-        <v>122.3465</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>10527.75538828</v>
+        <v>543.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6080,36 +6137,33 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C153" t="n">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D153" t="n">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E153" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F153" t="n">
-        <v>641.6778</v>
+        <v>1105</v>
       </c>
       <c r="G153" t="n">
-        <v>11169.43318828</v>
+        <v>544.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6119,36 +6173,33 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C154" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="D154" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E154" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F154" t="n">
-        <v>150.08702611</v>
+        <v>364.7688</v>
       </c>
       <c r="G154" t="n">
-        <v>11319.52021439</v>
+        <v>545.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6158,36 +6209,33 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C155" t="n">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D155" t="n">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E155" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F155" t="n">
-        <v>8073.591</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>19393.11121439</v>
+        <v>546.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6197,36 +6245,33 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C156" t="n">
         <v>548</v>
       </c>
       <c r="D156" t="n">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="E156" t="n">
         <v>548</v>
       </c>
       <c r="F156" t="n">
-        <v>6390.68337389</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>13002.4278405</v>
+        <v>546.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6236,36 +6281,33 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C157" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D157" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E157" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>159.6186</v>
       </c>
       <c r="G157" t="n">
-        <v>13202.4278405</v>
+        <v>546.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6275,36 +6317,33 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C158" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D158" t="n">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E158" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F158" t="n">
-        <v>1412.1416</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>11790.2862405</v>
+        <v>546.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6314,36 +6353,33 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C159" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="D159" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="E159" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="F159" t="n">
-        <v>260.8318</v>
+        <v>288.445</v>
       </c>
       <c r="G159" t="n">
-        <v>12051.1180405</v>
+        <v>545.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6353,36 +6389,33 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C160" t="n">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D160" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="E160" t="n">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F160" t="n">
-        <v>1382.8963</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>13434.0143405</v>
+        <v>544.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6392,36 +6425,33 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="C161" t="n">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="D161" t="n">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="E161" t="n">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F161" t="n">
-        <v>249.946</v>
+        <v>240</v>
       </c>
       <c r="G161" t="n">
-        <v>13683.9603405</v>
+        <v>543</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6431,36 +6461,33 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="C162" t="n">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="D162" t="n">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="E162" t="n">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="F162" t="n">
-        <v>2126.01641086</v>
+        <v>80</v>
       </c>
       <c r="G162" t="n">
-        <v>15809.97675136</v>
+        <v>541.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6470,36 +6497,33 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="C163" t="n">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="D163" t="n">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="E163" t="n">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="F163" t="n">
-        <v>1789.8546</v>
+        <v>631.8948</v>
       </c>
       <c r="G163" t="n">
-        <v>14020.12215136</v>
+        <v>538.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6509,36 +6533,33 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="C164" t="n">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="D164" t="n">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="E164" t="n">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="F164" t="n">
-        <v>6373.0013</v>
+        <v>547.1344</v>
       </c>
       <c r="G164" t="n">
-        <v>20393.12345136</v>
+        <v>537.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6548,36 +6569,33 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="C165" t="n">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="D165" t="n">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="E165" t="n">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="F165" t="n">
-        <v>2655</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>17738.12345136</v>
+        <v>535.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6587,36 +6605,33 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C166" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="D166" t="n">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="E166" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="G166" t="n">
-        <v>17738.12345136</v>
+        <v>536</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6626,36 +6641,33 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="C167" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="D167" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="E167" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="F167" t="n">
-        <v>436</v>
+        <v>4.1</v>
       </c>
       <c r="G167" t="n">
-        <v>17738.12345136</v>
+        <v>534.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6665,36 +6677,33 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="C168" t="n">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="D168" t="n">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="E168" t="n">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="F168" t="n">
-        <v>431.775</v>
+        <v>283.24</v>
       </c>
       <c r="G168" t="n">
-        <v>17738.12345136</v>
+        <v>533.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6704,36 +6713,33 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="C169" t="n">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="D169" t="n">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="E169" t="n">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="F169" t="n">
-        <v>1623.0281</v>
+        <v>1997.6459</v>
       </c>
       <c r="G169" t="n">
-        <v>16115.09535136</v>
+        <v>531.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6743,1652 +6749,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>553</v>
-      </c>
-      <c r="C170" t="n">
-        <v>553</v>
-      </c>
-      <c r="D170" t="n">
-        <v>553</v>
-      </c>
-      <c r="E170" t="n">
-        <v>553</v>
-      </c>
-      <c r="F170" t="n">
-        <v>346.57</v>
-      </c>
-      <c r="G170" t="n">
-        <v>16115.09535136</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>552</v>
-      </c>
-      <c r="C171" t="n">
-        <v>559</v>
-      </c>
-      <c r="D171" t="n">
-        <v>559</v>
-      </c>
-      <c r="E171" t="n">
-        <v>552</v>
-      </c>
-      <c r="F171" t="n">
-        <v>73.46299999999999</v>
-      </c>
-      <c r="G171" t="n">
-        <v>16188.55835136</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>549</v>
-      </c>
-      <c r="C172" t="n">
-        <v>549</v>
-      </c>
-      <c r="D172" t="n">
-        <v>549</v>
-      </c>
-      <c r="E172" t="n">
-        <v>549</v>
-      </c>
-      <c r="F172" t="n">
-        <v>732.647</v>
-      </c>
-      <c r="G172" t="n">
-        <v>15455.91135136</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>549</v>
-      </c>
-      <c r="C173" t="n">
-        <v>533</v>
-      </c>
-      <c r="D173" t="n">
-        <v>549</v>
-      </c>
-      <c r="E173" t="n">
-        <v>533</v>
-      </c>
-      <c r="F173" t="n">
-        <v>511.3181</v>
-      </c>
-      <c r="G173" t="n">
-        <v>14944.59325136</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>539</v>
-      </c>
-      <c r="C174" t="n">
-        <v>535</v>
-      </c>
-      <c r="D174" t="n">
-        <v>539</v>
-      </c>
-      <c r="E174" t="n">
-        <v>535</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2086.3055</v>
-      </c>
-      <c r="G174" t="n">
-        <v>17030.89875136</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>554</v>
-      </c>
-      <c r="C175" t="n">
-        <v>554</v>
-      </c>
-      <c r="D175" t="n">
-        <v>554</v>
-      </c>
-      <c r="E175" t="n">
-        <v>554</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>17031.89875136</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>552</v>
-      </c>
-      <c r="C176" t="n">
-        <v>536</v>
-      </c>
-      <c r="D176" t="n">
-        <v>552</v>
-      </c>
-      <c r="E176" t="n">
-        <v>536</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1107.9873</v>
-      </c>
-      <c r="G176" t="n">
-        <v>15923.91145136</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>553</v>
-      </c>
-      <c r="C177" t="n">
-        <v>553</v>
-      </c>
-      <c r="D177" t="n">
-        <v>553</v>
-      </c>
-      <c r="E177" t="n">
-        <v>553</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" t="n">
-        <v>15924.91145136</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>537</v>
-      </c>
-      <c r="C178" t="n">
-        <v>536</v>
-      </c>
-      <c r="D178" t="n">
-        <v>537</v>
-      </c>
-      <c r="E178" t="n">
-        <v>536</v>
-      </c>
-      <c r="F178" t="n">
-        <v>5459.5861</v>
-      </c>
-      <c r="G178" t="n">
-        <v>10465.32535136</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>537</v>
-      </c>
-      <c r="C179" t="n">
-        <v>535</v>
-      </c>
-      <c r="D179" t="n">
-        <v>537</v>
-      </c>
-      <c r="E179" t="n">
-        <v>535</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1338.0397</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>535</v>
-      </c>
-      <c r="C180" t="n">
-        <v>535</v>
-      </c>
-      <c r="D180" t="n">
-        <v>535</v>
-      </c>
-      <c r="E180" t="n">
-        <v>535</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1715.5414</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>535</v>
-      </c>
-      <c r="C181" t="n">
-        <v>535</v>
-      </c>
-      <c r="D181" t="n">
-        <v>535</v>
-      </c>
-      <c r="E181" t="n">
-        <v>535</v>
-      </c>
-      <c r="F181" t="n">
-        <v>930.5707</v>
-      </c>
-      <c r="G181" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>535</v>
-      </c>
-      <c r="C182" t="n">
-        <v>535</v>
-      </c>
-      <c r="D182" t="n">
-        <v>535</v>
-      </c>
-      <c r="E182" t="n">
-        <v>535</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2086.783</v>
-      </c>
-      <c r="G182" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>535</v>
-      </c>
-      <c r="C183" t="n">
-        <v>552</v>
-      </c>
-      <c r="D183" t="n">
-        <v>552</v>
-      </c>
-      <c r="E183" t="n">
-        <v>535</v>
-      </c>
-      <c r="F183" t="n">
-        <v>22</v>
-      </c>
-      <c r="G183" t="n">
-        <v>9149.285651359996</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>536</v>
-      </c>
-      <c r="C184" t="n">
-        <v>548</v>
-      </c>
-      <c r="D184" t="n">
-        <v>548</v>
-      </c>
-      <c r="E184" t="n">
-        <v>536</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2968.7782</v>
-      </c>
-      <c r="G184" t="n">
-        <v>6180.507451359996</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>539</v>
-      </c>
-      <c r="C185" t="n">
-        <v>539</v>
-      </c>
-      <c r="D185" t="n">
-        <v>539</v>
-      </c>
-      <c r="E185" t="n">
-        <v>539</v>
-      </c>
-      <c r="F185" t="n">
-        <v>638.5133</v>
-      </c>
-      <c r="G185" t="n">
-        <v>5541.994151359996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>547</v>
-      </c>
-      <c r="C186" t="n">
-        <v>547</v>
-      </c>
-      <c r="D186" t="n">
-        <v>547</v>
-      </c>
-      <c r="E186" t="n">
-        <v>547</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2.2815</v>
-      </c>
-      <c r="G186" t="n">
-        <v>5544.275651359996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>538</v>
-      </c>
-      <c r="C187" t="n">
-        <v>538</v>
-      </c>
-      <c r="D187" t="n">
-        <v>538</v>
-      </c>
-      <c r="E187" t="n">
-        <v>538</v>
-      </c>
-      <c r="F187" t="n">
-        <v>139.6699</v>
-      </c>
-      <c r="G187" t="n">
-        <v>5404.605751359996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>538</v>
-      </c>
-      <c r="C188" t="n">
-        <v>538</v>
-      </c>
-      <c r="D188" t="n">
-        <v>538</v>
-      </c>
-      <c r="E188" t="n">
-        <v>538</v>
-      </c>
-      <c r="F188" t="n">
-        <v>87.1729</v>
-      </c>
-      <c r="G188" t="n">
-        <v>5404.605751359996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>538</v>
-      </c>
-      <c r="C189" t="n">
-        <v>544</v>
-      </c>
-      <c r="D189" t="n">
-        <v>544</v>
-      </c>
-      <c r="E189" t="n">
-        <v>538</v>
-      </c>
-      <c r="F189" t="n">
-        <v>160</v>
-      </c>
-      <c r="G189" t="n">
-        <v>5564.605751359996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>540</v>
-      </c>
-      <c r="C190" t="n">
-        <v>540</v>
-      </c>
-      <c r="D190" t="n">
-        <v>540</v>
-      </c>
-      <c r="E190" t="n">
-        <v>540</v>
-      </c>
-      <c r="F190" t="n">
-        <v>45.6148</v>
-      </c>
-      <c r="G190" t="n">
-        <v>5518.990951359996</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>540</v>
-      </c>
-      <c r="C191" t="n">
-        <v>539</v>
-      </c>
-      <c r="D191" t="n">
-        <v>540</v>
-      </c>
-      <c r="E191" t="n">
-        <v>539</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1438.5959</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4080.395051359996</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>542</v>
-      </c>
-      <c r="C192" t="n">
-        <v>542</v>
-      </c>
-      <c r="D192" t="n">
-        <v>542</v>
-      </c>
-      <c r="E192" t="n">
-        <v>542</v>
-      </c>
-      <c r="F192" t="n">
-        <v>89.12430000000001</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4169.519351359996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>545</v>
-      </c>
-      <c r="C193" t="n">
-        <v>548</v>
-      </c>
-      <c r="D193" t="n">
-        <v>548</v>
-      </c>
-      <c r="E193" t="n">
-        <v>545</v>
-      </c>
-      <c r="F193" t="n">
-        <v>80</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4249.519351359996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>548</v>
-      </c>
-      <c r="C194" t="n">
-        <v>548</v>
-      </c>
-      <c r="D194" t="n">
-        <v>548</v>
-      </c>
-      <c r="E194" t="n">
-        <v>548</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4249.519351359996</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>545</v>
-      </c>
-      <c r="C195" t="n">
-        <v>545</v>
-      </c>
-      <c r="D195" t="n">
-        <v>545</v>
-      </c>
-      <c r="E195" t="n">
-        <v>545</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1105</v>
-      </c>
-      <c r="G195" t="n">
-        <v>3144.519351359996</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>545</v>
-      </c>
-      <c r="C196" t="n">
-        <v>545</v>
-      </c>
-      <c r="D196" t="n">
-        <v>545</v>
-      </c>
-      <c r="E196" t="n">
-        <v>545</v>
-      </c>
-      <c r="F196" t="n">
-        <v>364.7688</v>
-      </c>
-      <c r="G196" t="n">
-        <v>3144.519351359996</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>548</v>
-      </c>
-      <c r="C197" t="n">
-        <v>548</v>
-      </c>
-      <c r="D197" t="n">
-        <v>548</v>
-      </c>
-      <c r="E197" t="n">
-        <v>548</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1</v>
-      </c>
-      <c r="G197" t="n">
-        <v>3145.519351359996</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>548</v>
-      </c>
-      <c r="C198" t="n">
-        <v>548</v>
-      </c>
-      <c r="D198" t="n">
-        <v>548</v>
-      </c>
-      <c r="E198" t="n">
-        <v>548</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3</v>
-      </c>
-      <c r="G198" t="n">
-        <v>3145.519351359996</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>545</v>
-      </c>
-      <c r="C199" t="n">
-        <v>545</v>
-      </c>
-      <c r="D199" t="n">
-        <v>545</v>
-      </c>
-      <c r="E199" t="n">
-        <v>545</v>
-      </c>
-      <c r="F199" t="n">
-        <v>159.6186</v>
-      </c>
-      <c r="G199" t="n">
-        <v>2985.900751359996</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>547</v>
-      </c>
-      <c r="C200" t="n">
-        <v>547</v>
-      </c>
-      <c r="D200" t="n">
-        <v>547</v>
-      </c>
-      <c r="E200" t="n">
-        <v>547</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" t="n">
-        <v>2986.900751359996</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>540</v>
-      </c>
-      <c r="C201" t="n">
-        <v>540</v>
-      </c>
-      <c r="D201" t="n">
-        <v>540</v>
-      </c>
-      <c r="E201" t="n">
-        <v>540</v>
-      </c>
-      <c r="F201" t="n">
-        <v>288.445</v>
-      </c>
-      <c r="G201" t="n">
-        <v>2698.455751359996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>544</v>
-      </c>
-      <c r="C202" t="n">
-        <v>544</v>
-      </c>
-      <c r="D202" t="n">
-        <v>544</v>
-      </c>
-      <c r="E202" t="n">
-        <v>544</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" t="n">
-        <v>2699.455751359996</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>539</v>
-      </c>
-      <c r="C203" t="n">
-        <v>539</v>
-      </c>
-      <c r="D203" t="n">
-        <v>539</v>
-      </c>
-      <c r="E203" t="n">
-        <v>539</v>
-      </c>
-      <c r="F203" t="n">
-        <v>240</v>
-      </c>
-      <c r="G203" t="n">
-        <v>2459.455751359996</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>539</v>
-      </c>
-      <c r="C204" t="n">
-        <v>536</v>
-      </c>
-      <c r="D204" t="n">
-        <v>539</v>
-      </c>
-      <c r="E204" t="n">
-        <v>536</v>
-      </c>
-      <c r="F204" t="n">
-        <v>80</v>
-      </c>
-      <c r="G204" t="n">
-        <v>2379.455751359996</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>536</v>
-      </c>
-      <c r="C205" t="n">
-        <v>535</v>
-      </c>
-      <c r="D205" t="n">
-        <v>536</v>
-      </c>
-      <c r="E205" t="n">
-        <v>535</v>
-      </c>
-      <c r="F205" t="n">
-        <v>631.8948</v>
-      </c>
-      <c r="G205" t="n">
-        <v>1747.560951359996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>535</v>
-      </c>
-      <c r="C206" t="n">
-        <v>532</v>
-      </c>
-      <c r="D206" t="n">
-        <v>535</v>
-      </c>
-      <c r="E206" t="n">
-        <v>532</v>
-      </c>
-      <c r="F206" t="n">
-        <v>547.1344</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1200.426551359996</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>537</v>
-      </c>
-      <c r="C207" t="n">
-        <v>537</v>
-      </c>
-      <c r="D207" t="n">
-        <v>537</v>
-      </c>
-      <c r="E207" t="n">
-        <v>537</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1201.426551359996</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>530</v>
-      </c>
-      <c r="C208" t="n">
-        <v>540</v>
-      </c>
-      <c r="D208" t="n">
-        <v>540</v>
-      </c>
-      <c r="E208" t="n">
-        <v>530</v>
-      </c>
-      <c r="F208" t="n">
-        <v>42</v>
-      </c>
-      <c r="G208" t="n">
-        <v>1243.426551359996</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>530</v>
-      </c>
-      <c r="C209" t="n">
-        <v>530</v>
-      </c>
-      <c r="D209" t="n">
-        <v>530</v>
-      </c>
-      <c r="E209" t="n">
-        <v>530</v>
-      </c>
-      <c r="F209" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G209" t="n">
-        <v>1239.326551359996</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>529</v>
-      </c>
-      <c r="C210" t="n">
-        <v>529</v>
-      </c>
-      <c r="D210" t="n">
-        <v>529</v>
-      </c>
-      <c r="E210" t="n">
-        <v>529</v>
-      </c>
-      <c r="F210" t="n">
-        <v>283.24</v>
-      </c>
-      <c r="G210" t="n">
-        <v>956.0865513599963</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>523</v>
-      </c>
-      <c r="C211" t="n">
-        <v>521</v>
-      </c>
-      <c r="D211" t="n">
-        <v>523</v>
-      </c>
-      <c r="E211" t="n">
-        <v>521</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1997.6459</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1041.559348640004</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
+      <c r="N169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C2" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D2" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E2" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>383.1544</v>
       </c>
       <c r="G2" t="n">
-        <v>511</v>
+        <v>8918.602300000002</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C3" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D3" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E3" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F3" t="n">
-        <v>564.2023</v>
+        <v>26.5772</v>
       </c>
       <c r="G3" t="n">
-        <v>511.8</v>
+        <v>8918.602300000002</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K3" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C4" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D4" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E4" t="n">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F4" t="n">
-        <v>1398.746</v>
+        <v>111.7384</v>
       </c>
       <c r="G4" t="n">
-        <v>511.8</v>
+        <v>8918.602300000002</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C5" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D5" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E5" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F5" t="n">
-        <v>595.2623</v>
+        <v>297.3833</v>
       </c>
       <c r="G5" t="n">
-        <v>510.2</v>
+        <v>8918.602300000002</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K5" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C6" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D6" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E6" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>60.0693</v>
       </c>
       <c r="G6" t="n">
-        <v>511.8</v>
+        <v>8918.602300000002</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K6" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -646,22 +646,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C7" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D7" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E7" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F7" t="n">
-        <v>593</v>
+        <v>180.2067</v>
       </c>
       <c r="G7" t="n">
-        <v>511.6</v>
+        <v>8918.602300000002</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K7" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -690,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C8" t="n">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E8" t="n">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F8" t="n">
-        <v>302.0079</v>
+        <v>313.2014</v>
       </c>
       <c r="G8" t="n">
-        <v>511.4</v>
+        <v>8605.400900000002</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K8" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -734,22 +734,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C9" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D9" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E9" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="F9" t="n">
-        <v>206.2807</v>
+        <v>144.956</v>
       </c>
       <c r="G9" t="n">
-        <v>513</v>
+        <v>8605.400900000002</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="K9" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -778,22 +778,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="C10" t="n">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D10" t="n">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="E10" t="n">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F10" t="n">
-        <v>65</v>
+        <v>486.172</v>
       </c>
       <c r="G10" t="n">
-        <v>515.6</v>
+        <v>8605.400900000002</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="K10" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -822,22 +822,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="C11" t="n">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="D11" t="n">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="E11" t="n">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="F11" t="n">
-        <v>80</v>
+        <v>207.7842</v>
       </c>
       <c r="G11" t="n">
-        <v>518.8</v>
+        <v>8397.616700000002</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="K11" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -866,32 +866,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="C12" t="n">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="D12" t="n">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="E12" t="n">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="F12" t="n">
-        <v>439.0173</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>522</v>
+        <v>8398.616700000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>501</v>
+      </c>
       <c r="K12" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -908,32 +910,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="C13" t="n">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="D13" t="n">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="E13" t="n">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="F13" t="n">
-        <v>350.2</v>
+        <v>560</v>
       </c>
       <c r="G13" t="n">
-        <v>525.6</v>
+        <v>8958.616700000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>502</v>
+      </c>
       <c r="K13" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -950,32 +954,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="C14" t="n">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="D14" t="n">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="E14" t="n">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="F14" t="n">
-        <v>152.6043</v>
+        <v>560</v>
       </c>
       <c r="G14" t="n">
-        <v>529</v>
+        <v>9518.616700000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>505</v>
+      </c>
       <c r="K14" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -992,22 +998,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="C15" t="n">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="D15" t="n">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="E15" t="n">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>78.11150000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>531.4</v>
+        <v>9440.505200000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1034,22 +1040,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="C16" t="n">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="D16" t="n">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="E16" t="n">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="F16" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>533.6</v>
+        <v>9441.505200000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1059,7 +1065,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1076,22 +1082,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="C17" t="n">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="D17" t="n">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="E17" t="n">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="F17" t="n">
-        <v>1457.5269</v>
+        <v>304.0356</v>
       </c>
       <c r="G17" t="n">
-        <v>535.8</v>
+        <v>9441.505200000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1101,7 +1107,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1118,22 +1124,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="C18" t="n">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="D18" t="n">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="E18" t="n">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="F18" t="n">
-        <v>451.1581</v>
+        <v>953.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>538.6</v>
+        <v>10395.5051</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1143,7 +1149,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1160,22 +1166,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="C19" t="n">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="D19" t="n">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="E19" t="n">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="F19" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="G19" t="n">
-        <v>539.6</v>
+        <v>10675.5051</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1185,7 +1191,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1202,22 +1208,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="C20" t="n">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="D20" t="n">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="E20" t="n">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="F20" t="n">
-        <v>2775.0162</v>
+        <v>368</v>
       </c>
       <c r="G20" t="n">
-        <v>541.4</v>
+        <v>10675.5051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1227,7 +1233,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1244,22 +1250,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="C21" t="n">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="D21" t="n">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="E21" t="n">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="F21" t="n">
-        <v>260.9724</v>
+        <v>1249.5376</v>
       </c>
       <c r="G21" t="n">
-        <v>542</v>
+        <v>11925.0427</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1286,22 +1292,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="C22" t="n">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D22" t="n">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="E22" t="n">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="F22" t="n">
-        <v>789.6651000000001</v>
+        <v>884.5291</v>
       </c>
       <c r="G22" t="n">
-        <v>538.6</v>
+        <v>12809.5718</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1311,7 +1317,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1328,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="C23" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="D23" t="n">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="E23" t="n">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>3683.192</v>
       </c>
       <c r="G23" t="n">
-        <v>537.4</v>
+        <v>16492.7638</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1370,22 +1376,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C24" t="n">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D24" t="n">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="E24" t="n">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F24" t="n">
-        <v>156.3084</v>
+        <v>488.9338471</v>
       </c>
       <c r="G24" t="n">
-        <v>536.6</v>
+        <v>16981.6976471</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1395,7 +1401,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1412,22 +1418,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C25" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D25" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E25" t="n">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F25" t="n">
-        <v>81</v>
+        <v>63.1756</v>
       </c>
       <c r="G25" t="n">
-        <v>533.8</v>
+        <v>16918.5220471</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1437,7 +1443,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1454,22 +1460,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>509</v>
+      </c>
+      <c r="C26" t="n">
         <v>519</v>
       </c>
-      <c r="C26" t="n">
-        <v>529</v>
-      </c>
       <c r="D26" t="n">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E26" t="n">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F26" t="n">
-        <v>237.5536</v>
+        <v>269.4401</v>
       </c>
       <c r="G26" t="n">
-        <v>531</v>
+        <v>17187.9621471</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1479,7 +1485,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1496,22 +1502,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C27" t="n">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D27" t="n">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E27" t="n">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>38.4749</v>
       </c>
       <c r="G27" t="n">
-        <v>532.2</v>
+        <v>17149.4872471</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1521,7 +1527,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1538,22 +1544,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C28" t="n">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D28" t="n">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="E28" t="n">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="F28" t="n">
-        <v>32</v>
+        <v>269.8265</v>
       </c>
       <c r="G28" t="n">
-        <v>531</v>
+        <v>16879.6607471</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1563,7 +1569,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1580,22 +1586,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C29" t="n">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="D29" t="n">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="E29" t="n">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F29" t="n">
-        <v>151.9816</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>530.6</v>
+        <v>16880.6607471</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1622,22 +1628,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C30" t="n">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="D30" t="n">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="E30" t="n">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="F30" t="n">
-        <v>572.0997</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>531.4</v>
+        <v>16880.6607471</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1647,7 +1653,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1664,22 +1670,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C31" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="D31" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E31" t="n">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F31" t="n">
-        <v>136.5879</v>
+        <v>440</v>
       </c>
       <c r="G31" t="n">
-        <v>532.4</v>
+        <v>17320.6607471</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1689,7 +1695,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1706,22 +1712,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C32" t="n">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D32" t="n">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E32" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="F32" t="n">
-        <v>1162.9999</v>
+        <v>1060.461</v>
       </c>
       <c r="G32" t="n">
-        <v>533.4</v>
+        <v>18381.1217471</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1748,22 +1754,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C33" t="n">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D33" t="n">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E33" t="n">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F33" t="n">
-        <v>307.5902</v>
+        <v>852</v>
       </c>
       <c r="G33" t="n">
-        <v>533.6</v>
+        <v>17529.1217471</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1773,7 +1779,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1790,22 +1796,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C34" t="n">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D34" t="n">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E34" t="n">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="F34" t="n">
-        <v>1282.9009</v>
+        <v>1884.8039</v>
       </c>
       <c r="G34" t="n">
-        <v>532.6</v>
+        <v>17529.1217471</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1815,7 +1821,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1832,22 +1838,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C35" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D35" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E35" t="n">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>1330.98</v>
       </c>
       <c r="G35" t="n">
-        <v>532.4</v>
+        <v>18860.1017471</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1857,7 +1863,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1874,22 +1880,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C36" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D36" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E36" t="n">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F36" t="n">
-        <v>346.7235</v>
+        <v>440</v>
       </c>
       <c r="G36" t="n">
-        <v>532</v>
+        <v>18860.1017471</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1899,7 +1905,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1916,22 +1922,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C37" t="n">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D37" t="n">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E37" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F37" t="n">
-        <v>1383.5947</v>
+        <v>4.60151802</v>
       </c>
       <c r="G37" t="n">
-        <v>532</v>
+        <v>18860.1017471</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1941,7 +1947,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1958,22 +1964,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C38" t="n">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D38" t="n">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E38" t="n">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F38" t="n">
-        <v>3754.6053</v>
+        <v>1385</v>
       </c>
       <c r="G38" t="n">
-        <v>532.4</v>
+        <v>18860.1017471</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1983,7 +1989,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2000,22 +2006,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C39" t="n">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D39" t="n">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E39" t="n">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F39" t="n">
-        <v>1807.0386</v>
+        <v>110.58979206</v>
       </c>
       <c r="G39" t="n">
-        <v>534</v>
+        <v>18970.69153916</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2025,7 +2031,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2042,22 +2048,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C40" t="n">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D40" t="n">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E40" t="n">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F40" t="n">
-        <v>7472.3631</v>
+        <v>389.4102</v>
       </c>
       <c r="G40" t="n">
-        <v>535.4</v>
+        <v>18970.69153916</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2067,7 +2073,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2084,22 +2090,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C41" t="n">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D41" t="n">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="E41" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>156.30870794</v>
       </c>
       <c r="G41" t="n">
-        <v>538</v>
+        <v>19127.0002471</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2126,22 +2132,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C42" t="n">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D42" t="n">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E42" t="n">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="F42" t="n">
-        <v>22.2917</v>
+        <v>550.3693</v>
       </c>
       <c r="G42" t="n">
-        <v>540.2</v>
+        <v>19677.3695471</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2151,7 +2157,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2168,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C43" t="n">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D43" t="n">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E43" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F43" t="n">
-        <v>5842.3992</v>
+        <v>68.00790000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>542.2</v>
+        <v>19677.3695471</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2193,7 +2199,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2210,22 +2216,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C44" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D44" t="n">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="E44" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F44" t="n">
-        <v>7465.9991</v>
+        <v>152.2504</v>
       </c>
       <c r="G44" t="n">
-        <v>543.8</v>
+        <v>19677.3695471</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2235,7 +2241,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2252,66 +2258,64 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C45" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D45" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E45" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F45" t="n">
-        <v>693</v>
+        <v>23.1042</v>
       </c>
       <c r="G45" t="n">
-        <v>544.6</v>
+        <v>19677.3695471</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1.051420233463035</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C46" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D46" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E46" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F46" t="n">
-        <v>554.4041999999999</v>
+        <v>23.4878</v>
       </c>
       <c r="G46" t="n">
-        <v>544.2</v>
+        <v>19677.3695471</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2320,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>505</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2332,22 +2342,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C47" t="n">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D47" t="n">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E47" t="n">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="F47" t="n">
-        <v>1977.0967</v>
+        <v>64.5438</v>
       </c>
       <c r="G47" t="n">
-        <v>543.2</v>
+        <v>19612.8257471</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2356,8 +2366,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>505</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2368,22 +2384,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="C48" t="n">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="D48" t="n">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="E48" t="n">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>543.2</v>
+        <v>19572.8257471</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2392,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>505</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2404,22 +2426,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C49" t="n">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="D49" t="n">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="E49" t="n">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>3919.6549</v>
       </c>
       <c r="G49" t="n">
-        <v>543.8</v>
+        <v>23492.4806471</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2428,8 +2450,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>505</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2468,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="C50" t="n">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="D50" t="n">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="E50" t="n">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="F50" t="n">
-        <v>1088.0467</v>
+        <v>60.5133</v>
       </c>
       <c r="G50" t="n">
-        <v>544.4</v>
+        <v>23492.4806471</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2464,8 +2492,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>505</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2476,22 +2510,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C51" t="n">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D51" t="n">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="E51" t="n">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="F51" t="n">
-        <v>440.9972</v>
+        <v>78.2769</v>
       </c>
       <c r="G51" t="n">
-        <v>543</v>
+        <v>23414.2037471</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2500,8 +2534,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>505</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2512,22 +2552,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C52" t="n">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D52" t="n">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="E52" t="n">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>544.2</v>
+        <v>23415.2037471</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2536,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>505</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2594,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="C53" t="n">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="D53" t="n">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="E53" t="n">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="F53" t="n">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="G53" t="n">
-        <v>544.2</v>
+        <v>23455.2037471</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2572,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>505</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2584,32 +2636,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C54" t="n">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D54" t="n">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="E54" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F54" t="n">
-        <v>2819.6579</v>
+        <v>40</v>
       </c>
       <c r="G54" t="n">
-        <v>543</v>
+        <v>23495.2037471</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>505</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2620,32 +2678,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="C55" t="n">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="D55" t="n">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E55" t="n">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="F55" t="n">
-        <v>67.98090000000001</v>
+        <v>41</v>
       </c>
       <c r="G55" t="n">
-        <v>542</v>
+        <v>23454.2037471</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>505</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2656,32 +2720,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="C56" t="n">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D56" t="n">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="E56" t="n">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>338.2575</v>
       </c>
       <c r="G56" t="n">
-        <v>543.8</v>
+        <v>23454.2037471</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>505</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2692,32 +2762,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="C57" t="n">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="D57" t="n">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="E57" t="n">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="F57" t="n">
-        <v>1708.5031</v>
+        <v>98</v>
       </c>
       <c r="G57" t="n">
-        <v>543.8</v>
+        <v>23356.2037471</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>505</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2728,32 +2804,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="C58" t="n">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="D58" t="n">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="E58" t="n">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="F58" t="n">
-        <v>364.48</v>
+        <v>80</v>
       </c>
       <c r="G58" t="n">
-        <v>544</v>
+        <v>23276.2037471</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>505</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2764,32 +2846,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="C59" t="n">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="D59" t="n">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="E59" t="n">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="F59" t="n">
-        <v>161</v>
+        <v>1050.3657</v>
       </c>
       <c r="G59" t="n">
-        <v>545.4</v>
+        <v>22225.8380471</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>505</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2800,32 +2888,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="C60" t="n">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="D60" t="n">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="E60" t="n">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="F60" t="n">
-        <v>968.8167999999999</v>
+        <v>260</v>
       </c>
       <c r="G60" t="n">
-        <v>546.4</v>
+        <v>21965.8380471</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>505</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2836,32 +2930,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="C61" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="D61" t="n">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="E61" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="F61" t="n">
-        <v>454.9064</v>
+        <v>15.3449</v>
       </c>
       <c r="G61" t="n">
-        <v>544.6</v>
+        <v>21965.8380471</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>505</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2872,32 +2972,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="C62" t="n">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="D62" t="n">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="E62" t="n">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="F62" t="n">
-        <v>323.2982</v>
+        <v>634.0195</v>
       </c>
       <c r="G62" t="n">
-        <v>542</v>
+        <v>21331.8185471</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>505</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2908,22 +3014,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="C63" t="n">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D63" t="n">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="E63" t="n">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="F63" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G63" t="n">
-        <v>542</v>
+        <v>21411.8185471</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2932,8 +3038,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>505</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2944,22 +3056,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="C64" t="n">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="D64" t="n">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="E64" t="n">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="F64" t="n">
-        <v>3.27205882</v>
+        <v>4396.7198</v>
       </c>
       <c r="G64" t="n">
-        <v>541.2</v>
+        <v>25808.5383471</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2968,8 +3080,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>505</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2980,32 +3098,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C65" t="n">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="D65" t="n">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="E65" t="n">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="F65" t="n">
-        <v>2331.8788</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>540.8</v>
+        <v>25807.5383471</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>505</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3016,32 +3140,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="C66" t="n">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="D66" t="n">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="E66" t="n">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="F66" t="n">
-        <v>1474.3499</v>
+        <v>1374.5587</v>
       </c>
       <c r="G66" t="n">
-        <v>542.4</v>
+        <v>25807.5383471</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>505</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3052,32 +3182,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="C67" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="D67" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="E67" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="F67" t="n">
-        <v>3089.9999</v>
+        <v>846.056</v>
       </c>
       <c r="G67" t="n">
-        <v>544.6</v>
+        <v>24961.4823471</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>505</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3088,32 +3224,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="C68" t="n">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="D68" t="n">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="E68" t="n">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="F68" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>544</v>
+        <v>24962.4823471</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>505</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3124,32 +3266,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="D69" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="E69" t="n">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="F69" t="n">
-        <v>465.8522</v>
+        <v>2053.9274</v>
       </c>
       <c r="G69" t="n">
-        <v>544</v>
+        <v>22908.5549471</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>505</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3160,22 +3308,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="C70" t="n">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="D70" t="n">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="E70" t="n">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="F70" t="n">
-        <v>2101.6472</v>
+        <v>2035.9668</v>
       </c>
       <c r="G70" t="n">
-        <v>544.2</v>
+        <v>20872.5881471</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3184,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>505</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3196,32 +3350,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C71" t="n">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D71" t="n">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="E71" t="n">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F71" t="n">
-        <v>4479.7174</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>540.8</v>
+        <v>20873.5881471</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>505</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3232,22 +3392,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C72" t="n">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D72" t="n">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="E72" t="n">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="F72" t="n">
-        <v>80</v>
+        <v>1.995</v>
       </c>
       <c r="G72" t="n">
-        <v>536.2</v>
+        <v>20871.5931471</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3256,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>505</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3434,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C73" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D73" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E73" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F73" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>531.6</v>
+        <v>20872.5931471</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3292,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>505</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +3476,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C74" t="n">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="D74" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="F74" t="n">
-        <v>3359.7881</v>
+        <v>564.2023</v>
       </c>
       <c r="G74" t="n">
-        <v>523.4</v>
+        <v>20872.5931471</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3328,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>505</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3340,22 +3518,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C75" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D75" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E75" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F75" t="n">
-        <v>373.9692</v>
+        <v>1398.746</v>
       </c>
       <c r="G75" t="n">
-        <v>515.2</v>
+        <v>19473.8471471</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3364,8 +3542,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>505</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3376,22 +3560,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C76" t="n">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D76" t="n">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="E76" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>595.2623</v>
       </c>
       <c r="G76" t="n">
-        <v>516.2</v>
+        <v>19473.8471471</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3400,8 +3584,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>505</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3412,22 +3602,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C77" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D77" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E77" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F77" t="n">
-        <v>2519.841</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>514</v>
+        <v>19474.8471471</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3436,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>505</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3448,22 +3644,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C78" t="n">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D78" t="n">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E78" t="n">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F78" t="n">
-        <v>4486.3901</v>
+        <v>593</v>
       </c>
       <c r="G78" t="n">
-        <v>514.2</v>
+        <v>19474.8471471</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3472,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>505</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3484,22 +3686,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="C79" t="n">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="D79" t="n">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="E79" t="n">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>302.0079</v>
       </c>
       <c r="G79" t="n">
-        <v>520.4</v>
+        <v>19474.8471471</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3508,8 +3710,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>505</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3520,22 +3728,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C80" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D80" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E80" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F80" t="n">
-        <v>1970.533</v>
+        <v>206.2807</v>
       </c>
       <c r="G80" t="n">
-        <v>522.4</v>
+        <v>19681.1278471</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3544,8 +3752,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>505</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3770,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C81" t="n">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D81" t="n">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E81" t="n">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G81" t="n">
-        <v>522</v>
+        <v>19746.1278471</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3580,8 +3794,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>505</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3592,22 +3812,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C82" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="D82" t="n">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="E82" t="n">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="F82" t="n">
-        <v>3779.7616</v>
+        <v>80</v>
       </c>
       <c r="G82" t="n">
-        <v>522</v>
+        <v>19826.1278471</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3616,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>505</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3628,22 +3854,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C83" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="D83" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="E83" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="F83" t="n">
-        <v>213.6623</v>
+        <v>439.0173</v>
       </c>
       <c r="G83" t="n">
-        <v>519.6</v>
+        <v>19826.1278471</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3652,8 +3878,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>505</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3664,22 +3896,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C84" t="n">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="D84" t="n">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="E84" t="n">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="F84" t="n">
-        <v>3779.7617</v>
+        <v>350.2</v>
       </c>
       <c r="G84" t="n">
-        <v>513.8</v>
+        <v>20176.3278471</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3688,8 +3920,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>505</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3700,22 +3938,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="C85" t="n">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="D85" t="n">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="E85" t="n">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="F85" t="n">
-        <v>385.0637</v>
+        <v>152.6043</v>
       </c>
       <c r="G85" t="n">
-        <v>513.6</v>
+        <v>20328.9321471</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3724,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>505</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3736,22 +3980,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C86" t="n">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="D86" t="n">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="E86" t="n">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="F86" t="n">
-        <v>1019.73</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>511.2</v>
+        <v>20328.9321471</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3760,8 +4004,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>505</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +4022,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="C87" t="n">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="D87" t="n">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E87" t="n">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="F87" t="n">
-        <v>298.6601</v>
+        <v>51</v>
       </c>
       <c r="G87" t="n">
-        <v>512.8</v>
+        <v>20379.9321471</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3796,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>505</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3808,22 +4064,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="C88" t="n">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="D88" t="n">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="E88" t="n">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="F88" t="n">
-        <v>6898.3039</v>
+        <v>1457.5269</v>
       </c>
       <c r="G88" t="n">
-        <v>513.6</v>
+        <v>20379.9321471</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3832,8 +4088,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>505</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +4106,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C89" t="n">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="D89" t="n">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="E89" t="n">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="F89" t="n">
-        <v>509.2245</v>
+        <v>451.1581</v>
       </c>
       <c r="G89" t="n">
-        <v>516</v>
+        <v>20831.0902471</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3868,8 +4130,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>505</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3880,22 +4148,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="C90" t="n">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="D90" t="n">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="E90" t="n">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="F90" t="n">
-        <v>414.7466</v>
+        <v>490</v>
       </c>
       <c r="G90" t="n">
-        <v>517.4</v>
+        <v>20341.0902471</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3904,8 +4172,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>505</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +4190,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="C91" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="D91" t="n">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="E91" t="n">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="F91" t="n">
-        <v>1051.9738</v>
+        <v>2775.0162</v>
       </c>
       <c r="G91" t="n">
-        <v>519.8</v>
+        <v>23116.10644710001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3940,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>505</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3952,22 +4232,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="C92" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="D92" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="E92" t="n">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="F92" t="n">
-        <v>230</v>
+        <v>260.9724</v>
       </c>
       <c r="G92" t="n">
-        <v>522.2</v>
+        <v>23116.10644710001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3976,8 +4256,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>505</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +4274,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C93" t="n">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D93" t="n">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E93" t="n">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F93" t="n">
-        <v>267.501</v>
+        <v>789.6651000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>526.4</v>
+        <v>22326.44134710001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4012,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>505</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4024,22 +4316,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C94" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D94" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E94" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F94" t="n">
-        <v>492.1965</v>
+        <v>19</v>
       </c>
       <c r="G94" t="n">
-        <v>531</v>
+        <v>22345.44134710001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4048,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>505</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +4358,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C95" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D95" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E95" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F95" t="n">
-        <v>1222.6863</v>
+        <v>156.3084</v>
       </c>
       <c r="G95" t="n">
-        <v>535</v>
+        <v>22189.13294710001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4084,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>505</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4096,22 +4400,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C96" t="n">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D96" t="n">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E96" t="n">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="F96" t="n">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="G96" t="n">
-        <v>538.4</v>
+        <v>22108.13294710001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4120,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>505</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4132,22 +4442,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C97" t="n">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D97" t="n">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E97" t="n">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="F97" t="n">
-        <v>36.563</v>
+        <v>237.5536</v>
       </c>
       <c r="G97" t="n">
-        <v>541.8</v>
+        <v>22108.13294710001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4156,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>505</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4168,22 +4484,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="C98" t="n">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D98" t="n">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E98" t="n">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="F98" t="n">
-        <v>1084.5018</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>544</v>
+        <v>22108.13294710001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4192,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>505</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4204,22 +4526,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C99" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E99" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F99" t="n">
-        <v>2381.802</v>
+        <v>32</v>
       </c>
       <c r="G99" t="n">
-        <v>542.2</v>
+        <v>22140.13294710001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4228,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>505</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4240,22 +4568,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C100" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D100" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E100" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F100" t="n">
-        <v>4346.0085</v>
+        <v>151.9816</v>
       </c>
       <c r="G100" t="n">
-        <v>540.4</v>
+        <v>22140.13294710001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4264,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>505</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4276,22 +4610,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C101" t="n">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D101" t="n">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E101" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F101" t="n">
-        <v>34.5476</v>
+        <v>572.0997</v>
       </c>
       <c r="G101" t="n">
-        <v>538.6</v>
+        <v>22140.13294710001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4300,8 +4634,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>505</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4312,22 +4652,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C102" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D102" t="n">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E102" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F102" t="n">
-        <v>3723.6038</v>
+        <v>136.5879</v>
       </c>
       <c r="G102" t="n">
-        <v>535.2</v>
+        <v>22276.7208471</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4336,8 +4676,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>505</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4348,22 +4694,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C103" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D103" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E103" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F103" t="n">
-        <v>1815.5456</v>
+        <v>1162.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>532.2</v>
+        <v>22276.7208471</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4372,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>505</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4384,22 +4736,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C104" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D104" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E104" t="n">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F104" t="n">
-        <v>139.83</v>
+        <v>307.5902</v>
       </c>
       <c r="G104" t="n">
-        <v>534</v>
+        <v>22276.7208471</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4408,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>505</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4420,22 +4778,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C105" t="n">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D105" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E105" t="n">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F105" t="n">
-        <v>99.99339999999999</v>
+        <v>1282.9009</v>
       </c>
       <c r="G105" t="n">
-        <v>536.8</v>
+        <v>20993.8199471</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4444,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>505</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4456,22 +4820,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C106" t="n">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D106" t="n">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E106" t="n">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>537</v>
+        <v>20994.8199471</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4480,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>505</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4492,22 +4862,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C107" t="n">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D107" t="n">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E107" t="n">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>346.7235</v>
       </c>
       <c r="G107" t="n">
-        <v>540</v>
+        <v>20994.8199471</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4516,8 +4886,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>505</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4904,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C108" t="n">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D108" t="n">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="E108" t="n">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F108" t="n">
-        <v>5107.9897</v>
+        <v>1383.5947</v>
       </c>
       <c r="G108" t="n">
-        <v>543.4</v>
+        <v>22378.41464710001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4552,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>505</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4564,22 +4946,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="C109" t="n">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="D109" t="n">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E109" t="n">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>3754.6053</v>
       </c>
       <c r="G109" t="n">
-        <v>545</v>
+        <v>26133.01994710001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4588,8 +4970,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>505</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4600,22 +4988,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="C110" t="n">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="D110" t="n">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="E110" t="n">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F110" t="n">
-        <v>122.3465</v>
+        <v>1807.0386</v>
       </c>
       <c r="G110" t="n">
-        <v>546</v>
+        <v>26133.01994710001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4624,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>505</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4636,22 +5030,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C111" t="n">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D111" t="n">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E111" t="n">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="F111" t="n">
-        <v>641.6778</v>
+        <v>7472.3631</v>
       </c>
       <c r="G111" t="n">
-        <v>548.6</v>
+        <v>33605.3830471</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4660,8 +5054,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>505</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4672,22 +5072,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C112" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="D112" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E112" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F112" t="n">
-        <v>150.08702611</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>551</v>
+        <v>33606.3830471</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4696,8 +5096,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>505</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4708,22 +5114,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C113" t="n">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="D113" t="n">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="E113" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F113" t="n">
-        <v>8073.591</v>
+        <v>22.2917</v>
       </c>
       <c r="G113" t="n">
-        <v>553.4</v>
+        <v>33606.3830471</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4732,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>505</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4744,64 +5156,72 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C114" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D114" t="n">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="E114" t="n">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F114" t="n">
-        <v>6390.68337389</v>
+        <v>5842.3992</v>
       </c>
       <c r="G114" t="n">
-        <v>553.4</v>
+        <v>39448.7822471</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>505</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>1.076188118811881</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C115" t="n">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="D115" t="n">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="E115" t="n">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>7465.9991</v>
       </c>
       <c r="G115" t="n">
-        <v>555.6</v>
+        <v>31982.7831471</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4816,28 +5236,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C116" t="n">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D116" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E116" t="n">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F116" t="n">
-        <v>1412.1416</v>
+        <v>693</v>
       </c>
       <c r="G116" t="n">
-        <v>554.8</v>
+        <v>31289.7831471</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4852,28 +5272,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C117" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D117" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E117" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="F117" t="n">
-        <v>260.8318</v>
+        <v>554.4041999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>554.6</v>
+        <v>31289.7831471</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4888,28 +5308,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="C118" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="D118" t="n">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="E118" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="F118" t="n">
-        <v>1382.8963</v>
+        <v>1977.0967</v>
       </c>
       <c r="G118" t="n">
-        <v>554.2</v>
+        <v>29312.6864471</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4924,28 +5344,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C119" t="n">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="D119" t="n">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="E119" t="n">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F119" t="n">
-        <v>249.946</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>558.4</v>
+        <v>29313.6864471</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4960,28 +5380,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C120" t="n">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="D120" t="n">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="E120" t="n">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="F120" t="n">
-        <v>2126.01641086</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>562.2</v>
+        <v>29513.6864471</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4996,22 +5416,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="C121" t="n">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D121" t="n">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="E121" t="n">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F121" t="n">
-        <v>1789.8546</v>
+        <v>1088.0467</v>
       </c>
       <c r="G121" t="n">
-        <v>565.6</v>
+        <v>28425.6397471</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5032,22 +5452,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C122" t="n">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="D122" t="n">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="E122" t="n">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="F122" t="n">
-        <v>6373.0013</v>
+        <v>440.9972</v>
       </c>
       <c r="G122" t="n">
-        <v>569.6</v>
+        <v>27984.6425471</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5068,22 +5488,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C123" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D123" t="n">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="E123" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F123" t="n">
-        <v>2655</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>570</v>
+        <v>27985.6425471</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5104,22 +5524,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="C124" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D124" t="n">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E124" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="G124" t="n">
-        <v>568.2</v>
+        <v>27985.6425471</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5140,22 +5560,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C125" t="n">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="D125" t="n">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E125" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="F125" t="n">
-        <v>436</v>
+        <v>2819.6579</v>
       </c>
       <c r="G125" t="n">
-        <v>564.2</v>
+        <v>25165.9846471</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5176,22 +5596,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="C126" t="n">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="D126" t="n">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="E126" t="n">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="F126" t="n">
-        <v>431.775</v>
+        <v>67.98090000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>563.2</v>
+        <v>25165.9846471</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5212,22 +5632,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C127" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D127" t="n">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="E127" t="n">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F127" t="n">
-        <v>1623.0281</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>558.6</v>
+        <v>25166.9846471</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5248,28 +5668,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C128" t="n">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D128" t="n">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E128" t="n">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F128" t="n">
-        <v>346.57</v>
+        <v>1708.5031</v>
       </c>
       <c r="G128" t="n">
-        <v>557.2</v>
+        <v>26875.4877471</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5284,28 +5704,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C129" t="n">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D129" t="n">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E129" t="n">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F129" t="n">
-        <v>73.46299999999999</v>
+        <v>364.48</v>
       </c>
       <c r="G129" t="n">
-        <v>557</v>
+        <v>27239.9677471</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5320,28 +5740,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C130" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D130" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E130" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F130" t="n">
-        <v>732.647</v>
+        <v>161</v>
       </c>
       <c r="G130" t="n">
-        <v>554.8</v>
+        <v>27400.9677471</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5356,28 +5776,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C131" t="n">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D131" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E131" t="n">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F131" t="n">
-        <v>511.3181</v>
+        <v>968.8167999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>549.4</v>
+        <v>26432.1509471</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5392,22 +5812,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C132" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D132" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E132" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F132" t="n">
-        <v>2086.3055</v>
+        <v>454.9064</v>
       </c>
       <c r="G132" t="n">
-        <v>545.8</v>
+        <v>25977.2445471</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5428,28 +5848,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="C133" t="n">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D133" t="n">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="E133" t="n">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>323.2982</v>
       </c>
       <c r="G133" t="n">
-        <v>546</v>
+        <v>25653.9463471</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5464,22 +5884,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C134" t="n">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D134" t="n">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E134" t="n">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F134" t="n">
-        <v>1107.9873</v>
+        <v>41</v>
       </c>
       <c r="G134" t="n">
-        <v>541.4</v>
+        <v>25694.9463471</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5500,22 +5920,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C135" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D135" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E135" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>3.27205882</v>
       </c>
       <c r="G135" t="n">
-        <v>542.2</v>
+        <v>25691.67428828</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5536,28 +5956,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C136" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D136" t="n">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="E136" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F136" t="n">
-        <v>5459.5861</v>
+        <v>2331.8788</v>
       </c>
       <c r="G136" t="n">
-        <v>542.8</v>
+        <v>25691.67428828</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5572,28 +5992,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C137" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D137" t="n">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="E137" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="F137" t="n">
-        <v>1338.0397</v>
+        <v>1474.3499</v>
       </c>
       <c r="G137" t="n">
-        <v>542.8</v>
+        <v>25691.67428828</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5608,28 +6028,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C138" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D138" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E138" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="F138" t="n">
-        <v>1715.5414</v>
+        <v>3089.9999</v>
       </c>
       <c r="G138" t="n">
-        <v>539</v>
+        <v>25691.67428828</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5644,28 +6064,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C139" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D139" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E139" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="F139" t="n">
-        <v>930.5707</v>
+        <v>40</v>
       </c>
       <c r="G139" t="n">
-        <v>538.8</v>
+        <v>25691.67428828</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5680,28 +6100,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C140" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D140" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E140" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="F140" t="n">
-        <v>2086.783</v>
+        <v>465.8522</v>
       </c>
       <c r="G140" t="n">
-        <v>535.2</v>
+        <v>25691.67428828</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5716,28 +6136,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C141" t="n">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D141" t="n">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E141" t="n">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="F141" t="n">
-        <v>22</v>
+        <v>2101.6472</v>
       </c>
       <c r="G141" t="n">
-        <v>538.4</v>
+        <v>27793.32148828</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5755,25 +6175,25 @@
         <v>536</v>
       </c>
       <c r="C142" t="n">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="D142" t="n">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E142" t="n">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F142" t="n">
-        <v>2968.7782</v>
+        <v>4479.7174</v>
       </c>
       <c r="G142" t="n">
-        <v>541</v>
+        <v>23313.60408828</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5788,28 +6208,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C143" t="n">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="D143" t="n">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E143" t="n">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="F143" t="n">
-        <v>638.5133</v>
+        <v>80</v>
       </c>
       <c r="G143" t="n">
-        <v>541.8</v>
+        <v>23233.60408828</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5824,22 +6244,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="C144" t="n">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="D144" t="n">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="E144" t="n">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="F144" t="n">
-        <v>2.2815</v>
+        <v>72</v>
       </c>
       <c r="G144" t="n">
-        <v>544.2</v>
+        <v>23233.60408828</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5860,22 +6280,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C145" t="n">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="D145" t="n">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="E145" t="n">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="F145" t="n">
-        <v>139.6699</v>
+        <v>3359.7881</v>
       </c>
       <c r="G145" t="n">
-        <v>544.8</v>
+        <v>19873.81598828</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5896,22 +6316,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="C146" t="n">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="D146" t="n">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="E146" t="n">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="F146" t="n">
-        <v>87.1729</v>
+        <v>373.9692</v>
       </c>
       <c r="G146" t="n">
-        <v>542</v>
+        <v>20247.78518828</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5932,22 +6352,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C147" t="n">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D147" t="n">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E147" t="n">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F147" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>541.2</v>
+        <v>20248.78518828</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5968,22 +6388,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="C148" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="D148" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="E148" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="F148" t="n">
-        <v>45.6148</v>
+        <v>2519.841</v>
       </c>
       <c r="G148" t="n">
-        <v>541.4</v>
+        <v>17728.94418827999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6004,22 +6424,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="C149" t="n">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D149" t="n">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="E149" t="n">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="F149" t="n">
-        <v>1438.5959</v>
+        <v>4486.3901</v>
       </c>
       <c r="G149" t="n">
-        <v>539.8</v>
+        <v>22215.33428828</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6040,22 +6460,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C150" t="n">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D150" t="n">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E150" t="n">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F150" t="n">
-        <v>89.12430000000001</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>540.6</v>
+        <v>22216.33428828</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6076,22 +6496,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C151" t="n">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="D151" t="n">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="E151" t="n">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>1970.533</v>
       </c>
       <c r="G151" t="n">
-        <v>542.6</v>
+        <v>20245.80128828</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6112,22 +6532,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="C152" t="n">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D152" t="n">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="E152" t="n">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>543.4</v>
+        <v>20246.80128828</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6148,22 +6568,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="C153" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="D153" t="n">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="E153" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="F153" t="n">
-        <v>1105</v>
+        <v>3779.7616</v>
       </c>
       <c r="G153" t="n">
-        <v>544.4</v>
+        <v>16467.03968828</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6184,22 +6604,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="C154" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="D154" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="E154" t="n">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="F154" t="n">
-        <v>364.7688</v>
+        <v>213.6623</v>
       </c>
       <c r="G154" t="n">
-        <v>545.6</v>
+        <v>16467.03968828</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6220,22 +6640,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="C155" t="n">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="D155" t="n">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="E155" t="n">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>3779.7617</v>
       </c>
       <c r="G155" t="n">
-        <v>546.8</v>
+        <v>12687.27798828</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6256,22 +6676,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="C156" t="n">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="D156" t="n">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="E156" t="n">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="F156" t="n">
-        <v>3</v>
+        <v>385.0637</v>
       </c>
       <c r="G156" t="n">
-        <v>546.8</v>
+        <v>13072.34168828</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6292,22 +6712,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="C157" t="n">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="D157" t="n">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="E157" t="n">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="F157" t="n">
-        <v>159.6186</v>
+        <v>1019.73</v>
       </c>
       <c r="G157" t="n">
-        <v>546.2</v>
+        <v>14092.07168828</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6328,22 +6748,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="C158" t="n">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="D158" t="n">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="E158" t="n">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>298.6601</v>
       </c>
       <c r="G158" t="n">
-        <v>546.6</v>
+        <v>14092.07168828</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6364,22 +6784,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C159" t="n">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="D159" t="n">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="E159" t="n">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="F159" t="n">
-        <v>288.445</v>
+        <v>6898.3039</v>
       </c>
       <c r="G159" t="n">
-        <v>545.6</v>
+        <v>7193.767788279999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6400,22 +6820,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C160" t="n">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="D160" t="n">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="E160" t="n">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>509.2245</v>
       </c>
       <c r="G160" t="n">
-        <v>544.8</v>
+        <v>7702.992288279999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6436,22 +6856,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C161" t="n">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D161" t="n">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="E161" t="n">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="F161" t="n">
-        <v>240</v>
+        <v>414.7466</v>
       </c>
       <c r="G161" t="n">
-        <v>543</v>
+        <v>8117.73888828</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6472,22 +6892,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C162" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D162" t="n">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E162" t="n">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>1051.9738</v>
       </c>
       <c r="G162" t="n">
-        <v>541.2</v>
+        <v>9169.71268828</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6508,22 +6928,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C163" t="n">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D163" t="n">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E163" t="n">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F163" t="n">
-        <v>631.8948</v>
+        <v>230</v>
       </c>
       <c r="G163" t="n">
-        <v>538.8</v>
+        <v>9169.71268828</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6544,22 +6964,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>530</v>
+      </c>
+      <c r="C164" t="n">
         <v>535</v>
-      </c>
-      <c r="C164" t="n">
-        <v>532</v>
       </c>
       <c r="D164" t="n">
         <v>535</v>
       </c>
       <c r="E164" t="n">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F164" t="n">
-        <v>547.1344</v>
+        <v>267.501</v>
       </c>
       <c r="G164" t="n">
-        <v>537.2</v>
+        <v>9437.21368828</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6580,22 +7000,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C165" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D165" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E165" t="n">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>492.1965</v>
       </c>
       <c r="G165" t="n">
-        <v>535.8</v>
+        <v>9929.410188280001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6616,7 +7036,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C166" t="n">
         <v>540</v>
@@ -6625,13 +7045,13 @@
         <v>540</v>
       </c>
       <c r="E166" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F166" t="n">
-        <v>42</v>
+        <v>1222.6863</v>
       </c>
       <c r="G166" t="n">
-        <v>536</v>
+        <v>9929.410188280001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6652,22 +7072,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C167" t="n">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="D167" t="n">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="E167" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F167" t="n">
-        <v>4.1</v>
+        <v>568</v>
       </c>
       <c r="G167" t="n">
-        <v>534.8</v>
+        <v>10497.41018828</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6688,22 +7108,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="C168" t="n">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="D168" t="n">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="E168" t="n">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="F168" t="n">
-        <v>283.24</v>
+        <v>36.563</v>
       </c>
       <c r="G168" t="n">
-        <v>533.6</v>
+        <v>10497.41018828</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6724,22 +7144,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="C169" t="n">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="D169" t="n">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="E169" t="n">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="F169" t="n">
-        <v>1997.6459</v>
+        <v>1084.5018</v>
       </c>
       <c r="G169" t="n">
-        <v>531.4</v>
+        <v>9412.908388280001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6755,6 +7175,2562 @@
       </c>
       <c r="N169" t="inlineStr"/>
     </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>537</v>
+      </c>
+      <c r="C170" t="n">
+        <v>531</v>
+      </c>
+      <c r="D170" t="n">
+        <v>537</v>
+      </c>
+      <c r="E170" t="n">
+        <v>531</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2381.802</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7031.106388280001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>531</v>
+      </c>
+      <c r="C171" t="n">
+        <v>531</v>
+      </c>
+      <c r="D171" t="n">
+        <v>531</v>
+      </c>
+      <c r="E171" t="n">
+        <v>531</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4346.0085</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7031.106388280001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>528</v>
+      </c>
+      <c r="C172" t="n">
+        <v>538</v>
+      </c>
+      <c r="D172" t="n">
+        <v>538</v>
+      </c>
+      <c r="E172" t="n">
+        <v>528</v>
+      </c>
+      <c r="F172" t="n">
+        <v>34.5476</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7065.653988280001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>532</v>
+      </c>
+      <c r="C173" t="n">
+        <v>530</v>
+      </c>
+      <c r="D173" t="n">
+        <v>541</v>
+      </c>
+      <c r="E173" t="n">
+        <v>530</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3723.6038</v>
+      </c>
+      <c r="G173" t="n">
+        <v>3342.050188280001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>531</v>
+      </c>
+      <c r="C174" t="n">
+        <v>531</v>
+      </c>
+      <c r="D174" t="n">
+        <v>531</v>
+      </c>
+      <c r="E174" t="n">
+        <v>531</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1815.5456</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5157.595788280001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>540</v>
+      </c>
+      <c r="C175" t="n">
+        <v>540</v>
+      </c>
+      <c r="D175" t="n">
+        <v>540</v>
+      </c>
+      <c r="E175" t="n">
+        <v>540</v>
+      </c>
+      <c r="F175" t="n">
+        <v>139.83</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5297.425788280001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>541</v>
+      </c>
+      <c r="C176" t="n">
+        <v>545</v>
+      </c>
+      <c r="D176" t="n">
+        <v>545</v>
+      </c>
+      <c r="E176" t="n">
+        <v>541</v>
+      </c>
+      <c r="F176" t="n">
+        <v>99.99339999999999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>5397.419188280001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>539</v>
+      </c>
+      <c r="C177" t="n">
+        <v>539</v>
+      </c>
+      <c r="D177" t="n">
+        <v>539</v>
+      </c>
+      <c r="E177" t="n">
+        <v>539</v>
+      </c>
+      <c r="F177" t="n">
+        <v>300</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5097.419188280001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>545</v>
+      </c>
+      <c r="C178" t="n">
+        <v>545</v>
+      </c>
+      <c r="D178" t="n">
+        <v>545</v>
+      </c>
+      <c r="E178" t="n">
+        <v>545</v>
+      </c>
+      <c r="F178" t="n">
+        <v>200</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5297.419188280001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>546</v>
+      </c>
+      <c r="C179" t="n">
+        <v>548</v>
+      </c>
+      <c r="D179" t="n">
+        <v>548</v>
+      </c>
+      <c r="E179" t="n">
+        <v>546</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5107.9897</v>
+      </c>
+      <c r="G179" t="n">
+        <v>10405.40888828</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>548</v>
+      </c>
+      <c r="C180" t="n">
+        <v>548</v>
+      </c>
+      <c r="D180" t="n">
+        <v>548</v>
+      </c>
+      <c r="E180" t="n">
+        <v>548</v>
+      </c>
+      <c r="F180" t="n">
+        <v>300</v>
+      </c>
+      <c r="G180" t="n">
+        <v>10405.40888828</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>550</v>
+      </c>
+      <c r="C181" t="n">
+        <v>550</v>
+      </c>
+      <c r="D181" t="n">
+        <v>550</v>
+      </c>
+      <c r="E181" t="n">
+        <v>550</v>
+      </c>
+      <c r="F181" t="n">
+        <v>122.3465</v>
+      </c>
+      <c r="G181" t="n">
+        <v>10527.75538828</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>550</v>
+      </c>
+      <c r="C182" t="n">
+        <v>552</v>
+      </c>
+      <c r="D182" t="n">
+        <v>552</v>
+      </c>
+      <c r="E182" t="n">
+        <v>550</v>
+      </c>
+      <c r="F182" t="n">
+        <v>641.6778</v>
+      </c>
+      <c r="G182" t="n">
+        <v>11169.43318828</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>553</v>
+      </c>
+      <c r="C183" t="n">
+        <v>557</v>
+      </c>
+      <c r="D183" t="n">
+        <v>557</v>
+      </c>
+      <c r="E183" t="n">
+        <v>553</v>
+      </c>
+      <c r="F183" t="n">
+        <v>150.08702611</v>
+      </c>
+      <c r="G183" t="n">
+        <v>11319.52021439</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>557</v>
+      </c>
+      <c r="C184" t="n">
+        <v>560</v>
+      </c>
+      <c r="D184" t="n">
+        <v>560</v>
+      </c>
+      <c r="E184" t="n">
+        <v>557</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8073.591</v>
+      </c>
+      <c r="G184" t="n">
+        <v>19393.11121439</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>560</v>
+      </c>
+      <c r="C185" t="n">
+        <v>548</v>
+      </c>
+      <c r="D185" t="n">
+        <v>568</v>
+      </c>
+      <c r="E185" t="n">
+        <v>548</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6390.68337389</v>
+      </c>
+      <c r="G185" t="n">
+        <v>13002.4278405</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>561</v>
+      </c>
+      <c r="C186" t="n">
+        <v>561</v>
+      </c>
+      <c r="D186" t="n">
+        <v>561</v>
+      </c>
+      <c r="E186" t="n">
+        <v>561</v>
+      </c>
+      <c r="F186" t="n">
+        <v>200</v>
+      </c>
+      <c r="G186" t="n">
+        <v>13202.4278405</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>556</v>
+      </c>
+      <c r="C187" t="n">
+        <v>548</v>
+      </c>
+      <c r="D187" t="n">
+        <v>556</v>
+      </c>
+      <c r="E187" t="n">
+        <v>548</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1412.1416</v>
+      </c>
+      <c r="G187" t="n">
+        <v>11790.2862405</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>556</v>
+      </c>
+      <c r="C188" t="n">
+        <v>556</v>
+      </c>
+      <c r="D188" t="n">
+        <v>556</v>
+      </c>
+      <c r="E188" t="n">
+        <v>556</v>
+      </c>
+      <c r="F188" t="n">
+        <v>260.8318</v>
+      </c>
+      <c r="G188" t="n">
+        <v>12051.1180405</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>566</v>
+      </c>
+      <c r="C189" t="n">
+        <v>558</v>
+      </c>
+      <c r="D189" t="n">
+        <v>569</v>
+      </c>
+      <c r="E189" t="n">
+        <v>558</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1382.8963</v>
+      </c>
+      <c r="G189" t="n">
+        <v>13434.0143405</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>559</v>
+      </c>
+      <c r="C190" t="n">
+        <v>569</v>
+      </c>
+      <c r="D190" t="n">
+        <v>570</v>
+      </c>
+      <c r="E190" t="n">
+        <v>559</v>
+      </c>
+      <c r="F190" t="n">
+        <v>249.946</v>
+      </c>
+      <c r="G190" t="n">
+        <v>13683.9603405</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>565</v>
+      </c>
+      <c r="C191" t="n">
+        <v>580</v>
+      </c>
+      <c r="D191" t="n">
+        <v>580</v>
+      </c>
+      <c r="E191" t="n">
+        <v>565</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2126.01641086</v>
+      </c>
+      <c r="G191" t="n">
+        <v>15809.97675136</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>580</v>
+      </c>
+      <c r="C192" t="n">
+        <v>565</v>
+      </c>
+      <c r="D192" t="n">
+        <v>584</v>
+      </c>
+      <c r="E192" t="n">
+        <v>561</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1789.8546</v>
+      </c>
+      <c r="G192" t="n">
+        <v>14020.12215136</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>565</v>
+      </c>
+      <c r="C193" t="n">
+        <v>576</v>
+      </c>
+      <c r="D193" t="n">
+        <v>578</v>
+      </c>
+      <c r="E193" t="n">
+        <v>565</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6373.0013</v>
+      </c>
+      <c r="G193" t="n">
+        <v>20393.12345136</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>576</v>
+      </c>
+      <c r="C194" t="n">
+        <v>560</v>
+      </c>
+      <c r="D194" t="n">
+        <v>576</v>
+      </c>
+      <c r="E194" t="n">
+        <v>560</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2655</v>
+      </c>
+      <c r="G194" t="n">
+        <v>17738.12345136</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>562</v>
+      </c>
+      <c r="C195" t="n">
+        <v>560</v>
+      </c>
+      <c r="D195" t="n">
+        <v>563</v>
+      </c>
+      <c r="E195" t="n">
+        <v>560</v>
+      </c>
+      <c r="F195" t="n">
+        <v>200</v>
+      </c>
+      <c r="G195" t="n">
+        <v>17738.12345136</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>560</v>
+      </c>
+      <c r="C196" t="n">
+        <v>560</v>
+      </c>
+      <c r="D196" t="n">
+        <v>560</v>
+      </c>
+      <c r="E196" t="n">
+        <v>560</v>
+      </c>
+      <c r="F196" t="n">
+        <v>436</v>
+      </c>
+      <c r="G196" t="n">
+        <v>17738.12345136</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>560</v>
+      </c>
+      <c r="C197" t="n">
+        <v>560</v>
+      </c>
+      <c r="D197" t="n">
+        <v>560</v>
+      </c>
+      <c r="E197" t="n">
+        <v>560</v>
+      </c>
+      <c r="F197" t="n">
+        <v>431.775</v>
+      </c>
+      <c r="G197" t="n">
+        <v>17738.12345136</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>559</v>
+      </c>
+      <c r="C198" t="n">
+        <v>553</v>
+      </c>
+      <c r="D198" t="n">
+        <v>560</v>
+      </c>
+      <c r="E198" t="n">
+        <v>553</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1623.0281</v>
+      </c>
+      <c r="G198" t="n">
+        <v>16115.09535136</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>553</v>
+      </c>
+      <c r="C199" t="n">
+        <v>553</v>
+      </c>
+      <c r="D199" t="n">
+        <v>553</v>
+      </c>
+      <c r="E199" t="n">
+        <v>553</v>
+      </c>
+      <c r="F199" t="n">
+        <v>346.57</v>
+      </c>
+      <c r="G199" t="n">
+        <v>16115.09535136</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>552</v>
+      </c>
+      <c r="C200" t="n">
+        <v>559</v>
+      </c>
+      <c r="D200" t="n">
+        <v>559</v>
+      </c>
+      <c r="E200" t="n">
+        <v>552</v>
+      </c>
+      <c r="F200" t="n">
+        <v>73.46299999999999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>16188.55835136</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>549</v>
+      </c>
+      <c r="C201" t="n">
+        <v>549</v>
+      </c>
+      <c r="D201" t="n">
+        <v>549</v>
+      </c>
+      <c r="E201" t="n">
+        <v>549</v>
+      </c>
+      <c r="F201" t="n">
+        <v>732.647</v>
+      </c>
+      <c r="G201" t="n">
+        <v>15455.91135136</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>549</v>
+      </c>
+      <c r="C202" t="n">
+        <v>533</v>
+      </c>
+      <c r="D202" t="n">
+        <v>549</v>
+      </c>
+      <c r="E202" t="n">
+        <v>533</v>
+      </c>
+      <c r="F202" t="n">
+        <v>511.3181</v>
+      </c>
+      <c r="G202" t="n">
+        <v>14944.59325136</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>539</v>
+      </c>
+      <c r="C203" t="n">
+        <v>535</v>
+      </c>
+      <c r="D203" t="n">
+        <v>539</v>
+      </c>
+      <c r="E203" t="n">
+        <v>535</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2086.3055</v>
+      </c>
+      <c r="G203" t="n">
+        <v>17030.89875136</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>554</v>
+      </c>
+      <c r="C204" t="n">
+        <v>554</v>
+      </c>
+      <c r="D204" t="n">
+        <v>554</v>
+      </c>
+      <c r="E204" t="n">
+        <v>554</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>17031.89875136</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>552</v>
+      </c>
+      <c r="C205" t="n">
+        <v>536</v>
+      </c>
+      <c r="D205" t="n">
+        <v>552</v>
+      </c>
+      <c r="E205" t="n">
+        <v>536</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1107.9873</v>
+      </c>
+      <c r="G205" t="n">
+        <v>15923.91145136</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>553</v>
+      </c>
+      <c r="C206" t="n">
+        <v>553</v>
+      </c>
+      <c r="D206" t="n">
+        <v>553</v>
+      </c>
+      <c r="E206" t="n">
+        <v>553</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>15924.91145136</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>537</v>
+      </c>
+      <c r="C207" t="n">
+        <v>536</v>
+      </c>
+      <c r="D207" t="n">
+        <v>537</v>
+      </c>
+      <c r="E207" t="n">
+        <v>536</v>
+      </c>
+      <c r="F207" t="n">
+        <v>5459.5861</v>
+      </c>
+      <c r="G207" t="n">
+        <v>10465.32535136</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>537</v>
+      </c>
+      <c r="C208" t="n">
+        <v>535</v>
+      </c>
+      <c r="D208" t="n">
+        <v>537</v>
+      </c>
+      <c r="E208" t="n">
+        <v>535</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1338.0397</v>
+      </c>
+      <c r="G208" t="n">
+        <v>9127.285651359996</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>535</v>
+      </c>
+      <c r="C209" t="n">
+        <v>535</v>
+      </c>
+      <c r="D209" t="n">
+        <v>535</v>
+      </c>
+      <c r="E209" t="n">
+        <v>535</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1715.5414</v>
+      </c>
+      <c r="G209" t="n">
+        <v>9127.285651359996</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>535</v>
+      </c>
+      <c r="C210" t="n">
+        <v>535</v>
+      </c>
+      <c r="D210" t="n">
+        <v>535</v>
+      </c>
+      <c r="E210" t="n">
+        <v>535</v>
+      </c>
+      <c r="F210" t="n">
+        <v>930.5707</v>
+      </c>
+      <c r="G210" t="n">
+        <v>9127.285651359996</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>535</v>
+      </c>
+      <c r="C211" t="n">
+        <v>535</v>
+      </c>
+      <c r="D211" t="n">
+        <v>535</v>
+      </c>
+      <c r="E211" t="n">
+        <v>535</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2086.783</v>
+      </c>
+      <c r="G211" t="n">
+        <v>9127.285651359996</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>535</v>
+      </c>
+      <c r="C212" t="n">
+        <v>552</v>
+      </c>
+      <c r="D212" t="n">
+        <v>552</v>
+      </c>
+      <c r="E212" t="n">
+        <v>535</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="n">
+        <v>9149.285651359996</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>536</v>
+      </c>
+      <c r="C213" t="n">
+        <v>548</v>
+      </c>
+      <c r="D213" t="n">
+        <v>548</v>
+      </c>
+      <c r="E213" t="n">
+        <v>536</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2968.7782</v>
+      </c>
+      <c r="G213" t="n">
+        <v>6180.507451359996</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>539</v>
+      </c>
+      <c r="C214" t="n">
+        <v>539</v>
+      </c>
+      <c r="D214" t="n">
+        <v>539</v>
+      </c>
+      <c r="E214" t="n">
+        <v>539</v>
+      </c>
+      <c r="F214" t="n">
+        <v>638.5133</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5541.994151359996</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>547</v>
+      </c>
+      <c r="C215" t="n">
+        <v>547</v>
+      </c>
+      <c r="D215" t="n">
+        <v>547</v>
+      </c>
+      <c r="E215" t="n">
+        <v>547</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.2815</v>
+      </c>
+      <c r="G215" t="n">
+        <v>5544.275651359996</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>538</v>
+      </c>
+      <c r="C216" t="n">
+        <v>538</v>
+      </c>
+      <c r="D216" t="n">
+        <v>538</v>
+      </c>
+      <c r="E216" t="n">
+        <v>538</v>
+      </c>
+      <c r="F216" t="n">
+        <v>139.6699</v>
+      </c>
+      <c r="G216" t="n">
+        <v>5404.605751359996</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>538</v>
+      </c>
+      <c r="C217" t="n">
+        <v>538</v>
+      </c>
+      <c r="D217" t="n">
+        <v>538</v>
+      </c>
+      <c r="E217" t="n">
+        <v>538</v>
+      </c>
+      <c r="F217" t="n">
+        <v>87.1729</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5404.605751359996</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>538</v>
+      </c>
+      <c r="C218" t="n">
+        <v>544</v>
+      </c>
+      <c r="D218" t="n">
+        <v>544</v>
+      </c>
+      <c r="E218" t="n">
+        <v>538</v>
+      </c>
+      <c r="F218" t="n">
+        <v>160</v>
+      </c>
+      <c r="G218" t="n">
+        <v>5564.605751359996</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>540</v>
+      </c>
+      <c r="C219" t="n">
+        <v>540</v>
+      </c>
+      <c r="D219" t="n">
+        <v>540</v>
+      </c>
+      <c r="E219" t="n">
+        <v>540</v>
+      </c>
+      <c r="F219" t="n">
+        <v>45.6148</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5518.990951359996</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>540</v>
+      </c>
+      <c r="C220" t="n">
+        <v>539</v>
+      </c>
+      <c r="D220" t="n">
+        <v>540</v>
+      </c>
+      <c r="E220" t="n">
+        <v>539</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1438.5959</v>
+      </c>
+      <c r="G220" t="n">
+        <v>4080.395051359996</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>542</v>
+      </c>
+      <c r="C221" t="n">
+        <v>542</v>
+      </c>
+      <c r="D221" t="n">
+        <v>542</v>
+      </c>
+      <c r="E221" t="n">
+        <v>542</v>
+      </c>
+      <c r="F221" t="n">
+        <v>89.12430000000001</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4169.519351359996</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>545</v>
+      </c>
+      <c r="C222" t="n">
+        <v>548</v>
+      </c>
+      <c r="D222" t="n">
+        <v>548</v>
+      </c>
+      <c r="E222" t="n">
+        <v>545</v>
+      </c>
+      <c r="F222" t="n">
+        <v>80</v>
+      </c>
+      <c r="G222" t="n">
+        <v>4249.519351359996</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>548</v>
+      </c>
+      <c r="C223" t="n">
+        <v>548</v>
+      </c>
+      <c r="D223" t="n">
+        <v>548</v>
+      </c>
+      <c r="E223" t="n">
+        <v>548</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>4249.519351359996</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>545</v>
+      </c>
+      <c r="C224" t="n">
+        <v>545</v>
+      </c>
+      <c r="D224" t="n">
+        <v>545</v>
+      </c>
+      <c r="E224" t="n">
+        <v>545</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1105</v>
+      </c>
+      <c r="G224" t="n">
+        <v>3144.519351359996</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>545</v>
+      </c>
+      <c r="C225" t="n">
+        <v>545</v>
+      </c>
+      <c r="D225" t="n">
+        <v>545</v>
+      </c>
+      <c r="E225" t="n">
+        <v>545</v>
+      </c>
+      <c r="F225" t="n">
+        <v>364.7688</v>
+      </c>
+      <c r="G225" t="n">
+        <v>3144.519351359996</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>548</v>
+      </c>
+      <c r="C226" t="n">
+        <v>548</v>
+      </c>
+      <c r="D226" t="n">
+        <v>548</v>
+      </c>
+      <c r="E226" t="n">
+        <v>548</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>3145.519351359996</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>548</v>
+      </c>
+      <c r="C227" t="n">
+        <v>548</v>
+      </c>
+      <c r="D227" t="n">
+        <v>548</v>
+      </c>
+      <c r="E227" t="n">
+        <v>548</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3</v>
+      </c>
+      <c r="G227" t="n">
+        <v>3145.519351359996</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>545</v>
+      </c>
+      <c r="C228" t="n">
+        <v>545</v>
+      </c>
+      <c r="D228" t="n">
+        <v>545</v>
+      </c>
+      <c r="E228" t="n">
+        <v>545</v>
+      </c>
+      <c r="F228" t="n">
+        <v>159.6186</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2985.900751359996</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>547</v>
+      </c>
+      <c r="C229" t="n">
+        <v>547</v>
+      </c>
+      <c r="D229" t="n">
+        <v>547</v>
+      </c>
+      <c r="E229" t="n">
+        <v>547</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2986.900751359996</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>540</v>
+      </c>
+      <c r="C230" t="n">
+        <v>540</v>
+      </c>
+      <c r="D230" t="n">
+        <v>540</v>
+      </c>
+      <c r="E230" t="n">
+        <v>540</v>
+      </c>
+      <c r="F230" t="n">
+        <v>288.445</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2698.455751359996</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>544</v>
+      </c>
+      <c r="C231" t="n">
+        <v>544</v>
+      </c>
+      <c r="D231" t="n">
+        <v>544</v>
+      </c>
+      <c r="E231" t="n">
+        <v>544</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2699.455751359996</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>539</v>
+      </c>
+      <c r="C232" t="n">
+        <v>539</v>
+      </c>
+      <c r="D232" t="n">
+        <v>539</v>
+      </c>
+      <c r="E232" t="n">
+        <v>539</v>
+      </c>
+      <c r="F232" t="n">
+        <v>240</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2459.455751359996</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>539</v>
+      </c>
+      <c r="C233" t="n">
+        <v>536</v>
+      </c>
+      <c r="D233" t="n">
+        <v>539</v>
+      </c>
+      <c r="E233" t="n">
+        <v>536</v>
+      </c>
+      <c r="F233" t="n">
+        <v>80</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2379.455751359996</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>536</v>
+      </c>
+      <c r="C234" t="n">
+        <v>535</v>
+      </c>
+      <c r="D234" t="n">
+        <v>536</v>
+      </c>
+      <c r="E234" t="n">
+        <v>535</v>
+      </c>
+      <c r="F234" t="n">
+        <v>631.8948</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1747.560951359996</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>535</v>
+      </c>
+      <c r="C235" t="n">
+        <v>532</v>
+      </c>
+      <c r="D235" t="n">
+        <v>535</v>
+      </c>
+      <c r="E235" t="n">
+        <v>532</v>
+      </c>
+      <c r="F235" t="n">
+        <v>547.1344</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1200.426551359996</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>537</v>
+      </c>
+      <c r="C236" t="n">
+        <v>537</v>
+      </c>
+      <c r="D236" t="n">
+        <v>537</v>
+      </c>
+      <c r="E236" t="n">
+        <v>537</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1201.426551359996</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>530</v>
+      </c>
+      <c r="C237" t="n">
+        <v>540</v>
+      </c>
+      <c r="D237" t="n">
+        <v>540</v>
+      </c>
+      <c r="E237" t="n">
+        <v>530</v>
+      </c>
+      <c r="F237" t="n">
+        <v>42</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1243.426551359996</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>530</v>
+      </c>
+      <c r="C238" t="n">
+        <v>530</v>
+      </c>
+      <c r="D238" t="n">
+        <v>530</v>
+      </c>
+      <c r="E238" t="n">
+        <v>530</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1239.326551359996</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>529</v>
+      </c>
+      <c r="C239" t="n">
+        <v>529</v>
+      </c>
+      <c r="D239" t="n">
+        <v>529</v>
+      </c>
+      <c r="E239" t="n">
+        <v>529</v>
+      </c>
+      <c r="F239" t="n">
+        <v>283.24</v>
+      </c>
+      <c r="G239" t="n">
+        <v>956.0865513599963</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>523</v>
+      </c>
+      <c r="C240" t="n">
+        <v>521</v>
+      </c>
+      <c r="D240" t="n">
+        <v>523</v>
+      </c>
+      <c r="E240" t="n">
+        <v>521</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1997.6459</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1041.559348640004</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N240"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J3" t="n">
         <v>505</v>
       </c>
-      <c r="K3" t="n">
-        <v>505</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J4" t="n">
         <v>505</v>
       </c>
-      <c r="K4" t="n">
-        <v>505</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J5" t="n">
         <v>505</v>
       </c>
-      <c r="K5" t="n">
-        <v>505</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J6" t="n">
         <v>505</v>
       </c>
-      <c r="K6" t="n">
-        <v>505</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J7" t="n">
         <v>505</v>
       </c>
-      <c r="K7" t="n">
-        <v>505</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J8" t="n">
         <v>505</v>
       </c>
-      <c r="K8" t="n">
-        <v>505</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="J9" t="n">
-        <v>502</v>
-      </c>
-      <c r="K9" t="n">
         <v>505</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="J10" t="n">
-        <v>502</v>
-      </c>
-      <c r="K10" t="n">
         <v>505</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>8397.616700000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="J11" t="n">
-        <v>502</v>
-      </c>
-      <c r="K11" t="n">
         <v>505</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>8398.616700000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="J12" t="n">
-        <v>501</v>
-      </c>
-      <c r="K12" t="n">
         <v>505</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>8958.616700000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="J13" t="n">
-        <v>502</v>
-      </c>
-      <c r="K13" t="n">
         <v>505</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>9518.616700000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J14" t="n">
         <v>505</v>
       </c>
-      <c r="K14" t="n">
-        <v>505</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,24 +972,23 @@
         <v>9440.505200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+        <v>510</v>
+      </c>
+      <c r="J15" t="n">
         <v>505</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1058,24 +1013,23 @@
         <v>9441.505200000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+        <v>501</v>
+      </c>
+      <c r="J16" t="n">
         <v>505</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1102,22 +1056,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>505</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1144,22 +1095,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>505</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,22 +1134,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>505</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1228,22 +1173,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>505</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1270,22 +1212,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>505</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1312,22 +1251,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>505</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1354,22 +1290,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>505</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,22 +1329,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>505</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,22 +1368,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>505</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1480,22 +1407,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>505</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1522,22 +1446,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>505</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1564,22 +1485,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>505</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1606,22 +1524,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>505</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1648,22 +1563,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>505</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1690,22 +1602,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>505</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1732,22 +1641,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>505</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1772,24 +1678,23 @@
         <v>17529.1217471</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+        <v>527</v>
+      </c>
+      <c r="J33" t="n">
         <v>505</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1814,24 +1719,23 @@
         <v>17529.1217471</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+        <v>526</v>
+      </c>
+      <c r="J34" t="n">
         <v>505</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1856,24 +1760,23 @@
         <v>18860.1017471</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>526</v>
+      </c>
+      <c r="J35" t="n">
         <v>505</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1898,24 +1801,23 @@
         <v>18860.1017471</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+        <v>527</v>
+      </c>
+      <c r="J36" t="n">
         <v>505</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1942,22 +1844,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>505</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1982,24 +1881,23 @@
         <v>18860.1017471</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+        <v>527</v>
+      </c>
+      <c r="J38" t="n">
         <v>505</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2026,22 +1924,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>505</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2066,24 +1961,21 @@
         <v>18970.69153916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>505</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1.042524752475248</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2110,22 +2002,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>505</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2152,22 +2035,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>505</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2194,22 +2068,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>505</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2234,24 +2099,15 @@
         <v>19677.3695471</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>505</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2276,24 +2132,15 @@
         <v>19677.3695471</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>505</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2318,24 +2165,15 @@
         <v>19677.3695471</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>505</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2360,24 +2198,15 @@
         <v>19612.8257471</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>505</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2402,24 +2231,15 @@
         <v>19572.8257471</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>505</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2444,24 +2264,15 @@
         <v>23492.4806471</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>505</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2488,22 +2299,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>505</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2530,22 +2332,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>505</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2572,22 +2365,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>505</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2612,24 +2396,15 @@
         <v>23455.2037471</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>505</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2654,24 +2429,15 @@
         <v>23495.2037471</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>505</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2698,22 +2464,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>505</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2740,22 +2497,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>505</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2782,22 +2530,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>505</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2824,22 +2563,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>505</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2866,22 +2596,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>505</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2908,22 +2629,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>505</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2948,24 +2660,15 @@
         <v>21965.8380471</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>505</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2990,24 +2693,15 @@
         <v>21331.8185471</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>505</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3032,24 +2726,15 @@
         <v>21411.8185471</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>505</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3074,24 +2759,15 @@
         <v>25808.5383471</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>505</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3118,22 +2794,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>505</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3160,22 +2827,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>505</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3202,22 +2860,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>505</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3244,22 +2893,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>505</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3286,22 +2926,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>505</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3328,22 +2959,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>505</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3370,22 +2992,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>505</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3410,24 +3023,15 @@
         <v>20871.5931471</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>505</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3454,22 +3058,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>505</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3494,24 +3089,15 @@
         <v>20872.5931471</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>505</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3538,22 +3124,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>505</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3580,22 +3157,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>505</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3622,22 +3190,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>505</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3664,22 +3223,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>505</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3706,22 +3256,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>505</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3748,22 +3289,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>505</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3790,22 +3322,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>505</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3830,24 +3353,15 @@
         <v>19826.1278471</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>505</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3872,24 +3386,15 @@
         <v>19826.1278471</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>505</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3914,24 +3419,15 @@
         <v>20176.3278471</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>505</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3956,24 +3452,15 @@
         <v>20328.9321471</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>505</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3998,24 +3485,15 @@
         <v>20328.9321471</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>505</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4040,24 +3518,15 @@
         <v>20379.9321471</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>505</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4082,24 +3551,15 @@
         <v>20379.9321471</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>505</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4124,24 +3584,15 @@
         <v>20831.0902471</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>505</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4166,24 +3617,15 @@
         <v>20341.0902471</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>505</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4208,24 +3650,15 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>505</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4250,24 +3683,15 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>505</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4292,24 +3716,15 @@
         <v>22326.44134710001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>505</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4334,24 +3749,15 @@
         <v>22345.44134710001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>505</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4376,24 +3782,15 @@
         <v>22189.13294710001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>505</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4418,24 +3815,15 @@
         <v>22108.13294710001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>505</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4462,22 +3850,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>505</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4502,24 +3881,15 @@
         <v>22108.13294710001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>505</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4546,22 +3916,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>505</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4586,24 +3947,15 @@
         <v>22140.13294710001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>505</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4630,22 +3982,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>505</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4672,22 +4015,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>505</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4714,22 +4048,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>505</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4754,24 +4079,15 @@
         <v>22276.7208471</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>505</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4798,22 +4114,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>505</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4838,24 +4145,15 @@
         <v>20994.8199471</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>505</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4880,24 +4178,15 @@
         <v>20994.8199471</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>505</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4922,24 +4211,15 @@
         <v>22378.41464710001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>505</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4964,24 +4244,15 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>505</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5006,24 +4277,15 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>505</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5048,24 +4310,15 @@
         <v>33605.3830471</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>505</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5090,24 +4343,15 @@
         <v>33606.3830471</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>505</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5132,24 +4376,15 @@
         <v>33606.3830471</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>505</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5174,26 +4409,15 @@
         <v>39448.7822471</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>505</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1.076188118811881</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5218,18 +4442,15 @@
         <v>31982.7831471</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5254,18 +4475,15 @@
         <v>31289.7831471</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5290,18 +4508,15 @@
         <v>31289.7831471</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5326,18 +4541,15 @@
         <v>29312.6864471</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5362,18 +4574,15 @@
         <v>29313.6864471</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5398,18 +4607,15 @@
         <v>29513.6864471</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5436,16 +4642,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5472,16 +4675,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5508,16 +4708,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5544,16 +4741,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5580,16 +4774,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5616,16 +4807,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5650,18 +4838,15 @@
         <v>25166.9846471</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5686,18 +4871,15 @@
         <v>26875.4877471</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5722,18 +4904,15 @@
         <v>27239.9677471</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5758,18 +4937,15 @@
         <v>27400.9677471</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5794,18 +4970,15 @@
         <v>26432.1509471</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5830,18 +5003,15 @@
         <v>25977.2445471</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5866,18 +5036,15 @@
         <v>25653.9463471</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5902,18 +5069,15 @@
         <v>25694.9463471</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5938,18 +5102,15 @@
         <v>25691.67428828</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5974,18 +5135,15 @@
         <v>25691.67428828</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6010,18 +5168,15 @@
         <v>25691.67428828</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6046,18 +5201,15 @@
         <v>25691.67428828</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6082,18 +5234,15 @@
         <v>25691.67428828</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6118,18 +5267,15 @@
         <v>25691.67428828</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6154,18 +5300,15 @@
         <v>27793.32148828</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6192,16 +5335,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6228,16 +5368,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6264,16 +5401,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6300,16 +5434,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6336,16 +5467,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6372,16 +5500,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6408,16 +5533,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6444,16 +5566,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6480,16 +5599,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6516,16 +5632,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6552,16 +5665,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6588,16 +5698,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6624,16 +5731,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6660,16 +5764,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6696,16 +5797,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6732,16 +5830,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6768,16 +5863,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6804,16 +5896,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6840,16 +5929,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6876,16 +5962,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6912,16 +5995,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6948,16 +6028,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6984,16 +6061,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7020,16 +6094,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7056,16 +6127,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7092,16 +6160,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7128,16 +6193,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7164,16 +6226,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7200,16 +6259,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7236,16 +6292,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7272,16 +6325,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7308,16 +6358,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7344,16 +6391,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7380,16 +6424,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7416,16 +6457,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7452,16 +6490,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7488,16 +6523,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7524,16 +6556,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7560,16 +6589,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7596,16 +6622,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7632,16 +6655,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7668,16 +6688,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7704,16 +6721,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7740,16 +6754,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7774,18 +6785,15 @@
         <v>13202.4278405</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7812,16 +6820,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7848,16 +6853,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7884,16 +6886,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7920,16 +6919,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7956,16 +6952,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7992,16 +6985,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8028,16 +7018,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8064,16 +7051,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8100,16 +7084,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8136,16 +7117,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8172,16 +7150,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8208,16 +7183,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8244,16 +7216,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8280,16 +7249,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8316,16 +7282,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8352,16 +7315,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8388,16 +7348,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8424,16 +7381,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8460,16 +7414,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8496,16 +7447,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8532,16 +7480,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8568,16 +7513,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8604,16 +7546,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8640,16 +7579,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8676,16 +7612,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8712,16 +7645,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8748,16 +7678,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8784,16 +7711,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8820,16 +7744,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8856,16 +7777,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8892,16 +7810,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8928,16 +7843,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8964,16 +7876,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9000,16 +7909,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9036,16 +7942,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9072,16 +7975,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9108,16 +8008,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9144,16 +8041,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9180,16 +8074,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9216,16 +8107,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9252,16 +8140,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9288,16 +8173,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9324,16 +8206,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9360,16 +8239,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9396,16 +8272,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9432,16 +8305,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9468,16 +8338,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9504,16 +8371,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9540,16 +8404,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9576,16 +8437,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9612,16 +8470,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9648,16 +8503,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9684,16 +8536,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9720,18 +8569,15 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>505</v>
@@ -521,7 +521,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>505</v>
@@ -562,7 +562,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>505</v>
@@ -603,7 +603,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>505</v>
@@ -644,7 +644,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>505</v>
@@ -685,7 +685,7 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>505</v>
@@ -726,7 +726,7 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>502</v>
@@ -767,7 +767,7 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>502</v>
@@ -808,7 +808,7 @@
         <v>8397.616700000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>502</v>
@@ -849,7 +849,7 @@
         <v>8398.616700000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>501</v>
@@ -890,11 +890,9 @@
         <v>8958.616700000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>505</v>
       </c>
@@ -931,11 +929,9 @@
         <v>9518.616700000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>505</v>
       </c>
@@ -972,11 +968,9 @@
         <v>9440.505200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>505</v>
       </c>
@@ -1013,11 +1007,9 @@
         <v>9441.505200000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>505</v>
       </c>
@@ -1678,11 +1670,9 @@
         <v>17529.1217471</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>505</v>
       </c>
@@ -1719,11 +1709,9 @@
         <v>17529.1217471</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>505</v>
       </c>
@@ -1760,11 +1748,9 @@
         <v>18860.1017471</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>505</v>
       </c>
@@ -1801,7 +1787,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>527</v>
@@ -1881,11 +1867,9 @@
         <v>18860.1017471</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>505</v>
       </c>
@@ -1961,7 +1945,7 @@
         <v>18970.69153916</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
@@ -1969,11 +1953,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.042524752475248</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
     </row>
@@ -2003,8 +1987,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>505</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2036,8 +2026,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>505</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2069,8 +2065,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>505</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2099,11 +2101,17 @@
         <v>19677.3695471</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>505</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2132,11 +2140,17 @@
         <v>19677.3695471</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>505</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2165,11 +2179,17 @@
         <v>19677.3695471</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>505</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2198,11 +2218,17 @@
         <v>19612.8257471</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>505</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2231,11 +2257,17 @@
         <v>19572.8257471</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>505</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2264,11 +2296,17 @@
         <v>23492.4806471</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>505</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2300,8 +2338,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>505</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2333,8 +2377,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>505</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2366,8 +2416,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>505</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2396,11 +2452,17 @@
         <v>23455.2037471</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>505</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2429,11 +2491,17 @@
         <v>23495.2037471</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>505</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2465,8 +2533,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>505</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2498,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>505</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2531,8 +2611,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>505</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2564,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>505</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2597,8 +2689,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>505</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2630,8 +2728,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>505</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2660,11 +2764,17 @@
         <v>21965.8380471</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>505</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2693,11 +2803,17 @@
         <v>21331.8185471</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>505</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2726,11 +2842,17 @@
         <v>21411.8185471</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>505</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2759,11 +2881,17 @@
         <v>25808.5383471</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>505</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2795,8 +2923,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>505</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2828,8 +2962,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>505</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2861,8 +3001,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>505</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2894,8 +3040,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>505</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2927,8 +3079,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>505</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2960,8 +3118,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>505</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2993,8 +3157,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>505</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3023,11 +3193,17 @@
         <v>20871.5931471</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>505</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3059,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>505</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3089,11 +3271,17 @@
         <v>20872.5931471</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>505</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3125,8 +3313,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>505</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3158,8 +3352,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>505</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3191,8 +3391,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>505</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3224,8 +3430,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>505</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3469,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>505</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3290,8 +3508,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>505</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3323,8 +3547,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>505</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3583,17 @@
         <v>19826.1278471</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>505</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3622,17 @@
         <v>19826.1278471</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>505</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3419,11 +3661,17 @@
         <v>20176.3278471</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>505</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3452,11 +3700,17 @@
         <v>20328.9321471</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>505</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3739,17 @@
         <v>20328.9321471</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>505</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3518,11 +3778,17 @@
         <v>20379.9321471</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>505</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3817,17 @@
         <v>20379.9321471</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>505</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3584,11 +3856,17 @@
         <v>20831.0902471</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>505</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3895,17 @@
         <v>20341.0902471</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>505</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3934,17 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>505</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3683,11 +3973,17 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>505</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3716,11 +4012,17 @@
         <v>22326.44134710001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>505</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3749,11 +4051,17 @@
         <v>22345.44134710001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>505</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +4090,17 @@
         <v>22189.13294710001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>505</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3815,11 +4129,17 @@
         <v>22108.13294710001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>505</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3851,8 +4171,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>505</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3881,11 +4207,17 @@
         <v>22108.13294710001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>505</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3917,8 +4249,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>505</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +4285,17 @@
         <v>22140.13294710001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>505</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3983,8 +4327,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>505</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4016,8 +4366,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>505</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4049,8 +4405,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>505</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +4441,17 @@
         <v>22276.7208471</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>505</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4115,8 +4483,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>505</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +4519,17 @@
         <v>20994.8199471</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>505</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4178,11 +4558,17 @@
         <v>20994.8199471</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>505</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4211,11 +4597,17 @@
         <v>22378.41464710001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>505</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +4636,17 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>505</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4277,11 +4675,17 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>505</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4310,11 +4714,17 @@
         <v>33605.3830471</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>505</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4343,11 +4753,17 @@
         <v>33606.3830471</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>505</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4376,11 +4792,17 @@
         <v>33606.3830471</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>505</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4409,11 +4831,17 @@
         <v>39448.7822471</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>505</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4442,11 +4870,17 @@
         <v>31982.7831471</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>505</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +4909,17 @@
         <v>31289.7831471</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>505</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4948,17 @@
         <v>31289.7831471</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>505</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4541,11 +4987,17 @@
         <v>29312.6864471</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>505</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +5026,17 @@
         <v>29313.6864471</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>505</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4607,15 +5065,23 @@
         <v>29513.6864471</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>505</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>1.078168316831683</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4640,7 +5106,7 @@
         <v>28425.6397471</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4706,7 +5172,7 @@
         <v>27985.6425471</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4739,7 +5205,7 @@
         <v>27985.6425471</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4772,7 +5238,7 @@
         <v>25165.9846471</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4805,7 +5271,7 @@
         <v>25165.9846471</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4838,7 +5304,7 @@
         <v>25166.9846471</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4871,7 +5337,7 @@
         <v>26875.4877471</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4904,7 +5370,7 @@
         <v>27239.9677471</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4937,7 +5403,7 @@
         <v>27400.9677471</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4970,7 +5436,7 @@
         <v>26432.1509471</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5003,7 +5469,7 @@
         <v>25977.2445471</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5036,7 +5502,7 @@
         <v>25653.9463471</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5069,7 +5535,7 @@
         <v>25694.9463471</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5102,7 +5568,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5135,7 +5601,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5168,7 +5634,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5201,7 +5667,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5234,7 +5700,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5267,7 +5733,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5300,7 +5766,7 @@
         <v>27793.32148828</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5333,7 +5799,7 @@
         <v>23313.60408828</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5366,7 +5832,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5399,7 +5865,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5432,7 +5898,7 @@
         <v>19873.81598828</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5465,7 +5931,7 @@
         <v>20247.78518828</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5498,7 +5964,7 @@
         <v>20248.78518828</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5531,7 +5997,7 @@
         <v>17728.94418827999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5564,7 +6030,7 @@
         <v>22215.33428828</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5597,7 +6063,7 @@
         <v>22216.33428828</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5630,7 +6096,7 @@
         <v>20245.80128828</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5663,7 +6129,7 @@
         <v>20246.80128828</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5696,7 +6162,7 @@
         <v>16467.03968828</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5729,7 +6195,7 @@
         <v>16467.03968828</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5762,7 +6228,7 @@
         <v>12687.27798828</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5795,7 +6261,7 @@
         <v>13072.34168828</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5828,7 +6294,7 @@
         <v>14092.07168828</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5861,7 +6327,7 @@
         <v>14092.07168828</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6785,7 +7251,7 @@
         <v>13202.4278405</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -8578,6 +9044,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>505</v>
-      </c>
-      <c r="J3" t="n">
-        <v>505</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>505</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,224 +550,182 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>505</v>
       </c>
-      <c r="J5" t="n">
+      <c r="C6" t="n">
         <v>505</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="D6" t="n">
+        <v>505</v>
+      </c>
+      <c r="E6" t="n">
+        <v>505</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60.0693</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8918.602300000002</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>505</v>
+      </c>
+      <c r="C7" t="n">
+        <v>505</v>
+      </c>
+      <c r="D7" t="n">
+        <v>505</v>
+      </c>
+      <c r="E7" t="n">
+        <v>505</v>
+      </c>
+      <c r="F7" t="n">
+        <v>180.2067</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8918.602300000002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>501</v>
+      </c>
+      <c r="C8" t="n">
+        <v>502</v>
+      </c>
+      <c r="D8" t="n">
+        <v>502</v>
+      </c>
+      <c r="E8" t="n">
+        <v>501</v>
+      </c>
+      <c r="F8" t="n">
+        <v>313.2014</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8605.400900000002</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>502</v>
+      </c>
+      <c r="C9" t="n">
+        <v>502</v>
+      </c>
+      <c r="D9" t="n">
+        <v>502</v>
+      </c>
+      <c r="E9" t="n">
+        <v>502</v>
+      </c>
+      <c r="F9" t="n">
+        <v>144.956</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8605.400900000002</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>500</v>
+      </c>
+      <c r="C10" t="n">
+        <v>502</v>
+      </c>
+      <c r="D10" t="n">
+        <v>502</v>
+      </c>
+      <c r="E10" t="n">
+        <v>500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>486.172</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8605.400900000002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>502</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>505</v>
-      </c>
-      <c r="C6" t="n">
-        <v>505</v>
-      </c>
-      <c r="D6" t="n">
-        <v>505</v>
-      </c>
-      <c r="E6" t="n">
-        <v>505</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60.0693</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8918.602300000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>505</v>
-      </c>
-      <c r="J6" t="n">
-        <v>505</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>505</v>
-      </c>
-      <c r="C7" t="n">
-        <v>505</v>
-      </c>
-      <c r="D7" t="n">
-        <v>505</v>
-      </c>
-      <c r="E7" t="n">
-        <v>505</v>
-      </c>
-      <c r="F7" t="n">
-        <v>180.2067</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8918.602300000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>505</v>
-      </c>
-      <c r="J7" t="n">
-        <v>505</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>501</v>
-      </c>
-      <c r="C8" t="n">
-        <v>502</v>
-      </c>
-      <c r="D8" t="n">
-        <v>502</v>
-      </c>
-      <c r="E8" t="n">
-        <v>501</v>
-      </c>
-      <c r="F8" t="n">
-        <v>313.2014</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8605.400900000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>505</v>
-      </c>
-      <c r="J8" t="n">
-        <v>505</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>502</v>
-      </c>
-      <c r="C9" t="n">
-        <v>502</v>
-      </c>
-      <c r="D9" t="n">
-        <v>502</v>
-      </c>
-      <c r="E9" t="n">
-        <v>502</v>
-      </c>
-      <c r="F9" t="n">
-        <v>144.956</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8605.400900000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>502</v>
-      </c>
-      <c r="J9" t="n">
-        <v>505</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>500</v>
-      </c>
-      <c r="C10" t="n">
-        <v>502</v>
-      </c>
-      <c r="D10" t="n">
-        <v>502</v>
-      </c>
-      <c r="E10" t="n">
-        <v>500</v>
-      </c>
-      <c r="F10" t="n">
-        <v>486.172</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8605.400900000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>502</v>
-      </c>
-      <c r="J10" t="n">
-        <v>505</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -813,9 +759,7 @@
       <c r="I11" t="n">
         <v>502</v>
       </c>
-      <c r="J11" t="n">
-        <v>505</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -854,9 +798,7 @@
       <c r="I12" t="n">
         <v>501</v>
       </c>
-      <c r="J12" t="n">
-        <v>505</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -890,12 +832,12 @@
         <v>8958.616700000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>502</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -929,12 +871,12 @@
         <v>9518.616700000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>505</v>
       </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -968,12 +910,12 @@
         <v>9440.505200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>510</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1007,12 +949,12 @@
         <v>9441.505200000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>501</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1049,9 +991,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>505</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1088,9 +1028,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>505</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1127,9 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>505</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1166,9 +1102,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>505</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1202,12 +1136,12 @@
         <v>11925.0427</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>509</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1241,12 +1175,12 @@
         <v>12809.5718</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>510</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1280,12 +1214,12 @@
         <v>16492.7638</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>513</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1319,12 +1253,12 @@
         <v>16981.6976471</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>514</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1358,12 +1292,12 @@
         <v>16918.5220471</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>518</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1397,12 +1331,12 @@
         <v>17187.9621471</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>517</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1439,9 +1373,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>505</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1478,9 +1410,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>505</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1514,12 +1444,12 @@
         <v>16880.6607471</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>508</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1553,12 +1483,12 @@
         <v>16880.6607471</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>514</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1592,12 +1522,12 @@
         <v>17320.6607471</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>514</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1631,12 +1561,12 @@
         <v>18381.1217471</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>515</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1670,12 +1600,12 @@
         <v>17529.1217471</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>527</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1709,20 +1639,16 @@
         <v>17529.1217471</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>505</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1748,17 +1674,11 @@
         <v>18860.1017471</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>505</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1787,19 +1707,11 @@
         <v>18860.1017471</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>527</v>
-      </c>
-      <c r="J36" t="n">
-        <v>505</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1828,17 +1740,11 @@
         <v>18860.1017471</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>505</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1867,17 +1773,11 @@
         <v>18860.1017471</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>505</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1906,17 +1806,11 @@
         <v>18970.69153916</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>505</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1945,17 +1839,11 @@
         <v>18970.69153916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>505</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1984,17 +1872,11 @@
         <v>19127.0002471</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>505</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2023,17 +1905,11 @@
         <v>19677.3695471</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>505</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2062,17 +1938,11 @@
         <v>19677.3695471</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>505</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2101,17 +1971,11 @@
         <v>19677.3695471</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>505</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2140,17 +2004,11 @@
         <v>19677.3695471</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>505</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2179,17 +2037,11 @@
         <v>19677.3695471</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>505</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2218,17 +2070,11 @@
         <v>19612.8257471</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>505</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2257,17 +2103,11 @@
         <v>19572.8257471</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>505</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2296,17 +2136,11 @@
         <v>23492.4806471</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>505</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2335,17 +2169,11 @@
         <v>23492.4806471</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>505</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2374,17 +2202,11 @@
         <v>23414.2037471</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>505</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2413,17 +2235,11 @@
         <v>23415.2037471</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>505</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2452,17 +2268,11 @@
         <v>23455.2037471</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>505</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2491,17 +2301,11 @@
         <v>23495.2037471</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>505</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2530,17 +2334,11 @@
         <v>23454.2037471</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>505</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2569,17 +2367,11 @@
         <v>23454.2037471</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>505</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2608,17 +2400,11 @@
         <v>23356.2037471</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>505</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2647,17 +2433,11 @@
         <v>23276.2037471</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>505</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2686,17 +2466,11 @@
         <v>22225.8380471</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>505</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2725,17 +2499,11 @@
         <v>21965.8380471</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>505</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2764,17 +2532,11 @@
         <v>21965.8380471</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>505</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2806,14 +2568,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>505</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2601,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>505</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2884,14 +2634,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>505</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2920,17 +2664,11 @@
         <v>25807.5383471</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>505</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2959,17 +2697,11 @@
         <v>25807.5383471</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>505</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3001,14 +2733,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>505</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3040,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>505</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3079,14 +2799,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>505</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3118,14 +2832,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>505</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3157,14 +2865,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>505</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +2898,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>505</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3235,14 +2931,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>505</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3274,14 +2964,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>505</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3313,14 +2997,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>505</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3352,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>505</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3391,14 +3063,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>505</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3430,14 +3096,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>505</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3469,14 +3129,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>505</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3508,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>505</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3547,14 +3195,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>505</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3586,14 +3228,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>505</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3625,14 +3261,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>505</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3664,14 +3294,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>505</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3703,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>505</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3742,14 +3360,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>505</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3781,14 +3393,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>505</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3820,14 +3426,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>505</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3859,14 +3459,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>505</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3492,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>505</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3934,17 +3522,11 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>505</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3973,17 +3555,11 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>505</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4012,17 +3588,11 @@
         <v>22326.44134710001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>505</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4054,14 +3624,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>505</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4093,14 +3657,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>505</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4132,14 +3690,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>505</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4171,14 +3723,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>505</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4210,14 +3756,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>505</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4249,14 +3789,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>505</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4288,14 +3822,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>505</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4327,14 +3855,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>505</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4363,17 +3885,11 @@
         <v>22276.7208471</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>505</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4402,17 +3918,11 @@
         <v>22276.7208471</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>505</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4441,17 +3951,11 @@
         <v>22276.7208471</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>505</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4483,14 +3987,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>505</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4519,17 +4017,11 @@
         <v>20994.8199471</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>505</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4561,14 +4053,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>505</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4597,17 +4083,11 @@
         <v>22378.41464710001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>505</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4636,17 +4116,11 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>505</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4675,17 +4149,11 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>505</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4714,17 +4182,11 @@
         <v>33605.3830471</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>505</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4753,17 +4215,11 @@
         <v>33606.3830471</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>505</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4792,17 +4248,11 @@
         <v>33606.3830471</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>505</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4831,17 +4281,11 @@
         <v>39448.7822471</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>505</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4870,17 +4314,11 @@
         <v>31982.7831471</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>505</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4909,17 +4347,11 @@
         <v>31289.7831471</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>505</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4948,17 +4380,11 @@
         <v>31289.7831471</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>505</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4987,17 +4413,11 @@
         <v>29312.6864471</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>505</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5026,17 +4446,11 @@
         <v>29313.6864471</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>505</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5068,20 +4482,12 @@
         <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>505</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>1.078168316831683</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5139,7 +4545,7 @@
         <v>27984.6425471</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5337,7 +4743,7 @@
         <v>26875.4877471</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5403,7 +4809,7 @@
         <v>27400.9677471</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5436,7 +4842,7 @@
         <v>26432.1509471</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5469,7 +4875,7 @@
         <v>25977.2445471</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5502,7 +4908,7 @@
         <v>25653.9463471</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5535,7 +4941,7 @@
         <v>25694.9463471</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5700,7 +5106,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5733,7 +5139,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5766,7 +5172,7 @@
         <v>27793.32148828</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5799,7 +5205,7 @@
         <v>23313.60408828</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5832,7 +5238,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5931,7 +5337,7 @@
         <v>20247.78518828</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5964,7 +5370,7 @@
         <v>20248.78518828</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5997,7 +5403,7 @@
         <v>17728.94418827999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6030,7 +5436,7 @@
         <v>22215.33428828</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6063,7 +5469,7 @@
         <v>22216.33428828</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6096,7 +5502,7 @@
         <v>20245.80128828</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6129,7 +5535,7 @@
         <v>20246.80128828</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6162,7 +5568,7 @@
         <v>16467.03968828</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6195,7 +5601,7 @@
         <v>16467.03968828</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6228,7 +5634,7 @@
         <v>12687.27798828</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6261,7 +5667,7 @@
         <v>13072.34168828</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6294,7 +5700,7 @@
         <v>14092.07168828</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6327,7 +5733,7 @@
         <v>14092.07168828</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -7020,7 +6426,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7053,7 +6459,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7086,7 +6492,7 @@
         <v>10527.75538828</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7119,7 +6525,7 @@
         <v>11169.43318828</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7152,7 +6558,7 @@
         <v>11319.52021439</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7185,7 +6591,7 @@
         <v>19393.11121439</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -8076,7 +7482,7 @@
         <v>9127.285651359996</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8109,7 +7515,7 @@
         <v>9149.285651359996</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8142,7 +7548,7 @@
         <v>6180.507451359996</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8175,7 +7581,7 @@
         <v>5541.994151359996</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8208,7 +7614,7 @@
         <v>5544.275651359996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8241,7 +7647,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8274,7 +7680,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8307,7 +7713,7 @@
         <v>5564.605751359996</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8340,7 +7746,7 @@
         <v>5518.990951359996</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8373,7 +7779,7 @@
         <v>4080.395051359996</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8406,7 +7812,7 @@
         <v>4169.519351359996</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9044,6 +8450,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -451,7 +451,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>505</v>
+      </c>
+      <c r="J3" t="n">
+        <v>505</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>505</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>505</v>
+      </c>
+      <c r="J5" t="n">
+        <v>505</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>505</v>
+      </c>
+      <c r="J6" t="n">
+        <v>505</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>505</v>
+      </c>
+      <c r="J7" t="n">
+        <v>505</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>505</v>
+      </c>
+      <c r="J8" t="n">
+        <v>505</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>502</v>
+      </c>
+      <c r="J9" t="n">
+        <v>505</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -720,10 +772,12 @@
       <c r="I10" t="n">
         <v>502</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>505</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -759,7 +813,9 @@
       <c r="I11" t="n">
         <v>502</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>505</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -798,7 +854,9 @@
       <c r="I12" t="n">
         <v>501</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>505</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -837,7 +895,9 @@
       <c r="I13" t="n">
         <v>502</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>505</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -876,7 +936,9 @@
       <c r="I14" t="n">
         <v>505</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>505</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -910,12 +972,12 @@
         <v>9440.505200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>510</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>505</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -949,12 +1011,12 @@
         <v>9441.505200000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>501</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>505</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -991,7 +1053,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>505</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1028,7 +1092,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>505</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1065,7 +1131,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>505</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1102,7 +1170,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>505</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1136,12 +1206,12 @@
         <v>11925.0427</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>509</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>505</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1175,12 +1245,12 @@
         <v>12809.5718</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>510</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>505</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,12 +1284,12 @@
         <v>16492.7638</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>513</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>505</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1253,12 +1323,12 @@
         <v>16981.6976471</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>514</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>505</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1292,12 +1362,12 @@
         <v>16918.5220471</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>518</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>505</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1331,12 +1401,12 @@
         <v>17187.9621471</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>517</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>505</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1373,7 +1443,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>505</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1410,7 +1482,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>505</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1444,12 +1518,12 @@
         <v>16880.6607471</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>508</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>505</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1483,12 +1557,12 @@
         <v>16880.6607471</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>514</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>505</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1522,12 +1596,12 @@
         <v>17320.6607471</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>514</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>505</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1561,12 +1635,12 @@
         <v>18381.1217471</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>515</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>505</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,12 +1674,12 @@
         <v>17529.1217471</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>527</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>505</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1639,380 +1713,452 @@
         <v>17529.1217471</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>505</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>525</v>
+      </c>
+      <c r="C35" t="n">
+        <v>527</v>
+      </c>
+      <c r="D35" t="n">
+        <v>527</v>
+      </c>
+      <c r="E35" t="n">
+        <v>525</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1330.98</v>
+      </c>
+      <c r="G35" t="n">
+        <v>18860.1017471</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>505</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>527</v>
+      </c>
+      <c r="C36" t="n">
+        <v>527</v>
+      </c>
+      <c r="D36" t="n">
+        <v>527</v>
+      </c>
+      <c r="E36" t="n">
+        <v>527</v>
+      </c>
+      <c r="F36" t="n">
+        <v>440</v>
+      </c>
+      <c r="G36" t="n">
+        <v>18860.1017471</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>505</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>527</v>
+      </c>
+      <c r="C37" t="n">
+        <v>527</v>
+      </c>
+      <c r="D37" t="n">
+        <v>527</v>
+      </c>
+      <c r="E37" t="n">
+        <v>527</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.60151802</v>
+      </c>
+      <c r="G37" t="n">
+        <v>18860.1017471</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>505</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>527</v>
+      </c>
+      <c r="C38" t="n">
+        <v>527</v>
+      </c>
+      <c r="D38" t="n">
+        <v>527</v>
+      </c>
+      <c r="E38" t="n">
+        <v>527</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1385</v>
+      </c>
+      <c r="G38" t="n">
+        <v>18860.1017471</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>505</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>529</v>
+      </c>
+      <c r="C39" t="n">
+        <v>529</v>
+      </c>
+      <c r="D39" t="n">
+        <v>529</v>
+      </c>
+      <c r="E39" t="n">
+        <v>529</v>
+      </c>
+      <c r="F39" t="n">
+        <v>110.58979206</v>
+      </c>
+      <c r="G39" t="n">
+        <v>18970.69153916</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>505</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>529</v>
+      </c>
+      <c r="C40" t="n">
+        <v>529</v>
+      </c>
+      <c r="D40" t="n">
+        <v>529</v>
+      </c>
+      <c r="E40" t="n">
+        <v>529</v>
+      </c>
+      <c r="F40" t="n">
+        <v>389.4102</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18970.69153916</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>505</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>529</v>
+      </c>
+      <c r="C41" t="n">
+        <v>530</v>
+      </c>
+      <c r="D41" t="n">
+        <v>530</v>
+      </c>
+      <c r="E41" t="n">
+        <v>529</v>
+      </c>
+      <c r="F41" t="n">
+        <v>156.30870794</v>
+      </c>
+      <c r="G41" t="n">
+        <v>19127.0002471</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>505</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>532</v>
+      </c>
+      <c r="C42" t="n">
+        <v>537</v>
+      </c>
+      <c r="D42" t="n">
+        <v>537</v>
+      </c>
+      <c r="E42" t="n">
+        <v>523</v>
+      </c>
+      <c r="F42" t="n">
+        <v>550.3693</v>
+      </c>
+      <c r="G42" t="n">
+        <v>19677.3695471</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>505</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>537</v>
+      </c>
+      <c r="C43" t="n">
+        <v>537</v>
+      </c>
+      <c r="D43" t="n">
+        <v>537</v>
+      </c>
+      <c r="E43" t="n">
+        <v>537</v>
+      </c>
+      <c r="F43" t="n">
+        <v>68.00790000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19677.3695471</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>505</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>537</v>
+      </c>
+      <c r="C44" t="n">
+        <v>537</v>
+      </c>
+      <c r="D44" t="n">
+        <v>537</v>
+      </c>
+      <c r="E44" t="n">
+        <v>537</v>
+      </c>
+      <c r="F44" t="n">
+        <v>152.2504</v>
+      </c>
+      <c r="G44" t="n">
+        <v>19677.3695471</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>505</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>537</v>
+      </c>
+      <c r="C45" t="n">
+        <v>537</v>
+      </c>
+      <c r="D45" t="n">
+        <v>537</v>
+      </c>
+      <c r="E45" t="n">
+        <v>537</v>
+      </c>
+      <c r="F45" t="n">
+        <v>23.1042</v>
+      </c>
+      <c r="G45" t="n">
+        <v>19677.3695471</v>
+      </c>
+      <c r="H45" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>505</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>525</v>
-      </c>
-      <c r="C35" t="n">
-        <v>527</v>
-      </c>
-      <c r="D35" t="n">
-        <v>527</v>
-      </c>
-      <c r="E35" t="n">
-        <v>525</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1330.98</v>
-      </c>
-      <c r="G35" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>527</v>
-      </c>
-      <c r="C36" t="n">
-        <v>527</v>
-      </c>
-      <c r="D36" t="n">
-        <v>527</v>
-      </c>
-      <c r="E36" t="n">
-        <v>527</v>
-      </c>
-      <c r="F36" t="n">
-        <v>440</v>
-      </c>
-      <c r="G36" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>527</v>
-      </c>
-      <c r="C37" t="n">
-        <v>527</v>
-      </c>
-      <c r="D37" t="n">
-        <v>527</v>
-      </c>
-      <c r="E37" t="n">
-        <v>527</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4.60151802</v>
-      </c>
-      <c r="G37" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>527</v>
-      </c>
-      <c r="C38" t="n">
-        <v>527</v>
-      </c>
-      <c r="D38" t="n">
-        <v>527</v>
-      </c>
-      <c r="E38" t="n">
-        <v>527</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1385</v>
-      </c>
-      <c r="G38" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>529</v>
-      </c>
-      <c r="C39" t="n">
-        <v>529</v>
-      </c>
-      <c r="D39" t="n">
-        <v>529</v>
-      </c>
-      <c r="E39" t="n">
-        <v>529</v>
-      </c>
-      <c r="F39" t="n">
-        <v>110.58979206</v>
-      </c>
-      <c r="G39" t="n">
-        <v>18970.69153916</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>529</v>
-      </c>
-      <c r="C40" t="n">
-        <v>529</v>
-      </c>
-      <c r="D40" t="n">
-        <v>529</v>
-      </c>
-      <c r="E40" t="n">
-        <v>529</v>
-      </c>
-      <c r="F40" t="n">
-        <v>389.4102</v>
-      </c>
-      <c r="G40" t="n">
-        <v>18970.69153916</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>529</v>
-      </c>
-      <c r="C41" t="n">
-        <v>530</v>
-      </c>
-      <c r="D41" t="n">
-        <v>530</v>
-      </c>
-      <c r="E41" t="n">
-        <v>529</v>
-      </c>
-      <c r="F41" t="n">
-        <v>156.30870794</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19127.0002471</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>532</v>
-      </c>
-      <c r="C42" t="n">
-        <v>537</v>
-      </c>
-      <c r="D42" t="n">
-        <v>537</v>
-      </c>
-      <c r="E42" t="n">
-        <v>523</v>
-      </c>
-      <c r="F42" t="n">
-        <v>550.3693</v>
-      </c>
-      <c r="G42" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>537</v>
-      </c>
-      <c r="C43" t="n">
-        <v>537</v>
-      </c>
-      <c r="D43" t="n">
-        <v>537</v>
-      </c>
-      <c r="E43" t="n">
-        <v>537</v>
-      </c>
-      <c r="F43" t="n">
-        <v>68.00790000000001</v>
-      </c>
-      <c r="G43" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>537</v>
-      </c>
-      <c r="C44" t="n">
-        <v>537</v>
-      </c>
-      <c r="D44" t="n">
-        <v>537</v>
-      </c>
-      <c r="E44" t="n">
-        <v>537</v>
-      </c>
-      <c r="F44" t="n">
-        <v>152.2504</v>
-      </c>
-      <c r="G44" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>537</v>
-      </c>
-      <c r="C45" t="n">
-        <v>537</v>
-      </c>
-      <c r="D45" t="n">
-        <v>537</v>
-      </c>
-      <c r="E45" t="n">
-        <v>537</v>
-      </c>
-      <c r="F45" t="n">
-        <v>23.1042</v>
-      </c>
-      <c r="G45" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>1.058366336633664</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2103,7 +2249,7 @@
         <v>19572.8257471</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2136,7 +2282,7 @@
         <v>23492.4806471</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2169,7 +2315,7 @@
         <v>23492.4806471</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2202,7 +2348,7 @@
         <v>23414.2037471</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2235,7 +2381,7 @@
         <v>23415.2037471</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2268,7 +2414,7 @@
         <v>23455.2037471</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2301,7 +2447,7 @@
         <v>23495.2037471</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2334,7 +2480,7 @@
         <v>23454.2037471</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2367,7 +2513,7 @@
         <v>23454.2037471</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2400,7 +2546,7 @@
         <v>23356.2037471</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2433,7 +2579,7 @@
         <v>23276.2037471</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2466,7 +2612,7 @@
         <v>22225.8380471</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2499,7 +2645,7 @@
         <v>21965.8380471</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2532,7 +2678,7 @@
         <v>21965.8380471</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2664,7 +2810,7 @@
         <v>25807.5383471</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2697,7 +2843,7 @@
         <v>25807.5383471</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3522,7 +3668,7 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3555,7 +3701,7 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3588,7 +3734,7 @@
         <v>22326.44134710001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3885,7 +4031,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3918,7 +4064,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3951,7 +4097,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4017,7 +4163,7 @@
         <v>20994.8199471</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4083,7 +4229,7 @@
         <v>22378.41464710001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4116,7 +4262,7 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4149,7 +4295,7 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4182,7 +4328,7 @@
         <v>33605.3830471</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4743,7 +4889,7 @@
         <v>26875.4877471</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4809,7 +4955,7 @@
         <v>27400.9677471</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4842,7 +4988,7 @@
         <v>26432.1509471</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4875,7 +5021,7 @@
         <v>25977.2445471</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4908,7 +5054,7 @@
         <v>25653.9463471</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5106,7 +5252,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5139,7 +5285,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5172,7 +5318,7 @@
         <v>27793.32148828</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5205,7 +5351,7 @@
         <v>23313.60408828</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5238,7 +5384,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5271,7 +5417,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5304,7 +5450,7 @@
         <v>19873.81598828</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6426,7 +6572,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6459,7 +6605,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6492,7 +6638,7 @@
         <v>10527.75538828</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6525,7 +6671,7 @@
         <v>11169.43318828</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6558,7 +6704,7 @@
         <v>11319.52021439</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6591,7 +6737,7 @@
         <v>19393.11121439</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7482,7 +7628,7 @@
         <v>9127.285651359996</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7515,7 +7661,7 @@
         <v>9149.285651359996</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7548,7 +7694,7 @@
         <v>6180.507451359996</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7581,7 +7727,7 @@
         <v>5541.994151359996</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7614,7 +7760,7 @@
         <v>5544.275651359996</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7647,7 +7793,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7680,7 +7826,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7713,7 +7859,7 @@
         <v>5564.605751359996</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7746,7 +7892,7 @@
         <v>5518.990951359996</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7779,7 +7925,7 @@
         <v>4080.395051359996</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7812,7 +7958,7 @@
         <v>4169.519351359996</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest GXC.xlsx
+++ b/BackTest/2019-10-26 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>383.1544</v>
       </c>
       <c r="G2" t="n">
-        <v>8918.602300000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>26.5772</v>
       </c>
       <c r="G3" t="n">
-        <v>8918.602300000002</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="I3" t="n">
         <v>505</v>
       </c>
-      <c r="J3" t="n">
-        <v>505</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>111.7384</v>
       </c>
       <c r="G4" t="n">
-        <v>8918.602300000002</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="I4" t="n">
         <v>505</v>
       </c>
-      <c r="J4" t="n">
-        <v>505</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>297.3833</v>
       </c>
       <c r="G5" t="n">
-        <v>8918.602300000002</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="I5" t="n">
         <v>505</v>
       </c>
-      <c r="J5" t="n">
-        <v>505</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,21 @@
         <v>60.0693</v>
       </c>
       <c r="G6" t="n">
-        <v>8918.602300000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>505</v>
       </c>
-      <c r="J6" t="n">
-        <v>505</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +619,23 @@
         <v>180.2067</v>
       </c>
       <c r="G7" t="n">
-        <v>8918.602300000002</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="I7" t="n">
         <v>505</v>
       </c>
-      <c r="J7" t="n">
-        <v>505</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +657,21 @@
         <v>313.2014</v>
       </c>
       <c r="G8" t="n">
-        <v>8605.400900000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>505</v>
       </c>
-      <c r="J8" t="n">
-        <v>505</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +693,23 @@
         <v>144.956</v>
       </c>
       <c r="G9" t="n">
-        <v>8605.400900000002</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="I9" t="n">
-        <v>502</v>
-      </c>
-      <c r="J9" t="n">
-        <v>505</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +731,23 @@
         <v>486.172</v>
       </c>
       <c r="G10" t="n">
-        <v>8605.400900000002</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="I10" t="n">
-        <v>502</v>
-      </c>
-      <c r="J10" t="n">
-        <v>505</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +769,23 @@
         <v>207.7842</v>
       </c>
       <c r="G11" t="n">
-        <v>8397.616700000002</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="I11" t="n">
-        <v>502</v>
-      </c>
-      <c r="J11" t="n">
-        <v>505</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +807,23 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>8398.616700000002</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="I12" t="n">
-        <v>501</v>
-      </c>
-      <c r="J12" t="n">
-        <v>505</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +845,23 @@
         <v>560</v>
       </c>
       <c r="G13" t="n">
-        <v>8958.616700000002</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="I13" t="n">
-        <v>502</v>
-      </c>
-      <c r="J13" t="n">
-        <v>505</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +883,23 @@
         <v>560</v>
       </c>
       <c r="G14" t="n">
-        <v>9518.616700000002</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="I14" t="n">
         <v>505</v>
       </c>
-      <c r="J14" t="n">
-        <v>505</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,24 +921,23 @@
         <v>78.11150000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>9440.505200000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>505</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="I15" t="n">
+        <v>505</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,24 +959,23 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>9441.505200000001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>505</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="I16" t="n">
+        <v>505</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1047,24 +997,21 @@
         <v>304.0356</v>
       </c>
       <c r="G17" t="n">
-        <v>9441.505200000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>505</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>505</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1086,24 +1033,21 @@
         <v>953.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>10395.5051</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>505</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>505</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1125,24 +1069,21 @@
         <v>280</v>
       </c>
       <c r="G19" t="n">
-        <v>10675.5051</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>505</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>505</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,24 +1105,21 @@
         <v>368</v>
       </c>
       <c r="G20" t="n">
-        <v>10675.5051</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>505</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>505</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1203,24 +1141,21 @@
         <v>1249.5376</v>
       </c>
       <c r="G21" t="n">
-        <v>11925.0427</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>505</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>505</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1242,24 +1177,21 @@
         <v>884.5291</v>
       </c>
       <c r="G22" t="n">
-        <v>12809.5718</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>505</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>505</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1281,24 +1213,21 @@
         <v>3683.192</v>
       </c>
       <c r="G23" t="n">
-        <v>16492.7638</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>505</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>505</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,24 +1249,21 @@
         <v>488.9338471</v>
       </c>
       <c r="G24" t="n">
-        <v>16981.6976471</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>505</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>505</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1359,24 +1285,21 @@
         <v>63.1756</v>
       </c>
       <c r="G25" t="n">
-        <v>16918.5220471</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>505</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>505</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1398,24 +1321,21 @@
         <v>269.4401</v>
       </c>
       <c r="G26" t="n">
-        <v>17187.9621471</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>505</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>505</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1437,24 +1357,21 @@
         <v>38.4749</v>
       </c>
       <c r="G27" t="n">
-        <v>17149.4872471</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>505</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>505</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1476,24 +1393,23 @@
         <v>269.8265</v>
       </c>
       <c r="G28" t="n">
-        <v>16879.6607471</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>505</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>518</v>
+      </c>
+      <c r="I28" t="n">
+        <v>505</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1515,24 +1431,23 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>16880.6607471</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>505</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>508</v>
+      </c>
+      <c r="I29" t="n">
+        <v>505</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1554,24 +1469,21 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>16880.6607471</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>505</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>505</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1593,24 +1505,21 @@
         <v>440</v>
       </c>
       <c r="G31" t="n">
-        <v>17320.6607471</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>505</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>505</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1632,24 +1541,21 @@
         <v>1060.461</v>
       </c>
       <c r="G32" t="n">
-        <v>18381.1217471</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>505</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>505</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1671,24 +1577,21 @@
         <v>852</v>
       </c>
       <c r="G33" t="n">
-        <v>17529.1217471</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>505</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>505</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1710,24 +1613,21 @@
         <v>1884.8039</v>
       </c>
       <c r="G34" t="n">
-        <v>17529.1217471</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>505</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>505</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1749,24 +1649,21 @@
         <v>1330.98</v>
       </c>
       <c r="G35" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>505</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>505</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1788,24 +1685,21 @@
         <v>440</v>
       </c>
       <c r="G36" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>505</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>505</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1827,24 +1721,21 @@
         <v>4.60151802</v>
       </c>
       <c r="G37" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>505</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>505</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1866,24 +1757,21 @@
         <v>1385</v>
       </c>
       <c r="G38" t="n">
-        <v>18860.1017471</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>505</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>505</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1905,24 +1793,21 @@
         <v>110.58979206</v>
       </c>
       <c r="G39" t="n">
-        <v>18970.69153916</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>505</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>505</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1944,24 +1829,21 @@
         <v>389.4102</v>
       </c>
       <c r="G40" t="n">
-        <v>18970.69153916</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>505</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>505</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1983,24 +1865,21 @@
         <v>156.30870794</v>
       </c>
       <c r="G41" t="n">
-        <v>19127.0002471</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>505</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>505</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2022,24 +1901,21 @@
         <v>550.3693</v>
       </c>
       <c r="G42" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>505</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>505</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2061,24 +1937,21 @@
         <v>68.00790000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>505</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>505</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2100,24 +1973,21 @@
         <v>152.2504</v>
       </c>
       <c r="G44" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>505</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>505</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2139,26 +2009,21 @@
         <v>23.1042</v>
       </c>
       <c r="G45" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>505</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1.058366336633664</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>505</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2180,18 +2045,21 @@
         <v>23.4878</v>
       </c>
       <c r="G46" t="n">
-        <v>19677.3695471</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>505</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2213,18 +2081,21 @@
         <v>64.5438</v>
       </c>
       <c r="G47" t="n">
-        <v>19612.8257471</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>505</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2246,18 +2117,21 @@
         <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>19572.8257471</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>505</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2279,18 +2153,21 @@
         <v>3919.6549</v>
       </c>
       <c r="G49" t="n">
-        <v>23492.4806471</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>505</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2312,18 +2189,21 @@
         <v>60.5133</v>
       </c>
       <c r="G50" t="n">
-        <v>23492.4806471</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>505</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2345,18 +2225,21 @@
         <v>78.2769</v>
       </c>
       <c r="G51" t="n">
-        <v>23414.2037471</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>505</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2378,18 +2261,21 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>23415.2037471</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>505</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2411,18 +2297,21 @@
         <v>40</v>
       </c>
       <c r="G53" t="n">
-        <v>23455.2037471</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>505</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2444,18 +2333,21 @@
         <v>40</v>
       </c>
       <c r="G54" t="n">
-        <v>23495.2037471</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>505</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2477,18 +2369,21 @@
         <v>41</v>
       </c>
       <c r="G55" t="n">
-        <v>23454.2037471</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>505</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2510,18 +2405,21 @@
         <v>338.2575</v>
       </c>
       <c r="G56" t="n">
-        <v>23454.2037471</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>505</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2543,18 +2441,21 @@
         <v>98</v>
       </c>
       <c r="G57" t="n">
-        <v>23356.2037471</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>505</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2576,18 +2477,21 @@
         <v>80</v>
       </c>
       <c r="G58" t="n">
-        <v>23276.2037471</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>505</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2609,18 +2513,21 @@
         <v>1050.3657</v>
       </c>
       <c r="G59" t="n">
-        <v>22225.8380471</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>505</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2642,18 +2549,21 @@
         <v>260</v>
       </c>
       <c r="G60" t="n">
-        <v>21965.8380471</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>505</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2675,18 +2585,21 @@
         <v>15.3449</v>
       </c>
       <c r="G61" t="n">
-        <v>21965.8380471</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>505</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2708,18 +2621,21 @@
         <v>634.0195</v>
       </c>
       <c r="G62" t="n">
-        <v>21331.8185471</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>505</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2741,18 +2657,21 @@
         <v>80</v>
       </c>
       <c r="G63" t="n">
-        <v>21411.8185471</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>505</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2774,18 +2693,21 @@
         <v>4396.7198</v>
       </c>
       <c r="G64" t="n">
-        <v>25808.5383471</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>505</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2807,18 +2729,21 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>25807.5383471</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>505</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2840,18 +2765,21 @@
         <v>1374.5587</v>
       </c>
       <c r="G66" t="n">
-        <v>25807.5383471</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>505</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2873,18 +2801,21 @@
         <v>846.056</v>
       </c>
       <c r="G67" t="n">
-        <v>24961.4823471</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>505</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2906,18 +2837,21 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>24962.4823471</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>505</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2939,18 +2873,21 @@
         <v>2053.9274</v>
       </c>
       <c r="G69" t="n">
-        <v>22908.5549471</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>505</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2972,18 +2909,21 @@
         <v>2035.9668</v>
       </c>
       <c r="G70" t="n">
-        <v>20872.5881471</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>505</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3005,18 +2945,21 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>20873.5881471</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>505</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3038,18 +2981,21 @@
         <v>1.995</v>
       </c>
       <c r="G72" t="n">
-        <v>20871.5931471</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>505</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3071,18 +3017,21 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>20872.5931471</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>505</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3104,18 +3053,21 @@
         <v>564.2023</v>
       </c>
       <c r="G74" t="n">
-        <v>20872.5931471</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>505</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3137,18 +3089,21 @@
         <v>1398.746</v>
       </c>
       <c r="G75" t="n">
-        <v>19473.8471471</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>505</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3170,18 +3125,21 @@
         <v>595.2623</v>
       </c>
       <c r="G76" t="n">
-        <v>19473.8471471</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>505</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3203,18 +3161,21 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>19474.8471471</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>505</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3236,18 +3197,21 @@
         <v>593</v>
       </c>
       <c r="G78" t="n">
-        <v>19474.8471471</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>505</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3269,18 +3233,21 @@
         <v>302.0079</v>
       </c>
       <c r="G79" t="n">
-        <v>19474.8471471</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>505</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3302,18 +3269,21 @@
         <v>206.2807</v>
       </c>
       <c r="G80" t="n">
-        <v>19681.1278471</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>505</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3335,18 +3305,21 @@
         <v>65</v>
       </c>
       <c r="G81" t="n">
-        <v>19746.1278471</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>505</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3368,18 +3341,21 @@
         <v>80</v>
       </c>
       <c r="G82" t="n">
-        <v>19826.1278471</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>505</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3401,18 +3377,21 @@
         <v>439.0173</v>
       </c>
       <c r="G83" t="n">
-        <v>19826.1278471</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>505</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3434,18 +3413,21 @@
         <v>350.2</v>
       </c>
       <c r="G84" t="n">
-        <v>20176.3278471</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>505</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3467,18 +3449,21 @@
         <v>152.6043</v>
       </c>
       <c r="G85" t="n">
-        <v>20328.9321471</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>505</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,18 +3485,21 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>20328.9321471</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>505</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3533,18 +3521,21 @@
         <v>51</v>
       </c>
       <c r="G87" t="n">
-        <v>20379.9321471</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>505</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3566,18 +3557,21 @@
         <v>1457.5269</v>
       </c>
       <c r="G88" t="n">
-        <v>20379.9321471</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>505</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3599,18 +3593,21 @@
         <v>451.1581</v>
       </c>
       <c r="G89" t="n">
-        <v>20831.0902471</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>505</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3632,18 +3629,21 @@
         <v>490</v>
       </c>
       <c r="G90" t="n">
-        <v>20341.0902471</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>505</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3665,18 +3665,21 @@
         <v>2775.0162</v>
       </c>
       <c r="G91" t="n">
-        <v>23116.10644710001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>505</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,18 +3701,21 @@
         <v>260.9724</v>
       </c>
       <c r="G92" t="n">
-        <v>23116.10644710001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>505</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3731,18 +3737,21 @@
         <v>789.6651000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>22326.44134710001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>505</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3764,18 +3773,21 @@
         <v>19</v>
       </c>
       <c r="G94" t="n">
-        <v>22345.44134710001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>505</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3797,18 +3809,21 @@
         <v>156.3084</v>
       </c>
       <c r="G95" t="n">
-        <v>22189.13294710001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>505</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3830,18 +3845,21 @@
         <v>81</v>
       </c>
       <c r="G96" t="n">
-        <v>22108.13294710001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>505</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3863,18 +3881,21 @@
         <v>237.5536</v>
       </c>
       <c r="G97" t="n">
-        <v>22108.13294710001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>505</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3896,18 +3917,21 @@
         <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>22108.13294710001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>505</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3929,18 +3953,21 @@
         <v>32</v>
       </c>
       <c r="G99" t="n">
-        <v>22140.13294710001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>505</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3962,18 +3989,21 @@
         <v>151.9816</v>
       </c>
       <c r="G100" t="n">
-        <v>22140.13294710001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>505</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3995,18 +4025,21 @@
         <v>572.0997</v>
       </c>
       <c r="G101" t="n">
-        <v>22140.13294710001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>505</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4028,18 +4061,21 @@
         <v>136.5879</v>
       </c>
       <c r="G102" t="n">
-        <v>22276.7208471</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>505</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4061,18 +4097,21 @@
         <v>1162.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>22276.7208471</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>505</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4094,18 +4133,21 @@
         <v>307.5902</v>
       </c>
       <c r="G104" t="n">
-        <v>22276.7208471</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>505</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4127,18 +4169,21 @@
         <v>1282.9009</v>
       </c>
       <c r="G105" t="n">
-        <v>20993.8199471</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>505</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4160,18 +4205,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>20994.8199471</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>505</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4193,18 +4241,21 @@
         <v>346.7235</v>
       </c>
       <c r="G107" t="n">
-        <v>20994.8199471</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>505</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4226,18 +4277,21 @@
         <v>1383.5947</v>
       </c>
       <c r="G108" t="n">
-        <v>22378.41464710001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>505</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4259,18 +4313,21 @@
         <v>3754.6053</v>
       </c>
       <c r="G109" t="n">
-        <v>26133.01994710001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>505</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4292,18 +4349,21 @@
         <v>1807.0386</v>
       </c>
       <c r="G110" t="n">
-        <v>26133.01994710001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>505</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4325,18 +4385,21 @@
         <v>7472.3631</v>
       </c>
       <c r="G111" t="n">
-        <v>33605.3830471</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>505</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4358,18 +4421,21 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>33606.3830471</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>505</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4391,18 +4457,21 @@
         <v>22.2917</v>
       </c>
       <c r="G113" t="n">
-        <v>33606.3830471</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>505</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4424,18 +4493,21 @@
         <v>5842.3992</v>
       </c>
       <c r="G114" t="n">
-        <v>39448.7822471</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>505</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4457,18 +4529,21 @@
         <v>7465.9991</v>
       </c>
       <c r="G115" t="n">
-        <v>31982.7831471</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>505</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4490,18 +4565,21 @@
         <v>693</v>
       </c>
       <c r="G116" t="n">
-        <v>31289.7831471</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>505</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4523,18 +4601,21 @@
         <v>554.4041999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>31289.7831471</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>505</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4556,18 +4637,21 @@
         <v>1977.0967</v>
       </c>
       <c r="G118" t="n">
-        <v>29312.6864471</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>505</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4589,18 +4673,21 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>29313.6864471</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>505</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4622,18 +4709,21 @@
         <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>29513.6864471</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>505</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4655,18 +4745,21 @@
         <v>1088.0467</v>
       </c>
       <c r="G121" t="n">
-        <v>28425.6397471</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>505</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4688,18 +4781,21 @@
         <v>440.9972</v>
       </c>
       <c r="G122" t="n">
-        <v>27984.6425471</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>505</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4721,18 +4817,21 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>27985.6425471</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>505</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4754,18 +4853,21 @@
         <v>118</v>
       </c>
       <c r="G124" t="n">
-        <v>27985.6425471</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>505</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4787,18 +4889,21 @@
         <v>2819.6579</v>
       </c>
       <c r="G125" t="n">
-        <v>25165.9846471</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>505</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4820,18 +4925,21 @@
         <v>67.98090000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>25165.9846471</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>505</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4853,18 +4961,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>25166.9846471</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>505</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4886,18 +4997,21 @@
         <v>1708.5031</v>
       </c>
       <c r="G128" t="n">
-        <v>26875.4877471</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>505</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4919,18 +5033,21 @@
         <v>364.48</v>
       </c>
       <c r="G129" t="n">
-        <v>27239.9677471</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>505</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4952,18 +5069,21 @@
         <v>161</v>
       </c>
       <c r="G130" t="n">
-        <v>27400.9677471</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>505</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4985,18 +5105,21 @@
         <v>968.8167999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>26432.1509471</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>505</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5018,18 +5141,21 @@
         <v>454.9064</v>
       </c>
       <c r="G132" t="n">
-        <v>25977.2445471</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>505</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5051,18 +5177,21 @@
         <v>323.2982</v>
       </c>
       <c r="G133" t="n">
-        <v>25653.9463471</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>505</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5084,18 +5213,21 @@
         <v>41</v>
       </c>
       <c r="G134" t="n">
-        <v>25694.9463471</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>505</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5117,18 +5249,21 @@
         <v>3.27205882</v>
       </c>
       <c r="G135" t="n">
-        <v>25691.67428828</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>505</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5150,18 +5285,21 @@
         <v>2331.8788</v>
       </c>
       <c r="G136" t="n">
-        <v>25691.67428828</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>505</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5183,18 +5321,21 @@
         <v>1474.3499</v>
       </c>
       <c r="G137" t="n">
-        <v>25691.67428828</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>505</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5216,18 +5357,21 @@
         <v>3089.9999</v>
       </c>
       <c r="G138" t="n">
-        <v>25691.67428828</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>505</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5249,18 +5393,21 @@
         <v>40</v>
       </c>
       <c r="G139" t="n">
-        <v>25691.67428828</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>505</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5282,18 +5429,21 @@
         <v>465.8522</v>
       </c>
       <c r="G140" t="n">
-        <v>25691.67428828</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>505</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5315,18 +5465,21 @@
         <v>2101.6472</v>
       </c>
       <c r="G141" t="n">
-        <v>27793.32148828</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>505</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5348,18 +5501,21 @@
         <v>4479.7174</v>
       </c>
       <c r="G142" t="n">
-        <v>23313.60408828</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>505</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5381,18 +5537,21 @@
         <v>80</v>
       </c>
       <c r="G143" t="n">
-        <v>23233.60408828</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>505</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5414,18 +5573,21 @@
         <v>72</v>
       </c>
       <c r="G144" t="n">
-        <v>23233.60408828</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>505</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5447,18 +5609,21 @@
         <v>3359.7881</v>
       </c>
       <c r="G145" t="n">
-        <v>19873.81598828</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>505</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5480,18 +5645,21 @@
         <v>373.9692</v>
       </c>
       <c r="G146" t="n">
-        <v>20247.78518828</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>505</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5513,18 +5681,23 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>20248.78518828</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="I147" t="n">
+        <v>505</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5546,18 +5719,21 @@
         <v>2519.841</v>
       </c>
       <c r="G148" t="n">
-        <v>17728.94418827999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>505</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5579,18 +5755,21 @@
         <v>4486.3901</v>
       </c>
       <c r="G149" t="n">
-        <v>22215.33428828</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>505</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5612,18 +5791,21 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>22216.33428828</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>505</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5645,18 +5827,21 @@
         <v>1970.533</v>
       </c>
       <c r="G151" t="n">
-        <v>20245.80128828</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>505</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5678,18 +5863,21 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>20246.80128828</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>505</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5711,18 +5899,21 @@
         <v>3779.7616</v>
       </c>
       <c r="G153" t="n">
-        <v>16467.03968828</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>505</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5744,18 +5935,21 @@
         <v>213.6623</v>
       </c>
       <c r="G154" t="n">
-        <v>16467.03968828</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>505</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5777,18 +5971,21 @@
         <v>3779.7617</v>
       </c>
       <c r="G155" t="n">
-        <v>12687.27798828</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>505</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5810,18 +6007,23 @@
         <v>385.0637</v>
       </c>
       <c r="G156" t="n">
-        <v>13072.34168828</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="I156" t="n">
+        <v>505</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5843,18 +6045,21 @@
         <v>1019.73</v>
       </c>
       <c r="G157" t="n">
-        <v>14092.07168828</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>505</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5876,18 +6081,21 @@
         <v>298.6601</v>
       </c>
       <c r="G158" t="n">
-        <v>14092.07168828</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>505</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5909,18 +6117,21 @@
         <v>6898.3039</v>
       </c>
       <c r="G159" t="n">
-        <v>7193.767788279999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>505</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5942,18 +6153,21 @@
         <v>509.2245</v>
       </c>
       <c r="G160" t="n">
-        <v>7702.992288279999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>505</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5975,18 +6189,21 @@
         <v>414.7466</v>
       </c>
       <c r="G161" t="n">
-        <v>8117.73888828</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>505</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6008,18 +6225,21 @@
         <v>1051.9738</v>
       </c>
       <c r="G162" t="n">
-        <v>9169.71268828</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>505</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6041,18 +6261,21 @@
         <v>230</v>
       </c>
       <c r="G163" t="n">
-        <v>9169.71268828</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>505</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6074,18 +6297,21 @@
         <v>267.501</v>
       </c>
       <c r="G164" t="n">
-        <v>9437.21368828</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>505</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6107,18 +6333,21 @@
         <v>492.1965</v>
       </c>
       <c r="G165" t="n">
-        <v>9929.410188280001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>505</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6140,18 +6369,21 @@
         <v>1222.6863</v>
       </c>
       <c r="G166" t="n">
-        <v>9929.410188280001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>505</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6173,18 +6405,21 @@
         <v>568</v>
       </c>
       <c r="G167" t="n">
-        <v>10497.41018828</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>505</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6206,18 +6441,21 @@
         <v>36.563</v>
       </c>
       <c r="G168" t="n">
-        <v>10497.41018828</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>505</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6239,18 +6477,21 @@
         <v>1084.5018</v>
       </c>
       <c r="G169" t="n">
-        <v>9412.908388280001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>505</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6272,18 +6513,21 @@
         <v>2381.802</v>
       </c>
       <c r="G170" t="n">
-        <v>7031.106388280001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>505</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6305,18 +6549,21 @@
         <v>4346.0085</v>
       </c>
       <c r="G171" t="n">
-        <v>7031.106388280001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>505</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6338,18 +6585,21 @@
         <v>34.5476</v>
       </c>
       <c r="G172" t="n">
-        <v>7065.653988280001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>505</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6371,18 +6621,21 @@
         <v>3723.6038</v>
       </c>
       <c r="G173" t="n">
-        <v>3342.050188280001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>505</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6404,18 +6657,21 @@
         <v>1815.5456</v>
       </c>
       <c r="G174" t="n">
-        <v>5157.595788280001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>505</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6437,18 +6693,21 @@
         <v>139.83</v>
       </c>
       <c r="G175" t="n">
-        <v>5297.425788280001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>505</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6470,18 +6729,21 @@
         <v>99.99339999999999</v>
       </c>
       <c r="G176" t="n">
-        <v>5397.419188280001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>505</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6503,18 +6765,21 @@
         <v>300</v>
       </c>
       <c r="G177" t="n">
-        <v>5097.419188280001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>505</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6536,18 +6801,21 @@
         <v>200</v>
       </c>
       <c r="G178" t="n">
-        <v>5297.419188280001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>505</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6569,18 +6837,21 @@
         <v>5107.9897</v>
       </c>
       <c r="G179" t="n">
-        <v>10405.40888828</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>505</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6602,18 +6873,21 @@
         <v>300</v>
       </c>
       <c r="G180" t="n">
-        <v>10405.40888828</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>505</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6635,18 +6909,21 @@
         <v>122.3465</v>
       </c>
       <c r="G181" t="n">
-        <v>10527.75538828</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>505</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6668,18 +6945,21 @@
         <v>641.6778</v>
       </c>
       <c r="G182" t="n">
-        <v>11169.43318828</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>505</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6701,18 +6981,21 @@
         <v>150.08702611</v>
       </c>
       <c r="G183" t="n">
-        <v>11319.52021439</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>505</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6734,18 +7017,21 @@
         <v>8073.591</v>
       </c>
       <c r="G184" t="n">
-        <v>19393.11121439</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>505</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6767,18 +7053,21 @@
         <v>6390.68337389</v>
       </c>
       <c r="G185" t="n">
-        <v>13002.4278405</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>505</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6800,18 +7089,21 @@
         <v>200</v>
       </c>
       <c r="G186" t="n">
-        <v>13202.4278405</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>505</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6833,18 +7125,21 @@
         <v>1412.1416</v>
       </c>
       <c r="G187" t="n">
-        <v>11790.2862405</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>505</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6866,18 +7161,21 @@
         <v>260.8318</v>
       </c>
       <c r="G188" t="n">
-        <v>12051.1180405</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>505</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6899,18 +7197,21 @@
         <v>1382.8963</v>
       </c>
       <c r="G189" t="n">
-        <v>13434.0143405</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>505</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6932,18 +7233,21 @@
         <v>249.946</v>
       </c>
       <c r="G190" t="n">
-        <v>13683.9603405</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>505</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6965,18 +7269,21 @@
         <v>2126.01641086</v>
       </c>
       <c r="G191" t="n">
-        <v>15809.97675136</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>505</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6998,18 +7305,23 @@
         <v>1789.8546</v>
       </c>
       <c r="G192" t="n">
-        <v>14020.12215136</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>505</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1.113811881188119</v>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
-      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7031,18 +7343,15 @@
         <v>6373.0013</v>
       </c>
       <c r="G193" t="n">
-        <v>20393.12345136</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7064,18 +7373,15 @@
         <v>2655</v>
       </c>
       <c r="G194" t="n">
-        <v>17738.12345136</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7097,18 +7403,15 @@
         <v>200</v>
       </c>
       <c r="G195" t="n">
-        <v>17738.12345136</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7130,18 +7433,15 @@
         <v>436</v>
       </c>
       <c r="G196" t="n">
-        <v>17738.12345136</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7163,18 +7463,15 @@
         <v>431.775</v>
       </c>
       <c r="G197" t="n">
-        <v>17738.12345136</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7196,18 +7493,15 @@
         <v>1623.0281</v>
       </c>
       <c r="G198" t="n">
-        <v>16115.09535136</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7229,18 +7523,15 @@
         <v>346.57</v>
       </c>
       <c r="G199" t="n">
-        <v>16115.09535136</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7262,18 +7553,15 @@
         <v>73.46299999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>16188.55835136</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7295,18 +7583,15 @@
         <v>732.647</v>
       </c>
       <c r="G201" t="n">
-        <v>15455.91135136</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7328,18 +7613,15 @@
         <v>511.3181</v>
       </c>
       <c r="G202" t="n">
-        <v>14944.59325136</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7361,18 +7643,15 @@
         <v>2086.3055</v>
       </c>
       <c r="G203" t="n">
-        <v>17030.89875136</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7394,18 +7673,15 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>17031.89875136</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7427,18 +7703,15 @@
         <v>1107.9873</v>
       </c>
       <c r="G205" t="n">
-        <v>15923.91145136</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7460,18 +7733,15 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>15924.91145136</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7493,18 +7763,15 @@
         <v>5459.5861</v>
       </c>
       <c r="G207" t="n">
-        <v>10465.32535136</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7526,18 +7793,15 @@
         <v>1338.0397</v>
       </c>
       <c r="G208" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7559,18 +7823,15 @@
         <v>1715.5414</v>
       </c>
       <c r="G209" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7592,18 +7853,15 @@
         <v>930.5707</v>
       </c>
       <c r="G210" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7625,18 +7883,15 @@
         <v>2086.783</v>
       </c>
       <c r="G211" t="n">
-        <v>9127.285651359996</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7658,18 +7913,15 @@
         <v>22</v>
       </c>
       <c r="G212" t="n">
-        <v>9149.285651359996</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7691,18 +7943,15 @@
         <v>2968.7782</v>
       </c>
       <c r="G213" t="n">
-        <v>6180.507451359996</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7724,18 +7973,15 @@
         <v>638.5133</v>
       </c>
       <c r="G214" t="n">
-        <v>5541.994151359996</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7757,18 +8003,15 @@
         <v>2.2815</v>
       </c>
       <c r="G215" t="n">
-        <v>5544.275651359996</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7790,18 +8033,15 @@
         <v>139.6699</v>
       </c>
       <c r="G216" t="n">
-        <v>5404.605751359996</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7823,18 +8063,15 @@
         <v>87.1729</v>
       </c>
       <c r="G217" t="n">
-        <v>5404.605751359996</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7856,18 +8093,15 @@
         <v>160</v>
       </c>
       <c r="G218" t="n">
-        <v>5564.605751359996</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7889,18 +8123,15 @@
         <v>45.6148</v>
       </c>
       <c r="G219" t="n">
-        <v>5518.990951359996</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7922,18 +8153,15 @@
         <v>1438.5959</v>
       </c>
       <c r="G220" t="n">
-        <v>4080.395051359996</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7955,18 +8183,15 @@
         <v>89.12430000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>4169.519351359996</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7988,18 +8213,15 @@
         <v>80</v>
       </c>
       <c r="G222" t="n">
-        <v>4249.519351359996</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8021,18 +8243,15 @@
         <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>4249.519351359996</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8054,18 +8273,15 @@
         <v>1105</v>
       </c>
       <c r="G224" t="n">
-        <v>3144.519351359996</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8087,18 +8303,15 @@
         <v>364.7688</v>
       </c>
       <c r="G225" t="n">
-        <v>3144.519351359996</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8120,18 +8333,15 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>3145.519351359996</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8153,18 +8363,15 @@
         <v>3</v>
       </c>
       <c r="G227" t="n">
-        <v>3145.519351359996</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8186,18 +8393,15 @@
         <v>159.6186</v>
       </c>
       <c r="G228" t="n">
-        <v>2985.900751359996</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8219,18 +8423,15 @@
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>2986.900751359996</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8252,18 +8453,15 @@
         <v>288.445</v>
       </c>
       <c r="G230" t="n">
-        <v>2698.455751359996</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8285,18 +8483,15 @@
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>2699.455751359996</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8318,18 +8513,15 @@
         <v>240</v>
       </c>
       <c r="G232" t="n">
-        <v>2459.455751359996</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8351,18 +8543,15 @@
         <v>80</v>
       </c>
       <c r="G233" t="n">
-        <v>2379.455751359996</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8384,18 +8573,15 @@
         <v>631.8948</v>
       </c>
       <c r="G234" t="n">
-        <v>1747.560951359996</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8417,18 +8603,15 @@
         <v>547.1344</v>
       </c>
       <c r="G235" t="n">
-        <v>1200.426551359996</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8450,18 +8633,15 @@
         <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>1201.426551359996</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8483,18 +8663,15 @@
         <v>42</v>
       </c>
       <c r="G237" t="n">
-        <v>1243.426551359996</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8516,18 +8693,15 @@
         <v>4.1</v>
       </c>
       <c r="G238" t="n">
-        <v>1239.326551359996</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8549,18 +8723,15 @@
         <v>283.24</v>
       </c>
       <c r="G239" t="n">
-        <v>956.0865513599963</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8582,18 +8753,15 @@
         <v>1997.6459</v>
       </c>
       <c r="G240" t="n">
-        <v>-1041.559348640004</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
